--- a/wksp_T_RA_PP/res/T/Protocolo Tendido de conductores electricos.xlsx
+++ b/wksp_T_RA_PP/res/T/Protocolo Tendido de conductores electricos.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_T_RA_PP\res\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84498EAF-2D03-4C78-B37C-4AED1C504D7F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824A513-D000-4457-9273-1CE8942E6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14700" yWindow="0" windowWidth="8436" windowHeight="12336" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocolo de Tendido" sheetId="1" r:id="rId1"/>
@@ -1179,94 +1179,49 @@
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="172" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
@@ -1368,25 +1323,73 @@
     <xf numFmtId="49" fontId="4" fillId="2" borderId="11" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="12" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="172" fontId="3" fillId="2" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1412,9 +1415,6 @@
     </xf>
     <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -12766,198 +12766,198 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="42" customHeight="1">
-      <c r="A2" s="146"/>
-      <c r="B2" s="147"/>
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="152" t="s">
+      <c r="A2" s="131"/>
+      <c r="B2" s="132"/>
+      <c r="C2" s="132"/>
+      <c r="D2" s="132"/>
+      <c r="E2" s="132"/>
+      <c r="F2" s="132"/>
+      <c r="G2" s="132"/>
+      <c r="H2" s="137" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="153"/>
-      <c r="J2" s="153"/>
-      <c r="K2" s="153"/>
-      <c r="L2" s="153"/>
-      <c r="M2" s="153"/>
-      <c r="N2" s="153"/>
-      <c r="O2" s="153"/>
-      <c r="P2" s="153"/>
-      <c r="Q2" s="153"/>
-      <c r="R2" s="153"/>
-      <c r="S2" s="153"/>
-      <c r="T2" s="153"/>
-      <c r="U2" s="153"/>
-      <c r="V2" s="153"/>
-      <c r="W2" s="153"/>
-      <c r="X2" s="153"/>
-      <c r="Y2" s="153"/>
-      <c r="Z2" s="153"/>
-      <c r="AA2" s="153"/>
-      <c r="AB2" s="153"/>
-      <c r="AC2" s="153"/>
-      <c r="AD2" s="154"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="160"/>
+      <c r="I2" s="138"/>
+      <c r="J2" s="138"/>
+      <c r="K2" s="138"/>
+      <c r="L2" s="138"/>
+      <c r="M2" s="138"/>
+      <c r="N2" s="138"/>
+      <c r="O2" s="138"/>
+      <c r="P2" s="138"/>
+      <c r="Q2" s="138"/>
+      <c r="R2" s="138"/>
+      <c r="S2" s="138"/>
+      <c r="T2" s="138"/>
+      <c r="U2" s="138"/>
+      <c r="V2" s="138"/>
+      <c r="W2" s="138"/>
+      <c r="X2" s="138"/>
+      <c r="Y2" s="138"/>
+      <c r="Z2" s="138"/>
+      <c r="AA2" s="138"/>
+      <c r="AB2" s="138"/>
+      <c r="AC2" s="138"/>
+      <c r="AD2" s="139"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="145"/>
     </row>
     <row r="3" spans="1:43" ht="36.75" customHeight="1">
-      <c r="A3" s="148"/>
-      <c r="B3" s="149"/>
-      <c r="C3" s="149"/>
-      <c r="D3" s="149"/>
-      <c r="E3" s="149"/>
-      <c r="F3" s="149"/>
-      <c r="G3" s="149"/>
-      <c r="H3" s="155"/>
-      <c r="I3" s="156"/>
-      <c r="J3" s="156"/>
-      <c r="K3" s="156"/>
-      <c r="L3" s="156"/>
-      <c r="M3" s="156"/>
-      <c r="N3" s="156"/>
-      <c r="O3" s="156"/>
-      <c r="P3" s="156"/>
-      <c r="Q3" s="156"/>
-      <c r="R3" s="156"/>
-      <c r="S3" s="156"/>
-      <c r="T3" s="156"/>
-      <c r="U3" s="156"/>
-      <c r="V3" s="156"/>
-      <c r="W3" s="156"/>
-      <c r="X3" s="156"/>
-      <c r="Y3" s="156"/>
-      <c r="Z3" s="156"/>
-      <c r="AA3" s="156"/>
-      <c r="AB3" s="156"/>
-      <c r="AC3" s="156"/>
-      <c r="AD3" s="157"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="163"/>
+      <c r="A3" s="133"/>
+      <c r="B3" s="134"/>
+      <c r="C3" s="134"/>
+      <c r="D3" s="134"/>
+      <c r="E3" s="134"/>
+      <c r="F3" s="134"/>
+      <c r="G3" s="134"/>
+      <c r="H3" s="140"/>
+      <c r="I3" s="141"/>
+      <c r="J3" s="141"/>
+      <c r="K3" s="141"/>
+      <c r="L3" s="141"/>
+      <c r="M3" s="141"/>
+      <c r="N3" s="141"/>
+      <c r="O3" s="141"/>
+      <c r="P3" s="141"/>
+      <c r="Q3" s="141"/>
+      <c r="R3" s="141"/>
+      <c r="S3" s="141"/>
+      <c r="T3" s="141"/>
+      <c r="U3" s="141"/>
+      <c r="V3" s="141"/>
+      <c r="W3" s="141"/>
+      <c r="X3" s="141"/>
+      <c r="Y3" s="141"/>
+      <c r="Z3" s="141"/>
+      <c r="AA3" s="141"/>
+      <c r="AB3" s="141"/>
+      <c r="AC3" s="141"/>
+      <c r="AD3" s="142"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="148"/>
     </row>
     <row r="4" spans="1:43" ht="21" customHeight="1">
-      <c r="A4" s="148"/>
-      <c r="B4" s="149"/>
-      <c r="C4" s="149"/>
-      <c r="D4" s="149"/>
-      <c r="E4" s="149"/>
-      <c r="F4" s="149"/>
-      <c r="G4" s="149"/>
-      <c r="H4" s="164" t="s">
+      <c r="A4" s="133"/>
+      <c r="B4" s="134"/>
+      <c r="C4" s="134"/>
+      <c r="D4" s="134"/>
+      <c r="E4" s="134"/>
+      <c r="F4" s="134"/>
+      <c r="G4" s="134"/>
+      <c r="H4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="163"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="148"/>
     </row>
     <row r="5" spans="1:43" ht="22.5" customHeight="1">
-      <c r="A5" s="148"/>
-      <c r="B5" s="149"/>
-      <c r="C5" s="149"/>
-      <c r="D5" s="149"/>
-      <c r="E5" s="149"/>
-      <c r="F5" s="149"/>
-      <c r="G5" s="149"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="163"/>
+      <c r="A5" s="133"/>
+      <c r="B5" s="134"/>
+      <c r="C5" s="134"/>
+      <c r="D5" s="134"/>
+      <c r="E5" s="134"/>
+      <c r="F5" s="134"/>
+      <c r="G5" s="134"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="148"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="150"/>
-      <c r="B6" s="151"/>
-      <c r="C6" s="151"/>
-      <c r="D6" s="151"/>
-      <c r="E6" s="151"/>
-      <c r="F6" s="151"/>
-      <c r="G6" s="151"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="173"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="176"/>
+      <c r="A6" s="135"/>
+      <c r="B6" s="136"/>
+      <c r="C6" s="136"/>
+      <c r="D6" s="136"/>
+      <c r="E6" s="136"/>
+      <c r="F6" s="136"/>
+      <c r="G6" s="136"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="159"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="160"/>
+      <c r="AI6" s="160"/>
+      <c r="AJ6" s="161"/>
     </row>
     <row r="7" spans="1:43" ht="25.5" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
@@ -12990,50 +12990,50 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="182"/>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="183"/>
+      <c r="AE7" s="126"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="127"/>
     </row>
     <row r="8" spans="1:43" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="140"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="140"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="140"/>
-      <c r="AJ8" s="141"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="164"/>
     </row>
     <row r="9" spans="1:43" ht="35.25" customHeight="1">
       <c r="A9" s="1"/>
@@ -13077,34 +13077,34 @@
     </row>
     <row r="10" spans="1:43" ht="35.25" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="142" t="s">
+      <c r="B10" s="165" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="142"/>
-      <c r="D10" s="142"/>
-      <c r="E10" s="142"/>
-      <c r="I10" s="134" t="s">
+      <c r="C10" s="165"/>
+      <c r="D10" s="165"/>
+      <c r="E10" s="165"/>
+      <c r="I10" s="168" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
+      <c r="J10" s="168"/>
+      <c r="K10" s="168"/>
+      <c r="L10" s="168"/>
+      <c r="M10" s="168"/>
+      <c r="N10" s="168"/>
       <c r="R10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="V10" s="143" t="s">
+      <c r="V10" s="166" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="143"/>
-      <c r="X10" s="143"/>
-      <c r="Y10" s="143"/>
-      <c r="Z10" s="143"/>
-      <c r="AA10" s="143"/>
-      <c r="AB10" s="143"/>
-      <c r="AC10" s="143"/>
+      <c r="W10" s="166"/>
+      <c r="X10" s="166"/>
+      <c r="Y10" s="166"/>
+      <c r="Z10" s="166"/>
+      <c r="AA10" s="166"/>
+      <c r="AB10" s="166"/>
+      <c r="AC10" s="166"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
@@ -13115,34 +13115,34 @@
     </row>
     <row r="11" spans="1:43" ht="35.25" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="142" t="s">
+      <c r="B11" s="165" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="142"/>
-      <c r="D11" s="142"/>
-      <c r="E11" s="142"/>
-      <c r="I11" s="121" t="s">
+      <c r="C11" s="165"/>
+      <c r="D11" s="165"/>
+      <c r="E11" s="165"/>
+      <c r="I11" s="167" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="121"/>
-      <c r="K11" s="121"/>
-      <c r="L11" s="121"/>
-      <c r="M11" s="121"/>
-      <c r="N11" s="121"/>
+      <c r="J11" s="167"/>
+      <c r="K11" s="167"/>
+      <c r="L11" s="167"/>
+      <c r="M11" s="167"/>
+      <c r="N11" s="167"/>
       <c r="R11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="15"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="134">
+      <c r="W11" s="168">
         <v>0</v>
       </c>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="134"/>
+      <c r="X11" s="168"/>
+      <c r="Y11" s="168"/>
+      <c r="Z11" s="168"/>
+      <c r="AA11" s="168"/>
+      <c r="AB11" s="168"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
@@ -13154,20 +13154,20 @@
     </row>
     <row r="12" spans="1:43" ht="35.25" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="142" t="s">
+      <c r="B12" s="165" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="142"/>
-      <c r="D12" s="142"/>
-      <c r="E12" s="142"/>
-      <c r="I12" s="121" t="s">
+      <c r="C12" s="165"/>
+      <c r="D12" s="165"/>
+      <c r="E12" s="165"/>
+      <c r="I12" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="121"/>
-      <c r="K12" s="121"/>
-      <c r="L12" s="121"/>
-      <c r="M12" s="121"/>
-      <c r="N12" s="121"/>
+      <c r="J12" s="167"/>
+      <c r="K12" s="167"/>
+      <c r="L12" s="167"/>
+      <c r="M12" s="167"/>
+      <c r="N12" s="167"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
@@ -13176,12 +13176,12 @@
       <c r="S12" s="15"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
-      <c r="W12" s="145"/>
-      <c r="X12" s="145"/>
-      <c r="Y12" s="145"/>
-      <c r="Z12" s="145"/>
-      <c r="AA12" s="145"/>
-      <c r="AB12" s="145"/>
+      <c r="W12" s="169"/>
+      <c r="X12" s="169"/>
+      <c r="Y12" s="169"/>
+      <c r="Z12" s="169"/>
+      <c r="AA12" s="169"/>
+      <c r="AB12" s="169"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -13199,17 +13199,17 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="138"/>
-      <c r="I13" s="138"/>
-      <c r="J13" s="138"/>
-      <c r="K13" s="138"/>
-      <c r="L13" s="138"/>
-      <c r="M13" s="138"/>
-      <c r="N13" s="138"/>
-      <c r="O13" s="138"/>
-      <c r="P13" s="138"/>
-      <c r="Q13" s="138"/>
+      <c r="G13" s="177"/>
+      <c r="H13" s="177"/>
+      <c r="I13" s="177"/>
+      <c r="J13" s="177"/>
+      <c r="K13" s="177"/>
+      <c r="L13" s="177"/>
+      <c r="M13" s="177"/>
+      <c r="N13" s="177"/>
+      <c r="O13" s="177"/>
+      <c r="P13" s="177"/>
+      <c r="Q13" s="177"/>
       <c r="R13" s="19" t="s">
         <v>19</v>
       </c>
@@ -13217,12 +13217,12 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="133"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
+      <c r="W13" s="170"/>
+      <c r="X13" s="168"/>
+      <c r="Y13" s="168"/>
+      <c r="Z13" s="168"/>
+      <c r="AA13" s="168"/>
+      <c r="AB13" s="168"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -13448,33 +13448,33 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
+      <c r="I19" s="168"/>
+      <c r="J19" s="168"/>
+      <c r="K19" s="168"/>
+      <c r="L19" s="168"/>
+      <c r="M19" s="168"/>
+      <c r="N19" s="168"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="131" t="s">
+      <c r="R19" s="176" t="s">
         <v>46</v>
       </c>
-      <c r="S19" s="131"/>
-      <c r="T19" s="131"/>
+      <c r="S19" s="176"/>
+      <c r="T19" s="176"/>
       <c r="U19" s="15"/>
-      <c r="W19" s="137"/>
-      <c r="X19" s="137"/>
-      <c r="Y19" s="137"/>
-      <c r="Z19" s="137"/>
-      <c r="AA19" s="137"/>
-      <c r="AB19" s="137"/>
-      <c r="AC19" s="137"/>
-      <c r="AD19" s="137"/>
-      <c r="AE19" s="137"/>
-      <c r="AF19" s="137"/>
-      <c r="AG19" s="137"/>
-      <c r="AH19" s="137"/>
+      <c r="W19" s="175"/>
+      <c r="X19" s="175"/>
+      <c r="Y19" s="175"/>
+      <c r="Z19" s="175"/>
+      <c r="AA19" s="175"/>
+      <c r="AB19" s="175"/>
+      <c r="AC19" s="175"/>
+      <c r="AD19" s="175"/>
+      <c r="AE19" s="175"/>
+      <c r="AF19" s="175"/>
+      <c r="AG19" s="175"/>
+      <c r="AH19" s="175"/>
       <c r="AJ19" s="17"/>
     </row>
     <row r="20" spans="1:36" ht="35.25" customHeight="1">
@@ -13488,20 +13488,20 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
-      <c r="I20" s="121"/>
-      <c r="J20" s="121"/>
-      <c r="K20" s="121"/>
-      <c r="L20" s="121"/>
-      <c r="M20" s="121"/>
-      <c r="N20" s="121"/>
+      <c r="I20" s="167"/>
+      <c r="J20" s="167"/>
+      <c r="K20" s="167"/>
+      <c r="L20" s="167"/>
+      <c r="M20" s="167"/>
+      <c r="N20" s="167"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="131" t="s">
+      <c r="R20" s="176" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="131"/>
-      <c r="T20" s="131"/>
+      <c r="S20" s="176"/>
+      <c r="T20" s="176"/>
       <c r="U20" s="15"/>
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
@@ -13529,20 +13529,20 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="121"/>
-      <c r="J21" s="121"/>
-      <c r="K21" s="121"/>
-      <c r="L21" s="121"/>
-      <c r="M21" s="121"/>
-      <c r="N21" s="121"/>
+      <c r="I21" s="167"/>
+      <c r="J21" s="167"/>
+      <c r="K21" s="167"/>
+      <c r="L21" s="167"/>
+      <c r="M21" s="167"/>
+      <c r="N21" s="167"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="131" t="s">
+      <c r="R21" s="176" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="131"/>
-      <c r="T21" s="131"/>
+      <c r="S21" s="176"/>
+      <c r="T21" s="176"/>
       <c r="U21" s="15"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
@@ -13570,22 +13570,22 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="121" t="s">
+      <c r="I22" s="167" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="121"/>
-      <c r="K22" s="121"/>
-      <c r="L22" s="121"/>
-      <c r="M22" s="121"/>
-      <c r="N22" s="121"/>
+      <c r="J22" s="167"/>
+      <c r="K22" s="167"/>
+      <c r="L22" s="167"/>
+      <c r="M22" s="167"/>
+      <c r="N22" s="167"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="32"/>
-      <c r="R22" s="131" t="s">
+      <c r="R22" s="176" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="131"/>
-      <c r="T22" s="131"/>
+      <c r="S22" s="176"/>
+      <c r="T22" s="176"/>
       <c r="U22" s="15"/>
       <c r="W22" s="39" t="s">
         <v>60</v>
@@ -13682,470 +13682,470 @@
     </row>
     <row r="25" spans="1:36" ht="60" customHeight="1">
       <c r="A25" s="49"/>
-      <c r="B25" s="116" t="s">
+      <c r="B25" s="181" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="117"/>
-      <c r="D25" s="117" t="s">
+      <c r="C25" s="171"/>
+      <c r="D25" s="171" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="117"/>
-      <c r="F25" s="117"/>
-      <c r="G25" s="117"/>
-      <c r="H25" s="117"/>
-      <c r="I25" s="117"/>
-      <c r="J25" s="117"/>
-      <c r="K25" s="117"/>
-      <c r="L25" s="117"/>
-      <c r="M25" s="117"/>
-      <c r="N25" s="117"/>
-      <c r="O25" s="117"/>
-      <c r="P25" s="117" t="s">
+      <c r="E25" s="171"/>
+      <c r="F25" s="171"/>
+      <c r="G25" s="171"/>
+      <c r="H25" s="171"/>
+      <c r="I25" s="171"/>
+      <c r="J25" s="171"/>
+      <c r="K25" s="171"/>
+      <c r="L25" s="171"/>
+      <c r="M25" s="171"/>
+      <c r="N25" s="171"/>
+      <c r="O25" s="171"/>
+      <c r="P25" s="171" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="117"/>
-      <c r="R25" s="117"/>
-      <c r="S25" s="117"/>
-      <c r="T25" s="117"/>
-      <c r="U25" s="117"/>
-      <c r="V25" s="117" t="s">
+      <c r="Q25" s="171"/>
+      <c r="R25" s="171"/>
+      <c r="S25" s="171"/>
+      <c r="T25" s="171"/>
+      <c r="U25" s="171"/>
+      <c r="V25" s="171" t="s">
         <v>9</v>
       </c>
-      <c r="W25" s="117"/>
-      <c r="X25" s="117"/>
-      <c r="Y25" s="117"/>
-      <c r="Z25" s="117"/>
-      <c r="AA25" s="117"/>
-      <c r="AB25" s="117"/>
-      <c r="AC25" s="117"/>
-      <c r="AD25" s="117"/>
-      <c r="AE25" s="117"/>
-      <c r="AF25" s="117"/>
-      <c r="AG25" s="117"/>
-      <c r="AH25" s="117"/>
-      <c r="AI25" s="135"/>
+      <c r="W25" s="171"/>
+      <c r="X25" s="171"/>
+      <c r="Y25" s="171"/>
+      <c r="Z25" s="171"/>
+      <c r="AA25" s="171"/>
+      <c r="AB25" s="171"/>
+      <c r="AC25" s="171"/>
+      <c r="AD25" s="171"/>
+      <c r="AE25" s="171"/>
+      <c r="AF25" s="171"/>
+      <c r="AG25" s="171"/>
+      <c r="AH25" s="171"/>
+      <c r="AI25" s="173"/>
       <c r="AJ25" s="50"/>
     </row>
     <row r="26" spans="1:36" ht="60" customHeight="1">
       <c r="A26" s="49"/>
-      <c r="B26" s="118"/>
-      <c r="C26" s="119"/>
-      <c r="D26" s="119"/>
-      <c r="E26" s="119"/>
-      <c r="F26" s="119"/>
-      <c r="G26" s="119"/>
-      <c r="H26" s="119"/>
-      <c r="I26" s="119"/>
-      <c r="J26" s="119"/>
-      <c r="K26" s="119"/>
-      <c r="L26" s="119"/>
-      <c r="M26" s="119"/>
-      <c r="N26" s="119"/>
-      <c r="O26" s="119"/>
-      <c r="P26" s="120" t="s">
+      <c r="B26" s="182"/>
+      <c r="C26" s="172"/>
+      <c r="D26" s="172"/>
+      <c r="E26" s="172"/>
+      <c r="F26" s="172"/>
+      <c r="G26" s="172"/>
+      <c r="H26" s="172"/>
+      <c r="I26" s="172"/>
+      <c r="J26" s="172"/>
+      <c r="K26" s="172"/>
+      <c r="L26" s="172"/>
+      <c r="M26" s="172"/>
+      <c r="N26" s="172"/>
+      <c r="O26" s="172"/>
+      <c r="P26" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="120"/>
-      <c r="R26" s="120" t="s">
+      <c r="Q26" s="128"/>
+      <c r="R26" s="128" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="120"/>
-      <c r="T26" s="120" t="s">
+      <c r="S26" s="128"/>
+      <c r="T26" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="120"/>
-      <c r="V26" s="119"/>
-      <c r="W26" s="119"/>
-      <c r="X26" s="119"/>
-      <c r="Y26" s="119"/>
-      <c r="Z26" s="119"/>
-      <c r="AA26" s="119"/>
-      <c r="AB26" s="119"/>
-      <c r="AC26" s="119"/>
-      <c r="AD26" s="119"/>
-      <c r="AE26" s="119"/>
-      <c r="AF26" s="119"/>
-      <c r="AG26" s="119"/>
-      <c r="AH26" s="119"/>
-      <c r="AI26" s="136"/>
+      <c r="U26" s="128"/>
+      <c r="V26" s="172"/>
+      <c r="W26" s="172"/>
+      <c r="X26" s="172"/>
+      <c r="Y26" s="172"/>
+      <c r="Z26" s="172"/>
+      <c r="AA26" s="172"/>
+      <c r="AB26" s="172"/>
+      <c r="AC26" s="172"/>
+      <c r="AD26" s="172"/>
+      <c r="AE26" s="172"/>
+      <c r="AF26" s="172"/>
+      <c r="AG26" s="172"/>
+      <c r="AH26" s="172"/>
+      <c r="AI26" s="174"/>
       <c r="AJ26" s="51"/>
     </row>
     <row r="27" spans="1:36" ht="60" customHeight="1">
       <c r="A27" s="52"/>
-      <c r="B27" s="129">
+      <c r="B27" s="119">
         <v>1</v>
       </c>
-      <c r="C27" s="130"/>
-      <c r="D27" s="128" t="s">
+      <c r="C27" s="120"/>
+      <c r="D27" s="180" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="128"/>
-      <c r="F27" s="128"/>
-      <c r="G27" s="128"/>
-      <c r="H27" s="128"/>
-      <c r="I27" s="128"/>
-      <c r="J27" s="128"/>
-      <c r="K27" s="128"/>
-      <c r="L27" s="128"/>
-      <c r="M27" s="128"/>
-      <c r="N27" s="128"/>
-      <c r="O27" s="128"/>
-      <c r="P27" s="120"/>
-      <c r="Q27" s="120"/>
-      <c r="R27" s="120"/>
-      <c r="S27" s="120"/>
-      <c r="T27" s="120"/>
-      <c r="U27" s="120"/>
-      <c r="V27" s="120"/>
-      <c r="W27" s="120"/>
-      <c r="X27" s="120"/>
-      <c r="Y27" s="120"/>
-      <c r="Z27" s="120"/>
-      <c r="AA27" s="120"/>
-      <c r="AB27" s="120"/>
-      <c r="AC27" s="120"/>
-      <c r="AD27" s="120"/>
-      <c r="AE27" s="120"/>
-      <c r="AF27" s="120"/>
-      <c r="AG27" s="120"/>
-      <c r="AH27" s="120"/>
-      <c r="AI27" s="144"/>
+      <c r="E27" s="180"/>
+      <c r="F27" s="180"/>
+      <c r="G27" s="180"/>
+      <c r="H27" s="180"/>
+      <c r="I27" s="180"/>
+      <c r="J27" s="180"/>
+      <c r="K27" s="180"/>
+      <c r="L27" s="180"/>
+      <c r="M27" s="180"/>
+      <c r="N27" s="180"/>
+      <c r="O27" s="180"/>
+      <c r="P27" s="128"/>
+      <c r="Q27" s="128"/>
+      <c r="R27" s="128"/>
+      <c r="S27" s="128"/>
+      <c r="T27" s="128"/>
+      <c r="U27" s="128"/>
+      <c r="V27" s="128"/>
+      <c r="W27" s="128"/>
+      <c r="X27" s="128"/>
+      <c r="Y27" s="128"/>
+      <c r="Z27" s="128"/>
+      <c r="AA27" s="128"/>
+      <c r="AB27" s="128"/>
+      <c r="AC27" s="128"/>
+      <c r="AD27" s="128"/>
+      <c r="AE27" s="128"/>
+      <c r="AF27" s="128"/>
+      <c r="AG27" s="128"/>
+      <c r="AH27" s="128"/>
+      <c r="AI27" s="129"/>
       <c r="AJ27" s="51"/>
     </row>
     <row r="28" spans="1:36" ht="60" customHeight="1">
       <c r="A28" s="52"/>
-      <c r="B28" s="129">
+      <c r="B28" s="119">
         <v>2</v>
       </c>
-      <c r="C28" s="130"/>
-      <c r="D28" s="128" t="s">
+      <c r="C28" s="120"/>
+      <c r="D28" s="180" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="128"/>
-      <c r="F28" s="128"/>
-      <c r="G28" s="128"/>
-      <c r="H28" s="128"/>
-      <c r="I28" s="128"/>
-      <c r="J28" s="128"/>
-      <c r="K28" s="128"/>
-      <c r="L28" s="128"/>
-      <c r="M28" s="128"/>
-      <c r="N28" s="128"/>
-      <c r="O28" s="128"/>
-      <c r="P28" s="120"/>
-      <c r="Q28" s="120"/>
-      <c r="R28" s="120"/>
-      <c r="S28" s="120"/>
-      <c r="T28" s="120"/>
-      <c r="U28" s="120"/>
-      <c r="V28" s="120"/>
-      <c r="W28" s="120"/>
-      <c r="X28" s="120"/>
-      <c r="Y28" s="120"/>
-      <c r="Z28" s="120"/>
-      <c r="AA28" s="120"/>
-      <c r="AB28" s="120"/>
-      <c r="AC28" s="120"/>
-      <c r="AD28" s="120"/>
-      <c r="AE28" s="120"/>
-      <c r="AF28" s="120"/>
-      <c r="AG28" s="120"/>
-      <c r="AH28" s="120"/>
-      <c r="AI28" s="144"/>
+      <c r="E28" s="180"/>
+      <c r="F28" s="180"/>
+      <c r="G28" s="180"/>
+      <c r="H28" s="180"/>
+      <c r="I28" s="180"/>
+      <c r="J28" s="180"/>
+      <c r="K28" s="180"/>
+      <c r="L28" s="180"/>
+      <c r="M28" s="180"/>
+      <c r="N28" s="180"/>
+      <c r="O28" s="180"/>
+      <c r="P28" s="128"/>
+      <c r="Q28" s="128"/>
+      <c r="R28" s="128"/>
+      <c r="S28" s="128"/>
+      <c r="T28" s="128"/>
+      <c r="U28" s="128"/>
+      <c r="V28" s="128"/>
+      <c r="W28" s="128"/>
+      <c r="X28" s="128"/>
+      <c r="Y28" s="128"/>
+      <c r="Z28" s="128"/>
+      <c r="AA28" s="128"/>
+      <c r="AB28" s="128"/>
+      <c r="AC28" s="128"/>
+      <c r="AD28" s="128"/>
+      <c r="AE28" s="128"/>
+      <c r="AF28" s="128"/>
+      <c r="AG28" s="128"/>
+      <c r="AH28" s="128"/>
+      <c r="AI28" s="129"/>
       <c r="AJ28" s="51"/>
     </row>
     <row r="29" spans="1:36" ht="60" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="129">
+      <c r="B29" s="119">
         <v>3</v>
       </c>
-      <c r="C29" s="130"/>
-      <c r="D29" s="128" t="s">
+      <c r="C29" s="120"/>
+      <c r="D29" s="180" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="128"/>
-      <c r="F29" s="128"/>
-      <c r="G29" s="128"/>
-      <c r="H29" s="128"/>
-      <c r="I29" s="128"/>
-      <c r="J29" s="128"/>
-      <c r="K29" s="128"/>
-      <c r="L29" s="128"/>
-      <c r="M29" s="128"/>
-      <c r="N29" s="128"/>
-      <c r="O29" s="128"/>
-      <c r="P29" s="120"/>
-      <c r="Q29" s="120"/>
-      <c r="R29" s="120"/>
-      <c r="S29" s="120"/>
-      <c r="T29" s="120"/>
-      <c r="U29" s="120"/>
-      <c r="V29" s="120"/>
-      <c r="W29" s="120"/>
-      <c r="X29" s="120"/>
-      <c r="Y29" s="120"/>
-      <c r="Z29" s="120"/>
-      <c r="AA29" s="120"/>
-      <c r="AB29" s="120"/>
-      <c r="AC29" s="120"/>
-      <c r="AD29" s="120"/>
-      <c r="AE29" s="120"/>
-      <c r="AF29" s="120"/>
-      <c r="AG29" s="120"/>
-      <c r="AH29" s="120"/>
-      <c r="AI29" s="144"/>
+      <c r="E29" s="180"/>
+      <c r="F29" s="180"/>
+      <c r="G29" s="180"/>
+      <c r="H29" s="180"/>
+      <c r="I29" s="180"/>
+      <c r="J29" s="180"/>
+      <c r="K29" s="180"/>
+      <c r="L29" s="180"/>
+      <c r="M29" s="180"/>
+      <c r="N29" s="180"/>
+      <c r="O29" s="180"/>
+      <c r="P29" s="128"/>
+      <c r="Q29" s="128"/>
+      <c r="R29" s="128"/>
+      <c r="S29" s="128"/>
+      <c r="T29" s="128"/>
+      <c r="U29" s="128"/>
+      <c r="V29" s="128"/>
+      <c r="W29" s="128"/>
+      <c r="X29" s="128"/>
+      <c r="Y29" s="128"/>
+      <c r="Z29" s="128"/>
+      <c r="AA29" s="128"/>
+      <c r="AB29" s="128"/>
+      <c r="AC29" s="128"/>
+      <c r="AD29" s="128"/>
+      <c r="AE29" s="128"/>
+      <c r="AF29" s="128"/>
+      <c r="AG29" s="128"/>
+      <c r="AH29" s="128"/>
+      <c r="AI29" s="129"/>
       <c r="AJ29" s="51"/>
     </row>
     <row r="30" spans="1:36" ht="60" customHeight="1">
       <c r="A30" s="52"/>
-      <c r="B30" s="129">
+      <c r="B30" s="119">
         <v>4</v>
       </c>
-      <c r="C30" s="130"/>
-      <c r="D30" s="128" t="s">
+      <c r="C30" s="120"/>
+      <c r="D30" s="180" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="128"/>
-      <c r="F30" s="128"/>
-      <c r="G30" s="128"/>
-      <c r="H30" s="128"/>
-      <c r="I30" s="128"/>
-      <c r="J30" s="128"/>
-      <c r="K30" s="128"/>
-      <c r="L30" s="128"/>
-      <c r="M30" s="128"/>
-      <c r="N30" s="128"/>
-      <c r="O30" s="128"/>
-      <c r="P30" s="120"/>
-      <c r="Q30" s="120"/>
-      <c r="R30" s="120"/>
-      <c r="S30" s="120"/>
-      <c r="T30" s="120"/>
-      <c r="U30" s="120"/>
-      <c r="V30" s="120"/>
-      <c r="W30" s="120"/>
-      <c r="X30" s="120"/>
-      <c r="Y30" s="120"/>
-      <c r="Z30" s="120"/>
-      <c r="AA30" s="120"/>
-      <c r="AB30" s="120"/>
-      <c r="AC30" s="120"/>
-      <c r="AD30" s="120"/>
-      <c r="AE30" s="120"/>
-      <c r="AF30" s="120"/>
-      <c r="AG30" s="120"/>
-      <c r="AH30" s="120"/>
-      <c r="AI30" s="144"/>
+      <c r="E30" s="180"/>
+      <c r="F30" s="180"/>
+      <c r="G30" s="180"/>
+      <c r="H30" s="180"/>
+      <c r="I30" s="180"/>
+      <c r="J30" s="180"/>
+      <c r="K30" s="180"/>
+      <c r="L30" s="180"/>
+      <c r="M30" s="180"/>
+      <c r="N30" s="180"/>
+      <c r="O30" s="180"/>
+      <c r="P30" s="128"/>
+      <c r="Q30" s="128"/>
+      <c r="R30" s="128"/>
+      <c r="S30" s="128"/>
+      <c r="T30" s="128"/>
+      <c r="U30" s="128"/>
+      <c r="V30" s="128"/>
+      <c r="W30" s="128"/>
+      <c r="X30" s="128"/>
+      <c r="Y30" s="128"/>
+      <c r="Z30" s="128"/>
+      <c r="AA30" s="128"/>
+      <c r="AB30" s="128"/>
+      <c r="AC30" s="128"/>
+      <c r="AD30" s="128"/>
+      <c r="AE30" s="128"/>
+      <c r="AF30" s="128"/>
+      <c r="AG30" s="128"/>
+      <c r="AH30" s="128"/>
+      <c r="AI30" s="129"/>
       <c r="AJ30" s="51"/>
     </row>
     <row r="31" spans="1:36" ht="60" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="129">
+      <c r="B31" s="119">
         <v>5</v>
       </c>
-      <c r="C31" s="130"/>
-      <c r="D31" s="128" t="s">
+      <c r="C31" s="120"/>
+      <c r="D31" s="180" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="128"/>
-      <c r="F31" s="128"/>
-      <c r="G31" s="128"/>
-      <c r="H31" s="128"/>
-      <c r="I31" s="128"/>
-      <c r="J31" s="128"/>
-      <c r="K31" s="128"/>
-      <c r="L31" s="128"/>
-      <c r="M31" s="128"/>
-      <c r="N31" s="128"/>
-      <c r="O31" s="128"/>
-      <c r="P31" s="120"/>
-      <c r="Q31" s="120"/>
-      <c r="R31" s="120"/>
-      <c r="S31" s="120"/>
-      <c r="T31" s="120"/>
-      <c r="U31" s="120"/>
-      <c r="V31" s="120"/>
-      <c r="W31" s="120"/>
-      <c r="X31" s="120"/>
-      <c r="Y31" s="120"/>
-      <c r="Z31" s="120"/>
-      <c r="AA31" s="120"/>
-      <c r="AB31" s="120"/>
-      <c r="AC31" s="120"/>
-      <c r="AD31" s="120"/>
-      <c r="AE31" s="120"/>
-      <c r="AF31" s="120"/>
-      <c r="AG31" s="120"/>
-      <c r="AH31" s="120"/>
-      <c r="AI31" s="144"/>
+      <c r="E31" s="180"/>
+      <c r="F31" s="180"/>
+      <c r="G31" s="180"/>
+      <c r="H31" s="180"/>
+      <c r="I31" s="180"/>
+      <c r="J31" s="180"/>
+      <c r="K31" s="180"/>
+      <c r="L31" s="180"/>
+      <c r="M31" s="180"/>
+      <c r="N31" s="180"/>
+      <c r="O31" s="180"/>
+      <c r="P31" s="128"/>
+      <c r="Q31" s="128"/>
+      <c r="R31" s="128"/>
+      <c r="S31" s="128"/>
+      <c r="T31" s="128"/>
+      <c r="U31" s="128"/>
+      <c r="V31" s="128"/>
+      <c r="W31" s="128"/>
+      <c r="X31" s="128"/>
+      <c r="Y31" s="128"/>
+      <c r="Z31" s="128"/>
+      <c r="AA31" s="128"/>
+      <c r="AB31" s="128"/>
+      <c r="AC31" s="128"/>
+      <c r="AD31" s="128"/>
+      <c r="AE31" s="128"/>
+      <c r="AF31" s="128"/>
+      <c r="AG31" s="128"/>
+      <c r="AH31" s="128"/>
+      <c r="AI31" s="129"/>
       <c r="AJ31" s="51"/>
     </row>
     <row r="32" spans="1:36" ht="60" customHeight="1">
       <c r="A32" s="52"/>
-      <c r="B32" s="129">
+      <c r="B32" s="119">
         <v>6</v>
       </c>
-      <c r="C32" s="130"/>
-      <c r="D32" s="128" t="s">
+      <c r="C32" s="120"/>
+      <c r="D32" s="180" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="128"/>
-      <c r="F32" s="128"/>
-      <c r="G32" s="128"/>
-      <c r="H32" s="128"/>
-      <c r="I32" s="128"/>
-      <c r="J32" s="128"/>
-      <c r="K32" s="128"/>
-      <c r="L32" s="128"/>
-      <c r="M32" s="128"/>
-      <c r="N32" s="128"/>
-      <c r="O32" s="128"/>
-      <c r="P32" s="120"/>
-      <c r="Q32" s="120"/>
-      <c r="R32" s="120"/>
-      <c r="S32" s="120"/>
-      <c r="T32" s="120"/>
-      <c r="U32" s="120"/>
-      <c r="V32" s="120"/>
-      <c r="W32" s="120"/>
-      <c r="X32" s="120"/>
-      <c r="Y32" s="120"/>
-      <c r="Z32" s="120"/>
-      <c r="AA32" s="120"/>
-      <c r="AB32" s="120"/>
-      <c r="AC32" s="120"/>
-      <c r="AD32" s="120"/>
-      <c r="AE32" s="120"/>
-      <c r="AF32" s="120"/>
-      <c r="AG32" s="120"/>
-      <c r="AH32" s="120"/>
-      <c r="AI32" s="144"/>
+      <c r="E32" s="180"/>
+      <c r="F32" s="180"/>
+      <c r="G32" s="180"/>
+      <c r="H32" s="180"/>
+      <c r="I32" s="180"/>
+      <c r="J32" s="180"/>
+      <c r="K32" s="180"/>
+      <c r="L32" s="180"/>
+      <c r="M32" s="180"/>
+      <c r="N32" s="180"/>
+      <c r="O32" s="180"/>
+      <c r="P32" s="128"/>
+      <c r="Q32" s="128"/>
+      <c r="R32" s="128"/>
+      <c r="S32" s="128"/>
+      <c r="T32" s="128"/>
+      <c r="U32" s="128"/>
+      <c r="V32" s="128"/>
+      <c r="W32" s="128"/>
+      <c r="X32" s="128"/>
+      <c r="Y32" s="128"/>
+      <c r="Z32" s="128"/>
+      <c r="AA32" s="128"/>
+      <c r="AB32" s="128"/>
+      <c r="AC32" s="128"/>
+      <c r="AD32" s="128"/>
+      <c r="AE32" s="128"/>
+      <c r="AF32" s="128"/>
+      <c r="AG32" s="128"/>
+      <c r="AH32" s="128"/>
+      <c r="AI32" s="129"/>
       <c r="AJ32" s="51"/>
     </row>
     <row r="33" spans="1:54" ht="60" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="129">
+      <c r="B33" s="119">
         <v>7</v>
       </c>
-      <c r="C33" s="130"/>
-      <c r="D33" s="128" t="s">
+      <c r="C33" s="120"/>
+      <c r="D33" s="180" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="128"/>
-      <c r="F33" s="128"/>
-      <c r="G33" s="128"/>
-      <c r="H33" s="128"/>
-      <c r="I33" s="128"/>
-      <c r="J33" s="128"/>
-      <c r="K33" s="128"/>
-      <c r="L33" s="128"/>
-      <c r="M33" s="128"/>
-      <c r="N33" s="128"/>
-      <c r="O33" s="128"/>
-      <c r="P33" s="120"/>
-      <c r="Q33" s="120"/>
-      <c r="R33" s="120"/>
-      <c r="S33" s="120"/>
-      <c r="T33" s="120"/>
-      <c r="U33" s="120"/>
-      <c r="V33" s="120"/>
-      <c r="W33" s="120"/>
-      <c r="X33" s="120"/>
-      <c r="Y33" s="120"/>
-      <c r="Z33" s="120"/>
-      <c r="AA33" s="120"/>
-      <c r="AB33" s="120"/>
-      <c r="AC33" s="120"/>
-      <c r="AD33" s="120"/>
-      <c r="AE33" s="120"/>
-      <c r="AF33" s="120"/>
-      <c r="AG33" s="120"/>
-      <c r="AH33" s="120"/>
-      <c r="AI33" s="144"/>
+      <c r="E33" s="180"/>
+      <c r="F33" s="180"/>
+      <c r="G33" s="180"/>
+      <c r="H33" s="180"/>
+      <c r="I33" s="180"/>
+      <c r="J33" s="180"/>
+      <c r="K33" s="180"/>
+      <c r="L33" s="180"/>
+      <c r="M33" s="180"/>
+      <c r="N33" s="180"/>
+      <c r="O33" s="180"/>
+      <c r="P33" s="128"/>
+      <c r="Q33" s="128"/>
+      <c r="R33" s="128"/>
+      <c r="S33" s="128"/>
+      <c r="T33" s="128"/>
+      <c r="U33" s="128"/>
+      <c r="V33" s="128"/>
+      <c r="W33" s="128"/>
+      <c r="X33" s="128"/>
+      <c r="Y33" s="128"/>
+      <c r="Z33" s="128"/>
+      <c r="AA33" s="128"/>
+      <c r="AB33" s="128"/>
+      <c r="AC33" s="128"/>
+      <c r="AD33" s="128"/>
+      <c r="AE33" s="128"/>
+      <c r="AF33" s="128"/>
+      <c r="AG33" s="128"/>
+      <c r="AH33" s="128"/>
+      <c r="AI33" s="129"/>
       <c r="AJ33" s="51"/>
     </row>
     <row r="34" spans="1:54" ht="60" customHeight="1">
       <c r="A34" s="52"/>
-      <c r="B34" s="129">
+      <c r="B34" s="119">
         <v>8</v>
       </c>
-      <c r="C34" s="130"/>
-      <c r="D34" s="128" t="s">
+      <c r="C34" s="120"/>
+      <c r="D34" s="180" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="128"/>
-      <c r="F34" s="128"/>
-      <c r="G34" s="128"/>
-      <c r="H34" s="128"/>
-      <c r="I34" s="128"/>
-      <c r="J34" s="128"/>
-      <c r="K34" s="128"/>
-      <c r="L34" s="128"/>
-      <c r="M34" s="128"/>
-      <c r="N34" s="128"/>
-      <c r="O34" s="128"/>
-      <c r="P34" s="120"/>
-      <c r="Q34" s="120"/>
-      <c r="R34" s="120"/>
-      <c r="S34" s="120"/>
-      <c r="T34" s="120"/>
-      <c r="U34" s="120"/>
-      <c r="V34" s="120"/>
-      <c r="W34" s="120"/>
-      <c r="X34" s="120"/>
-      <c r="Y34" s="120"/>
-      <c r="Z34" s="120"/>
-      <c r="AA34" s="120"/>
-      <c r="AB34" s="120"/>
-      <c r="AC34" s="120"/>
-      <c r="AD34" s="120"/>
-      <c r="AE34" s="120"/>
-      <c r="AF34" s="120"/>
-      <c r="AG34" s="120"/>
-      <c r="AH34" s="120"/>
-      <c r="AI34" s="144"/>
+      <c r="E34" s="180"/>
+      <c r="F34" s="180"/>
+      <c r="G34" s="180"/>
+      <c r="H34" s="180"/>
+      <c r="I34" s="180"/>
+      <c r="J34" s="180"/>
+      <c r="K34" s="180"/>
+      <c r="L34" s="180"/>
+      <c r="M34" s="180"/>
+      <c r="N34" s="180"/>
+      <c r="O34" s="180"/>
+      <c r="P34" s="128"/>
+      <c r="Q34" s="128"/>
+      <c r="R34" s="128"/>
+      <c r="S34" s="128"/>
+      <c r="T34" s="128"/>
+      <c r="U34" s="128"/>
+      <c r="V34" s="128"/>
+      <c r="W34" s="128"/>
+      <c r="X34" s="128"/>
+      <c r="Y34" s="128"/>
+      <c r="Z34" s="128"/>
+      <c r="AA34" s="128"/>
+      <c r="AB34" s="128"/>
+      <c r="AC34" s="128"/>
+      <c r="AD34" s="128"/>
+      <c r="AE34" s="128"/>
+      <c r="AF34" s="128"/>
+      <c r="AG34" s="128"/>
+      <c r="AH34" s="128"/>
+      <c r="AI34" s="129"/>
       <c r="AJ34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="60" customHeight="1">
       <c r="A35" s="52"/>
-      <c r="B35" s="132">
+      <c r="B35" s="178">
         <v>9</v>
       </c>
-      <c r="C35" s="124"/>
-      <c r="D35" s="128" t="s">
+      <c r="C35" s="179"/>
+      <c r="D35" s="180" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="128"/>
-      <c r="F35" s="128"/>
-      <c r="G35" s="128"/>
-      <c r="H35" s="128"/>
-      <c r="I35" s="128"/>
-      <c r="J35" s="128"/>
-      <c r="K35" s="128"/>
-      <c r="L35" s="128"/>
-      <c r="M35" s="128"/>
-      <c r="N35" s="128"/>
-      <c r="O35" s="128"/>
-      <c r="P35" s="120"/>
-      <c r="Q35" s="120"/>
-      <c r="R35" s="120"/>
-      <c r="S35" s="120"/>
-      <c r="T35" s="120"/>
-      <c r="U35" s="120"/>
-      <c r="V35" s="120"/>
-      <c r="W35" s="120"/>
-      <c r="X35" s="120"/>
-      <c r="Y35" s="120"/>
-      <c r="Z35" s="120"/>
-      <c r="AA35" s="120"/>
-      <c r="AB35" s="120"/>
-      <c r="AC35" s="120"/>
-      <c r="AD35" s="120"/>
-      <c r="AE35" s="120"/>
-      <c r="AF35" s="120"/>
-      <c r="AG35" s="120"/>
-      <c r="AH35" s="120"/>
-      <c r="AI35" s="144"/>
+      <c r="E35" s="180"/>
+      <c r="F35" s="180"/>
+      <c r="G35" s="180"/>
+      <c r="H35" s="180"/>
+      <c r="I35" s="180"/>
+      <c r="J35" s="180"/>
+      <c r="K35" s="180"/>
+      <c r="L35" s="180"/>
+      <c r="M35" s="180"/>
+      <c r="N35" s="180"/>
+      <c r="O35" s="180"/>
+      <c r="P35" s="128"/>
+      <c r="Q35" s="128"/>
+      <c r="R35" s="128"/>
+      <c r="S35" s="128"/>
+      <c r="T35" s="128"/>
+      <c r="U35" s="128"/>
+      <c r="V35" s="128"/>
+      <c r="W35" s="128"/>
+      <c r="X35" s="128"/>
+      <c r="Y35" s="128"/>
+      <c r="Z35" s="128"/>
+      <c r="AA35" s="128"/>
+      <c r="AB35" s="128"/>
+      <c r="AC35" s="128"/>
+      <c r="AD35" s="128"/>
+      <c r="AE35" s="128"/>
+      <c r="AF35" s="128"/>
+      <c r="AG35" s="128"/>
+      <c r="AH35" s="128"/>
+      <c r="AI35" s="129"/>
       <c r="AJ35" s="51"/>
     </row>
     <row r="36" spans="1:54" ht="6.75" customHeight="1" thickBot="1">
@@ -14355,16 +14355,16 @@
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
-      <c r="Q42" s="127"/>
-      <c r="R42" s="127"/>
-      <c r="S42" s="127"/>
-      <c r="T42" s="127"/>
+      <c r="Q42" s="130"/>
+      <c r="R42" s="130"/>
+      <c r="S42" s="130"/>
+      <c r="T42" s="130"/>
       <c r="Z42" s="82"/>
       <c r="AA42" s="82"/>
-      <c r="AB42" s="127"/>
-      <c r="AC42" s="127"/>
-      <c r="AD42" s="127"/>
-      <c r="AE42" s="127"/>
+      <c r="AB42" s="130"/>
+      <c r="AC42" s="130"/>
+      <c r="AD42" s="130"/>
+      <c r="AE42" s="130"/>
       <c r="AF42" s="83"/>
       <c r="AG42" s="83"/>
       <c r="AH42" s="83"/>
@@ -14372,50 +14372,50 @@
       <c r="AJ42" s="17"/>
     </row>
     <row r="43" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A43" s="129" t="s">
+      <c r="A43" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="130"/>
-      <c r="C43" s="130"/>
-      <c r="D43" s="130"/>
-      <c r="E43" s="130"/>
-      <c r="F43" s="130"/>
-      <c r="G43" s="130"/>
-      <c r="H43" s="130"/>
-      <c r="I43" s="177"/>
-      <c r="J43" s="178" t="s">
+      <c r="B43" s="120"/>
+      <c r="C43" s="120"/>
+      <c r="D43" s="120"/>
+      <c r="E43" s="120"/>
+      <c r="F43" s="120"/>
+      <c r="G43" s="120"/>
+      <c r="H43" s="120"/>
+      <c r="I43" s="121"/>
+      <c r="J43" s="122" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="130"/>
-      <c r="L43" s="130"/>
-      <c r="M43" s="130"/>
-      <c r="N43" s="130"/>
-      <c r="O43" s="130"/>
-      <c r="P43" s="130"/>
-      <c r="Q43" s="130"/>
-      <c r="R43" s="177"/>
-      <c r="S43" s="178" t="s">
+      <c r="K43" s="120"/>
+      <c r="L43" s="120"/>
+      <c r="M43" s="120"/>
+      <c r="N43" s="120"/>
+      <c r="O43" s="120"/>
+      <c r="P43" s="120"/>
+      <c r="Q43" s="120"/>
+      <c r="R43" s="121"/>
+      <c r="S43" s="122" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="130"/>
-      <c r="U43" s="130"/>
-      <c r="V43" s="130"/>
-      <c r="W43" s="130"/>
-      <c r="X43" s="130"/>
-      <c r="Y43" s="130"/>
-      <c r="Z43" s="130"/>
-      <c r="AA43" s="177"/>
-      <c r="AB43" s="179" t="s">
+      <c r="T43" s="120"/>
+      <c r="U43" s="120"/>
+      <c r="V43" s="120"/>
+      <c r="W43" s="120"/>
+      <c r="X43" s="120"/>
+      <c r="Y43" s="120"/>
+      <c r="Z43" s="120"/>
+      <c r="AA43" s="121"/>
+      <c r="AB43" s="123" t="s">
         <v>50</v>
       </c>
-      <c r="AC43" s="180"/>
-      <c r="AD43" s="180"/>
-      <c r="AE43" s="180"/>
-      <c r="AF43" s="180"/>
-      <c r="AG43" s="180"/>
-      <c r="AH43" s="180"/>
-      <c r="AI43" s="180"/>
-      <c r="AJ43" s="181"/>
+      <c r="AC43" s="124"/>
+      <c r="AD43" s="124"/>
+      <c r="AE43" s="124"/>
+      <c r="AF43" s="124"/>
+      <c r="AG43" s="124"/>
+      <c r="AH43" s="124"/>
+      <c r="AI43" s="124"/>
+      <c r="AJ43" s="125"/>
     </row>
     <row r="44" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
       <c r="A44" s="84" t="s">
@@ -14423,23 +14423,23 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="34"/>
-      <c r="D44" s="125"/>
-      <c r="E44" s="125"/>
-      <c r="F44" s="125"/>
-      <c r="G44" s="125"/>
-      <c r="H44" s="125"/>
-      <c r="I44" s="126"/>
+      <c r="D44" s="117"/>
+      <c r="E44" s="117"/>
+      <c r="F44" s="117"/>
+      <c r="G44" s="117"/>
+      <c r="H44" s="117"/>
+      <c r="I44" s="118"/>
       <c r="J44" s="85" t="s">
         <v>1</v>
       </c>
       <c r="K44" s="34"/>
-      <c r="L44" s="192"/>
-      <c r="M44" s="125"/>
-      <c r="N44" s="125"/>
-      <c r="O44" s="125"/>
-      <c r="P44" s="125"/>
-      <c r="Q44" s="125"/>
-      <c r="R44" s="126"/>
+      <c r="L44" s="116"/>
+      <c r="M44" s="117"/>
+      <c r="N44" s="117"/>
+      <c r="O44" s="117"/>
+      <c r="P44" s="117"/>
+      <c r="Q44" s="117"/>
+      <c r="R44" s="118"/>
       <c r="S44" s="85" t="s">
         <v>1</v>
       </c>
@@ -14469,23 +14469,23 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="123"/>
-      <c r="E45" s="123"/>
-      <c r="F45" s="123"/>
-      <c r="G45" s="123"/>
-      <c r="H45" s="123"/>
-      <c r="I45" s="124"/>
+      <c r="D45" s="184"/>
+      <c r="E45" s="184"/>
+      <c r="F45" s="184"/>
+      <c r="G45" s="184"/>
+      <c r="H45" s="184"/>
+      <c r="I45" s="179"/>
       <c r="J45" s="94" t="s">
         <v>2</v>
       </c>
       <c r="K45" s="18"/>
-      <c r="L45" s="192"/>
-      <c r="M45" s="125"/>
-      <c r="N45" s="125"/>
-      <c r="O45" s="125"/>
-      <c r="P45" s="125"/>
-      <c r="Q45" s="125"/>
-      <c r="R45" s="126"/>
+      <c r="L45" s="116"/>
+      <c r="M45" s="117"/>
+      <c r="N45" s="117"/>
+      <c r="O45" s="117"/>
+      <c r="P45" s="117"/>
+      <c r="Q45" s="117"/>
+      <c r="R45" s="118"/>
       <c r="S45" s="94" t="s">
         <v>2</v>
       </c>
@@ -14515,23 +14515,23 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="122"/>
-      <c r="E46" s="123"/>
-      <c r="F46" s="123"/>
-      <c r="G46" s="123"/>
-      <c r="H46" s="123"/>
-      <c r="I46" s="124"/>
+      <c r="D46" s="183"/>
+      <c r="E46" s="184"/>
+      <c r="F46" s="184"/>
+      <c r="G46" s="184"/>
+      <c r="H46" s="184"/>
+      <c r="I46" s="179"/>
       <c r="J46" s="94" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="18"/>
-      <c r="L46" s="192"/>
-      <c r="M46" s="125"/>
-      <c r="N46" s="125"/>
-      <c r="O46" s="125"/>
-      <c r="P46" s="125"/>
-      <c r="Q46" s="125"/>
-      <c r="R46" s="126"/>
+      <c r="L46" s="116"/>
+      <c r="M46" s="117"/>
+      <c r="N46" s="117"/>
+      <c r="O46" s="117"/>
+      <c r="P46" s="117"/>
+      <c r="Q46" s="117"/>
+      <c r="R46" s="118"/>
       <c r="S46" s="94" t="s">
         <v>3</v>
       </c>
@@ -14561,12 +14561,12 @@
       </c>
       <c r="B47" s="89"/>
       <c r="C47" s="87"/>
-      <c r="D47" s="123"/>
-      <c r="E47" s="123"/>
-      <c r="F47" s="123"/>
-      <c r="G47" s="123"/>
-      <c r="H47" s="123"/>
-      <c r="I47" s="124"/>
+      <c r="D47" s="184"/>
+      <c r="E47" s="184"/>
+      <c r="F47" s="184"/>
+      <c r="G47" s="184"/>
+      <c r="H47" s="184"/>
+      <c r="I47" s="179"/>
       <c r="J47" s="103" t="s">
         <v>4</v>
       </c>
@@ -14641,6 +14641,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="B25:C26"/>
+    <mergeCell ref="T35:U35"/>
+    <mergeCell ref="I21:N21"/>
+    <mergeCell ref="D46:I46"/>
+    <mergeCell ref="D47:I47"/>
+    <mergeCell ref="D45:I45"/>
+    <mergeCell ref="D44:I44"/>
+    <mergeCell ref="R31:S31"/>
+    <mergeCell ref="Q42:T42"/>
+    <mergeCell ref="T31:U31"/>
+    <mergeCell ref="D27:O27"/>
+    <mergeCell ref="D28:O28"/>
+    <mergeCell ref="D29:O29"/>
+    <mergeCell ref="D30:O30"/>
+    <mergeCell ref="B30:C30"/>
+    <mergeCell ref="R22:T22"/>
+    <mergeCell ref="B35:C35"/>
+    <mergeCell ref="D31:O31"/>
+    <mergeCell ref="D32:O32"/>
+    <mergeCell ref="D33:O33"/>
+    <mergeCell ref="D34:O34"/>
+    <mergeCell ref="D35:O35"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="W12:AB12"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="D25:O26"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="V25:AI26"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="G13:Q13"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AI27"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="V35:AI35"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AI28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V31:AI31"/>
+    <mergeCell ref="A2:G6"/>
+    <mergeCell ref="H2:AD3"/>
+    <mergeCell ref="AE2:AJ5"/>
+    <mergeCell ref="H4:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="A8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="V34:AI34"/>
+    <mergeCell ref="I22:N22"/>
     <mergeCell ref="M44:R44"/>
     <mergeCell ref="M45:R45"/>
     <mergeCell ref="M46:R46"/>
@@ -14665,89 +14744,10 @@
     <mergeCell ref="T32:U32"/>
     <mergeCell ref="P35:Q35"/>
     <mergeCell ref="R35:S35"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AI27"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="V35:AI35"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AI28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V31:AI31"/>
-    <mergeCell ref="A2:G6"/>
-    <mergeCell ref="H2:AD3"/>
-    <mergeCell ref="AE2:AJ5"/>
-    <mergeCell ref="H4:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="A8:AJ8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="V34:AI34"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="W12:AB12"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="D25:O26"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="V25:AI26"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="G13:Q13"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="B35:C35"/>
-    <mergeCell ref="D31:O31"/>
-    <mergeCell ref="D32:O32"/>
-    <mergeCell ref="D33:O33"/>
-    <mergeCell ref="D34:O34"/>
-    <mergeCell ref="D35:O35"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B25:C26"/>
-    <mergeCell ref="T35:U35"/>
-    <mergeCell ref="I21:N21"/>
-    <mergeCell ref="D46:I46"/>
-    <mergeCell ref="D47:I47"/>
-    <mergeCell ref="D45:I45"/>
-    <mergeCell ref="D44:I44"/>
-    <mergeCell ref="R31:S31"/>
-    <mergeCell ref="Q42:T42"/>
-    <mergeCell ref="T31:U31"/>
-    <mergeCell ref="D27:O27"/>
-    <mergeCell ref="D28:O28"/>
-    <mergeCell ref="D29:O29"/>
-    <mergeCell ref="D30:O30"/>
-    <mergeCell ref="B30:C30"/>
-    <mergeCell ref="R22:T22"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.43307086614173229" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>
-  <pageSetup scale="44" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <colBreaks count="1" manualBreakCount="1">
     <brk id="37" max="70" man="1"/>
   </colBreaks>
@@ -14817,198 +14817,198 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="39.75" customHeight="1">
-      <c r="A2" s="158"/>
-      <c r="B2" s="159"/>
-      <c r="C2" s="159"/>
-      <c r="D2" s="159"/>
-      <c r="E2" s="159"/>
-      <c r="F2" s="159"/>
-      <c r="G2" s="159"/>
-      <c r="H2" s="186" t="s">
+      <c r="A2" s="143"/>
+      <c r="B2" s="144"/>
+      <c r="C2" s="144"/>
+      <c r="D2" s="144"/>
+      <c r="E2" s="144"/>
+      <c r="F2" s="144"/>
+      <c r="G2" s="144"/>
+      <c r="H2" s="187" t="s">
         <v>52</v>
       </c>
-      <c r="I2" s="187"/>
-      <c r="J2" s="187"/>
-      <c r="K2" s="187"/>
-      <c r="L2" s="187"/>
-      <c r="M2" s="187"/>
-      <c r="N2" s="187"/>
-      <c r="O2" s="187"/>
-      <c r="P2" s="187"/>
-      <c r="Q2" s="187"/>
-      <c r="R2" s="187"/>
-      <c r="S2" s="187"/>
-      <c r="T2" s="187"/>
-      <c r="U2" s="187"/>
-      <c r="V2" s="187"/>
-      <c r="W2" s="187"/>
-      <c r="X2" s="187"/>
-      <c r="Y2" s="187"/>
-      <c r="Z2" s="187"/>
-      <c r="AA2" s="187"/>
-      <c r="AB2" s="187"/>
-      <c r="AC2" s="187"/>
-      <c r="AD2" s="188"/>
-      <c r="AE2" s="158"/>
-      <c r="AF2" s="159"/>
-      <c r="AG2" s="159"/>
-      <c r="AH2" s="159"/>
-      <c r="AI2" s="159"/>
-      <c r="AJ2" s="160"/>
+      <c r="I2" s="188"/>
+      <c r="J2" s="188"/>
+      <c r="K2" s="188"/>
+      <c r="L2" s="188"/>
+      <c r="M2" s="188"/>
+      <c r="N2" s="188"/>
+      <c r="O2" s="188"/>
+      <c r="P2" s="188"/>
+      <c r="Q2" s="188"/>
+      <c r="R2" s="188"/>
+      <c r="S2" s="188"/>
+      <c r="T2" s="188"/>
+      <c r="U2" s="188"/>
+      <c r="V2" s="188"/>
+      <c r="W2" s="188"/>
+      <c r="X2" s="188"/>
+      <c r="Y2" s="188"/>
+      <c r="Z2" s="188"/>
+      <c r="AA2" s="188"/>
+      <c r="AB2" s="188"/>
+      <c r="AC2" s="188"/>
+      <c r="AD2" s="189"/>
+      <c r="AE2" s="143"/>
+      <c r="AF2" s="144"/>
+      <c r="AG2" s="144"/>
+      <c r="AH2" s="144"/>
+      <c r="AI2" s="144"/>
+      <c r="AJ2" s="145"/>
     </row>
     <row r="3" spans="1:36" ht="39.75" customHeight="1">
-      <c r="A3" s="161"/>
-      <c r="B3" s="162"/>
-      <c r="C3" s="162"/>
-      <c r="D3" s="162"/>
-      <c r="E3" s="162"/>
-      <c r="F3" s="162"/>
-      <c r="G3" s="162"/>
-      <c r="H3" s="189"/>
-      <c r="I3" s="190"/>
-      <c r="J3" s="190"/>
-      <c r="K3" s="190"/>
-      <c r="L3" s="190"/>
-      <c r="M3" s="190"/>
-      <c r="N3" s="190"/>
-      <c r="O3" s="190"/>
-      <c r="P3" s="190"/>
-      <c r="Q3" s="190"/>
-      <c r="R3" s="190"/>
-      <c r="S3" s="190"/>
-      <c r="T3" s="190"/>
-      <c r="U3" s="190"/>
-      <c r="V3" s="190"/>
-      <c r="W3" s="190"/>
-      <c r="X3" s="190"/>
-      <c r="Y3" s="190"/>
-      <c r="Z3" s="190"/>
-      <c r="AA3" s="190"/>
-      <c r="AB3" s="190"/>
-      <c r="AC3" s="190"/>
-      <c r="AD3" s="191"/>
-      <c r="AE3" s="161"/>
-      <c r="AF3" s="162"/>
-      <c r="AG3" s="162"/>
-      <c r="AH3" s="162"/>
-      <c r="AI3" s="162"/>
-      <c r="AJ3" s="163"/>
+      <c r="A3" s="146"/>
+      <c r="B3" s="147"/>
+      <c r="C3" s="147"/>
+      <c r="D3" s="147"/>
+      <c r="E3" s="147"/>
+      <c r="F3" s="147"/>
+      <c r="G3" s="147"/>
+      <c r="H3" s="190"/>
+      <c r="I3" s="191"/>
+      <c r="J3" s="191"/>
+      <c r="K3" s="191"/>
+      <c r="L3" s="191"/>
+      <c r="M3" s="191"/>
+      <c r="N3" s="191"/>
+      <c r="O3" s="191"/>
+      <c r="P3" s="191"/>
+      <c r="Q3" s="191"/>
+      <c r="R3" s="191"/>
+      <c r="S3" s="191"/>
+      <c r="T3" s="191"/>
+      <c r="U3" s="191"/>
+      <c r="V3" s="191"/>
+      <c r="W3" s="191"/>
+      <c r="X3" s="191"/>
+      <c r="Y3" s="191"/>
+      <c r="Z3" s="191"/>
+      <c r="AA3" s="191"/>
+      <c r="AB3" s="191"/>
+      <c r="AC3" s="191"/>
+      <c r="AD3" s="192"/>
+      <c r="AE3" s="146"/>
+      <c r="AF3" s="147"/>
+      <c r="AG3" s="147"/>
+      <c r="AH3" s="147"/>
+      <c r="AI3" s="147"/>
+      <c r="AJ3" s="148"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1">
-      <c r="A4" s="161"/>
-      <c r="B4" s="162"/>
-      <c r="C4" s="162"/>
-      <c r="D4" s="162"/>
-      <c r="E4" s="162"/>
-      <c r="F4" s="162"/>
-      <c r="G4" s="162"/>
-      <c r="H4" s="164" t="s">
+      <c r="A4" s="146"/>
+      <c r="B4" s="147"/>
+      <c r="C4" s="147"/>
+      <c r="D4" s="147"/>
+      <c r="E4" s="147"/>
+      <c r="F4" s="147"/>
+      <c r="G4" s="147"/>
+      <c r="H4" s="149" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="165"/>
-      <c r="J4" s="165"/>
-      <c r="K4" s="165"/>
-      <c r="L4" s="165"/>
-      <c r="M4" s="165"/>
-      <c r="N4" s="165"/>
-      <c r="O4" s="165"/>
-      <c r="P4" s="165"/>
-      <c r="Q4" s="165"/>
-      <c r="R4" s="165"/>
-      <c r="S4" s="165"/>
-      <c r="T4" s="165"/>
-      <c r="U4" s="165"/>
-      <c r="V4" s="165"/>
-      <c r="W4" s="165"/>
-      <c r="X4" s="165"/>
-      <c r="Y4" s="165"/>
-      <c r="Z4" s="165"/>
-      <c r="AA4" s="165"/>
-      <c r="AB4" s="165"/>
-      <c r="AC4" s="165"/>
-      <c r="AD4" s="166"/>
-      <c r="AE4" s="161"/>
-      <c r="AF4" s="162"/>
-      <c r="AG4" s="162"/>
-      <c r="AH4" s="162"/>
-      <c r="AI4" s="162"/>
-      <c r="AJ4" s="163"/>
+      <c r="I4" s="150"/>
+      <c r="J4" s="150"/>
+      <c r="K4" s="150"/>
+      <c r="L4" s="150"/>
+      <c r="M4" s="150"/>
+      <c r="N4" s="150"/>
+      <c r="O4" s="150"/>
+      <c r="P4" s="150"/>
+      <c r="Q4" s="150"/>
+      <c r="R4" s="150"/>
+      <c r="S4" s="150"/>
+      <c r="T4" s="150"/>
+      <c r="U4" s="150"/>
+      <c r="V4" s="150"/>
+      <c r="W4" s="150"/>
+      <c r="X4" s="150"/>
+      <c r="Y4" s="150"/>
+      <c r="Z4" s="150"/>
+      <c r="AA4" s="150"/>
+      <c r="AB4" s="150"/>
+      <c r="AC4" s="150"/>
+      <c r="AD4" s="151"/>
+      <c r="AE4" s="146"/>
+      <c r="AF4" s="147"/>
+      <c r="AG4" s="147"/>
+      <c r="AH4" s="147"/>
+      <c r="AI4" s="147"/>
+      <c r="AJ4" s="148"/>
     </row>
     <row r="5" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A5" s="161"/>
-      <c r="B5" s="162"/>
-      <c r="C5" s="162"/>
-      <c r="D5" s="162"/>
-      <c r="E5" s="162"/>
-      <c r="F5" s="162"/>
-      <c r="G5" s="162"/>
-      <c r="H5" s="167"/>
-      <c r="I5" s="168"/>
-      <c r="J5" s="168"/>
-      <c r="K5" s="168"/>
-      <c r="L5" s="168"/>
-      <c r="M5" s="168"/>
-      <c r="N5" s="168"/>
-      <c r="O5" s="168"/>
-      <c r="P5" s="168"/>
-      <c r="Q5" s="168"/>
-      <c r="R5" s="168"/>
-      <c r="S5" s="168"/>
-      <c r="T5" s="168"/>
-      <c r="U5" s="168"/>
-      <c r="V5" s="168"/>
-      <c r="W5" s="168"/>
-      <c r="X5" s="168"/>
-      <c r="Y5" s="168"/>
-      <c r="Z5" s="168"/>
-      <c r="AA5" s="168"/>
-      <c r="AB5" s="168"/>
-      <c r="AC5" s="168"/>
-      <c r="AD5" s="169"/>
-      <c r="AE5" s="161"/>
-      <c r="AF5" s="162"/>
-      <c r="AG5" s="162"/>
-      <c r="AH5" s="162"/>
-      <c r="AI5" s="162"/>
-      <c r="AJ5" s="163"/>
+      <c r="A5" s="146"/>
+      <c r="B5" s="147"/>
+      <c r="C5" s="147"/>
+      <c r="D5" s="147"/>
+      <c r="E5" s="147"/>
+      <c r="F5" s="147"/>
+      <c r="G5" s="147"/>
+      <c r="H5" s="152"/>
+      <c r="I5" s="153"/>
+      <c r="J5" s="153"/>
+      <c r="K5" s="153"/>
+      <c r="L5" s="153"/>
+      <c r="M5" s="153"/>
+      <c r="N5" s="153"/>
+      <c r="O5" s="153"/>
+      <c r="P5" s="153"/>
+      <c r="Q5" s="153"/>
+      <c r="R5" s="153"/>
+      <c r="S5" s="153"/>
+      <c r="T5" s="153"/>
+      <c r="U5" s="153"/>
+      <c r="V5" s="153"/>
+      <c r="W5" s="153"/>
+      <c r="X5" s="153"/>
+      <c r="Y5" s="153"/>
+      <c r="Z5" s="153"/>
+      <c r="AA5" s="153"/>
+      <c r="AB5" s="153"/>
+      <c r="AC5" s="153"/>
+      <c r="AD5" s="154"/>
+      <c r="AE5" s="146"/>
+      <c r="AF5" s="147"/>
+      <c r="AG5" s="147"/>
+      <c r="AH5" s="147"/>
+      <c r="AI5" s="147"/>
+      <c r="AJ5" s="148"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="184"/>
-      <c r="B6" s="185"/>
-      <c r="C6" s="185"/>
-      <c r="D6" s="185"/>
-      <c r="E6" s="185"/>
-      <c r="F6" s="185"/>
-      <c r="G6" s="185"/>
-      <c r="H6" s="170"/>
-      <c r="I6" s="171"/>
-      <c r="J6" s="171"/>
-      <c r="K6" s="171"/>
-      <c r="L6" s="171"/>
-      <c r="M6" s="171"/>
-      <c r="N6" s="171"/>
-      <c r="O6" s="171"/>
-      <c r="P6" s="171"/>
-      <c r="Q6" s="171"/>
-      <c r="R6" s="171"/>
-      <c r="S6" s="171"/>
-      <c r="T6" s="171"/>
-      <c r="U6" s="171"/>
-      <c r="V6" s="171"/>
-      <c r="W6" s="171"/>
-      <c r="X6" s="171"/>
-      <c r="Y6" s="171"/>
-      <c r="Z6" s="171"/>
-      <c r="AA6" s="171"/>
-      <c r="AB6" s="171"/>
-      <c r="AC6" s="171"/>
-      <c r="AD6" s="172"/>
-      <c r="AE6" s="173"/>
-      <c r="AF6" s="174"/>
-      <c r="AG6" s="174"/>
-      <c r="AH6" s="175"/>
-      <c r="AI6" s="175"/>
-      <c r="AJ6" s="176"/>
+      <c r="A6" s="185"/>
+      <c r="B6" s="186"/>
+      <c r="C6" s="186"/>
+      <c r="D6" s="186"/>
+      <c r="E6" s="186"/>
+      <c r="F6" s="186"/>
+      <c r="G6" s="186"/>
+      <c r="H6" s="155"/>
+      <c r="I6" s="156"/>
+      <c r="J6" s="156"/>
+      <c r="K6" s="156"/>
+      <c r="L6" s="156"/>
+      <c r="M6" s="156"/>
+      <c r="N6" s="156"/>
+      <c r="O6" s="156"/>
+      <c r="P6" s="156"/>
+      <c r="Q6" s="156"/>
+      <c r="R6" s="156"/>
+      <c r="S6" s="156"/>
+      <c r="T6" s="156"/>
+      <c r="U6" s="156"/>
+      <c r="V6" s="156"/>
+      <c r="W6" s="156"/>
+      <c r="X6" s="156"/>
+      <c r="Y6" s="156"/>
+      <c r="Z6" s="156"/>
+      <c r="AA6" s="156"/>
+      <c r="AB6" s="156"/>
+      <c r="AC6" s="156"/>
+      <c r="AD6" s="157"/>
+      <c r="AE6" s="158"/>
+      <c r="AF6" s="159"/>
+      <c r="AG6" s="159"/>
+      <c r="AH6" s="160"/>
+      <c r="AI6" s="160"/>
+      <c r="AJ6" s="161"/>
     </row>
     <row r="7" spans="1:36" ht="25.5" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
@@ -15041,52 +15041,52 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="182" t="s">
+      <c r="AE7" s="126" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="182"/>
-      <c r="AG7" s="182"/>
-      <c r="AH7" s="182"/>
-      <c r="AI7" s="182"/>
-      <c r="AJ7" s="183"/>
+      <c r="AF7" s="126"/>
+      <c r="AG7" s="126"/>
+      <c r="AH7" s="126"/>
+      <c r="AI7" s="126"/>
+      <c r="AJ7" s="127"/>
     </row>
     <row r="8" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A8" s="139"/>
-      <c r="B8" s="140"/>
-      <c r="C8" s="140"/>
-      <c r="D8" s="140"/>
-      <c r="E8" s="140"/>
-      <c r="F8" s="140"/>
-      <c r="G8" s="140"/>
-      <c r="H8" s="140"/>
-      <c r="I8" s="140"/>
-      <c r="J8" s="140"/>
-      <c r="K8" s="140"/>
-      <c r="L8" s="140"/>
-      <c r="M8" s="140"/>
-      <c r="N8" s="140"/>
-      <c r="O8" s="140"/>
-      <c r="P8" s="140"/>
-      <c r="Q8" s="140"/>
-      <c r="R8" s="140"/>
-      <c r="S8" s="140"/>
-      <c r="T8" s="140"/>
-      <c r="U8" s="140"/>
-      <c r="V8" s="140"/>
-      <c r="W8" s="140"/>
-      <c r="X8" s="140"/>
-      <c r="Y8" s="140"/>
-      <c r="Z8" s="140"/>
-      <c r="AA8" s="140"/>
-      <c r="AB8" s="140"/>
-      <c r="AC8" s="140"/>
-      <c r="AD8" s="140"/>
-      <c r="AE8" s="140"/>
-      <c r="AF8" s="140"/>
-      <c r="AG8" s="140"/>
-      <c r="AH8" s="140"/>
-      <c r="AI8" s="140"/>
-      <c r="AJ8" s="141"/>
+      <c r="A8" s="162"/>
+      <c r="B8" s="163"/>
+      <c r="C8" s="163"/>
+      <c r="D8" s="163"/>
+      <c r="E8" s="163"/>
+      <c r="F8" s="163"/>
+      <c r="G8" s="163"/>
+      <c r="H8" s="163"/>
+      <c r="I8" s="163"/>
+      <c r="J8" s="163"/>
+      <c r="K8" s="163"/>
+      <c r="L8" s="163"/>
+      <c r="M8" s="163"/>
+      <c r="N8" s="163"/>
+      <c r="O8" s="163"/>
+      <c r="P8" s="163"/>
+      <c r="Q8" s="163"/>
+      <c r="R8" s="163"/>
+      <c r="S8" s="163"/>
+      <c r="T8" s="163"/>
+      <c r="U8" s="163"/>
+      <c r="V8" s="163"/>
+      <c r="W8" s="163"/>
+      <c r="X8" s="163"/>
+      <c r="Y8" s="163"/>
+      <c r="Z8" s="163"/>
+      <c r="AA8" s="163"/>
+      <c r="AB8" s="163"/>
+      <c r="AC8" s="163"/>
+      <c r="AD8" s="163"/>
+      <c r="AE8" s="163"/>
+      <c r="AF8" s="163"/>
+      <c r="AG8" s="163"/>
+      <c r="AH8" s="163"/>
+      <c r="AI8" s="163"/>
+      <c r="AJ8" s="164"/>
     </row>
     <row r="9" spans="1:36" ht="30" customHeight="1">
       <c r="A9" s="1"/>
@@ -16527,16 +16527,16 @@
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
-      <c r="Q53" s="127"/>
-      <c r="R53" s="127"/>
-      <c r="S53" s="127"/>
-      <c r="T53" s="127"/>
+      <c r="Q53" s="130"/>
+      <c r="R53" s="130"/>
+      <c r="S53" s="130"/>
+      <c r="T53" s="130"/>
       <c r="Z53" s="82"/>
       <c r="AA53" s="82"/>
-      <c r="AB53" s="127"/>
-      <c r="AC53" s="127"/>
-      <c r="AD53" s="127"/>
-      <c r="AE53" s="127"/>
+      <c r="AB53" s="130"/>
+      <c r="AC53" s="130"/>
+      <c r="AD53" s="130"/>
+      <c r="AE53" s="130"/>
       <c r="AF53" s="83"/>
       <c r="AG53" s="83"/>
       <c r="AH53" s="83"/>
@@ -16544,14 +16544,14 @@
       <c r="AJ53" s="17"/>
     </row>
     <row r="54" spans="1:54" s="16" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="129" t="s">
+      <c r="A54" s="119" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="130"/>
-      <c r="C54" s="130"/>
-      <c r="D54" s="130"/>
-      <c r="E54" s="130"/>
-      <c r="F54" s="130"/>
+      <c r="B54" s="120"/>
+      <c r="C54" s="120"/>
+      <c r="D54" s="120"/>
+      <c r="E54" s="120"/>
+      <c r="F54" s="120"/>
       <c r="G54" s="107"/>
       <c r="H54" s="107"/>
       <c r="I54" s="107"/>
@@ -16595,12 +16595,12 @@
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="125"/>
-      <c r="E55" s="125"/>
-      <c r="F55" s="125"/>
-      <c r="G55" s="125"/>
-      <c r="H55" s="125"/>
-      <c r="I55" s="126"/>
+      <c r="D55" s="117"/>
+      <c r="E55" s="117"/>
+      <c r="F55" s="117"/>
+      <c r="G55" s="117"/>
+      <c r="H55" s="117"/>
+      <c r="I55" s="118"/>
       <c r="J55" s="85" t="s">
         <v>1</v>
       </c>
@@ -16641,12 +16641,12 @@
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="34"/>
-      <c r="D56" s="123"/>
-      <c r="E56" s="123"/>
-      <c r="F56" s="123"/>
-      <c r="G56" s="123"/>
-      <c r="H56" s="123"/>
-      <c r="I56" s="124"/>
+      <c r="D56" s="184"/>
+      <c r="E56" s="184"/>
+      <c r="F56" s="184"/>
+      <c r="G56" s="184"/>
+      <c r="H56" s="184"/>
+      <c r="I56" s="179"/>
       <c r="J56" s="94" t="s">
         <v>2</v>
       </c>
@@ -16687,12 +16687,12 @@
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="122"/>
-      <c r="E57" s="123"/>
-      <c r="F57" s="123"/>
-      <c r="G57" s="123"/>
-      <c r="H57" s="123"/>
-      <c r="I57" s="124"/>
+      <c r="D57" s="183"/>
+      <c r="E57" s="184"/>
+      <c r="F57" s="184"/>
+      <c r="G57" s="184"/>
+      <c r="H57" s="184"/>
+      <c r="I57" s="179"/>
       <c r="J57" s="94" t="s">
         <v>3</v>
       </c>
@@ -16733,12 +16733,12 @@
       </c>
       <c r="B58" s="89"/>
       <c r="C58" s="87"/>
-      <c r="D58" s="123"/>
-      <c r="E58" s="123"/>
-      <c r="F58" s="123"/>
-      <c r="G58" s="123"/>
-      <c r="H58" s="123"/>
-      <c r="I58" s="124"/>
+      <c r="D58" s="184"/>
+      <c r="E58" s="184"/>
+      <c r="F58" s="184"/>
+      <c r="G58" s="184"/>
+      <c r="H58" s="184"/>
+      <c r="I58" s="179"/>
       <c r="J58" s="103" t="s">
         <v>4</v>
       </c>
@@ -16813,6 +16813,13 @@
     </row>
   </sheetData>
   <mergeCells count="15">
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
     <mergeCell ref="AE7:AJ7"/>
     <mergeCell ref="A8:AJ8"/>
     <mergeCell ref="A2:G6"/>
@@ -16821,13 +16828,6 @@
     <mergeCell ref="H4:AD6"/>
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.43307086614173229" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>

--- a/wksp_T_RA_PP/res/T/Protocolo Tendido de conductores electricos.xlsx
+++ b/wksp_T_RA_PP/res/T/Protocolo Tendido de conductores electricos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_T_RA_PP\res\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6824A513-D000-4457-9273-1CE8942E6FE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405122E4-215F-4175-9FC4-C324A623182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,47 +1182,80 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="3" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="14" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1338,58 +1371,25 @@
     <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="49" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="27" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="3" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="8" fillId="2" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -12712,8 +12712,8 @@
   </sheetPr>
   <dimension ref="A1:BB48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="B12" zoomScale="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="R27" sqref="R27:S27"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
+      <selection activeCell="AJ48" sqref="A2:AJ48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
@@ -12766,198 +12766,198 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:43" ht="42" customHeight="1">
-      <c r="A2" s="131"/>
-      <c r="B2" s="132"/>
-      <c r="C2" s="132"/>
-      <c r="D2" s="132"/>
-      <c r="E2" s="132"/>
-      <c r="F2" s="132"/>
-      <c r="G2" s="132"/>
-      <c r="H2" s="137" t="s">
+      <c r="A2" s="142"/>
+      <c r="B2" s="143"/>
+      <c r="C2" s="143"/>
+      <c r="D2" s="143"/>
+      <c r="E2" s="143"/>
+      <c r="F2" s="143"/>
+      <c r="G2" s="143"/>
+      <c r="H2" s="148" t="s">
         <v>49</v>
       </c>
-      <c r="I2" s="138"/>
-      <c r="J2" s="138"/>
-      <c r="K2" s="138"/>
-      <c r="L2" s="138"/>
-      <c r="M2" s="138"/>
-      <c r="N2" s="138"/>
-      <c r="O2" s="138"/>
-      <c r="P2" s="138"/>
-      <c r="Q2" s="138"/>
-      <c r="R2" s="138"/>
-      <c r="S2" s="138"/>
-      <c r="T2" s="138"/>
-      <c r="U2" s="138"/>
-      <c r="V2" s="138"/>
-      <c r="W2" s="138"/>
-      <c r="X2" s="138"/>
-      <c r="Y2" s="138"/>
-      <c r="Z2" s="138"/>
-      <c r="AA2" s="138"/>
-      <c r="AB2" s="138"/>
-      <c r="AC2" s="138"/>
-      <c r="AD2" s="139"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="145"/>
+      <c r="I2" s="149"/>
+      <c r="J2" s="149"/>
+      <c r="K2" s="149"/>
+      <c r="L2" s="149"/>
+      <c r="M2" s="149"/>
+      <c r="N2" s="149"/>
+      <c r="O2" s="149"/>
+      <c r="P2" s="149"/>
+      <c r="Q2" s="149"/>
+      <c r="R2" s="149"/>
+      <c r="S2" s="149"/>
+      <c r="T2" s="149"/>
+      <c r="U2" s="149"/>
+      <c r="V2" s="149"/>
+      <c r="W2" s="149"/>
+      <c r="X2" s="149"/>
+      <c r="Y2" s="149"/>
+      <c r="Z2" s="149"/>
+      <c r="AA2" s="149"/>
+      <c r="AB2" s="149"/>
+      <c r="AC2" s="149"/>
+      <c r="AD2" s="150"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="156"/>
     </row>
     <row r="3" spans="1:43" ht="36.75" customHeight="1">
-      <c r="A3" s="133"/>
-      <c r="B3" s="134"/>
-      <c r="C3" s="134"/>
-      <c r="D3" s="134"/>
-      <c r="E3" s="134"/>
-      <c r="F3" s="134"/>
-      <c r="G3" s="134"/>
-      <c r="H3" s="140"/>
-      <c r="I3" s="141"/>
-      <c r="J3" s="141"/>
-      <c r="K3" s="141"/>
-      <c r="L3" s="141"/>
-      <c r="M3" s="141"/>
-      <c r="N3" s="141"/>
-      <c r="O3" s="141"/>
-      <c r="P3" s="141"/>
-      <c r="Q3" s="141"/>
-      <c r="R3" s="141"/>
-      <c r="S3" s="141"/>
-      <c r="T3" s="141"/>
-      <c r="U3" s="141"/>
-      <c r="V3" s="141"/>
-      <c r="W3" s="141"/>
-      <c r="X3" s="141"/>
-      <c r="Y3" s="141"/>
-      <c r="Z3" s="141"/>
-      <c r="AA3" s="141"/>
-      <c r="AB3" s="141"/>
-      <c r="AC3" s="141"/>
-      <c r="AD3" s="142"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="147"/>
-      <c r="AJ3" s="148"/>
+      <c r="A3" s="144"/>
+      <c r="B3" s="145"/>
+      <c r="C3" s="145"/>
+      <c r="D3" s="145"/>
+      <c r="E3" s="145"/>
+      <c r="F3" s="145"/>
+      <c r="G3" s="145"/>
+      <c r="H3" s="151"/>
+      <c r="I3" s="152"/>
+      <c r="J3" s="152"/>
+      <c r="K3" s="152"/>
+      <c r="L3" s="152"/>
+      <c r="M3" s="152"/>
+      <c r="N3" s="152"/>
+      <c r="O3" s="152"/>
+      <c r="P3" s="152"/>
+      <c r="Q3" s="152"/>
+      <c r="R3" s="152"/>
+      <c r="S3" s="152"/>
+      <c r="T3" s="152"/>
+      <c r="U3" s="152"/>
+      <c r="V3" s="152"/>
+      <c r="W3" s="152"/>
+      <c r="X3" s="152"/>
+      <c r="Y3" s="152"/>
+      <c r="Z3" s="152"/>
+      <c r="AA3" s="152"/>
+      <c r="AB3" s="152"/>
+      <c r="AC3" s="152"/>
+      <c r="AD3" s="153"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="159"/>
     </row>
     <row r="4" spans="1:43" ht="21" customHeight="1">
-      <c r="A4" s="133"/>
-      <c r="B4" s="134"/>
-      <c r="C4" s="134"/>
-      <c r="D4" s="134"/>
-      <c r="E4" s="134"/>
-      <c r="F4" s="134"/>
-      <c r="G4" s="134"/>
-      <c r="H4" s="149" t="s">
+      <c r="A4" s="144"/>
+      <c r="B4" s="145"/>
+      <c r="C4" s="145"/>
+      <c r="D4" s="145"/>
+      <c r="E4" s="145"/>
+      <c r="F4" s="145"/>
+      <c r="G4" s="145"/>
+      <c r="H4" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="148"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="162"/>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="159"/>
     </row>
     <row r="5" spans="1:43" ht="22.5" customHeight="1">
-      <c r="A5" s="133"/>
-      <c r="B5" s="134"/>
-      <c r="C5" s="134"/>
-      <c r="D5" s="134"/>
-      <c r="E5" s="134"/>
-      <c r="F5" s="134"/>
-      <c r="G5" s="134"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="154"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="148"/>
+      <c r="A5" s="144"/>
+      <c r="B5" s="145"/>
+      <c r="C5" s="145"/>
+      <c r="D5" s="145"/>
+      <c r="E5" s="145"/>
+      <c r="F5" s="145"/>
+      <c r="G5" s="145"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="159"/>
     </row>
     <row r="6" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="135"/>
-      <c r="B6" s="136"/>
-      <c r="C6" s="136"/>
-      <c r="D6" s="136"/>
-      <c r="E6" s="136"/>
-      <c r="F6" s="136"/>
-      <c r="G6" s="136"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="156"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="161"/>
+      <c r="A6" s="146"/>
+      <c r="B6" s="147"/>
+      <c r="C6" s="147"/>
+      <c r="D6" s="147"/>
+      <c r="E6" s="147"/>
+      <c r="F6" s="147"/>
+      <c r="G6" s="147"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="169"/>
+      <c r="AF6" s="170"/>
+      <c r="AG6" s="170"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="172"/>
     </row>
     <row r="7" spans="1:43" ht="25.5" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
@@ -12990,50 +12990,50 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="126"/>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="127"/>
+      <c r="AE7" s="183"/>
+      <c r="AF7" s="183"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="183"/>
+      <c r="AJ7" s="184"/>
     </row>
     <row r="8" spans="1:43" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="163"/>
-      <c r="AJ8" s="164"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="174"/>
+      <c r="AJ8" s="175"/>
     </row>
     <row r="9" spans="1:43" ht="35.25" customHeight="1">
       <c r="A9" s="1"/>
@@ -13077,34 +13077,34 @@
     </row>
     <row r="10" spans="1:43" ht="35.25" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="165" t="s">
+      <c r="B10" s="176" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="165"/>
-      <c r="D10" s="165"/>
-      <c r="E10" s="165"/>
-      <c r="I10" s="168" t="s">
+      <c r="C10" s="176"/>
+      <c r="D10" s="176"/>
+      <c r="E10" s="176"/>
+      <c r="I10" s="134" t="s">
         <v>58</v>
       </c>
-      <c r="J10" s="168"/>
-      <c r="K10" s="168"/>
-      <c r="L10" s="168"/>
-      <c r="M10" s="168"/>
-      <c r="N10" s="168"/>
+      <c r="J10" s="134"/>
+      <c r="K10" s="134"/>
+      <c r="L10" s="134"/>
+      <c r="M10" s="134"/>
+      <c r="N10" s="134"/>
       <c r="R10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="V10" s="166" t="s">
+      <c r="V10" s="177" t="s">
         <v>48</v>
       </c>
-      <c r="W10" s="166"/>
-      <c r="X10" s="166"/>
-      <c r="Y10" s="166"/>
-      <c r="Z10" s="166"/>
-      <c r="AA10" s="166"/>
-      <c r="AB10" s="166"/>
-      <c r="AC10" s="166"/>
+      <c r="W10" s="177"/>
+      <c r="X10" s="177"/>
+      <c r="Y10" s="177"/>
+      <c r="Z10" s="177"/>
+      <c r="AA10" s="177"/>
+      <c r="AB10" s="177"/>
+      <c r="AC10" s="177"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
@@ -13115,34 +13115,34 @@
     </row>
     <row r="11" spans="1:43" ht="35.25" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="165" t="s">
+      <c r="B11" s="176" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="165"/>
-      <c r="D11" s="165"/>
-      <c r="E11" s="165"/>
-      <c r="I11" s="167" t="s">
+      <c r="C11" s="176"/>
+      <c r="D11" s="176"/>
+      <c r="E11" s="176"/>
+      <c r="I11" s="122" t="s">
         <v>59</v>
       </c>
-      <c r="J11" s="167"/>
-      <c r="K11" s="167"/>
-      <c r="L11" s="167"/>
-      <c r="M11" s="167"/>
-      <c r="N11" s="167"/>
+      <c r="J11" s="122"/>
+      <c r="K11" s="122"/>
+      <c r="L11" s="122"/>
+      <c r="M11" s="122"/>
+      <c r="N11" s="122"/>
       <c r="R11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="15"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="168">
+      <c r="W11" s="134">
         <v>0</v>
       </c>
-      <c r="X11" s="168"/>
-      <c r="Y11" s="168"/>
-      <c r="Z11" s="168"/>
-      <c r="AA11" s="168"/>
-      <c r="AB11" s="168"/>
+      <c r="X11" s="134"/>
+      <c r="Y11" s="134"/>
+      <c r="Z11" s="134"/>
+      <c r="AA11" s="134"/>
+      <c r="AB11" s="134"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
@@ -13154,20 +13154,20 @@
     </row>
     <row r="12" spans="1:43" ht="35.25" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="165" t="s">
+      <c r="B12" s="176" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="165"/>
-      <c r="D12" s="165"/>
-      <c r="E12" s="165"/>
-      <c r="I12" s="167" t="s">
+      <c r="C12" s="176"/>
+      <c r="D12" s="176"/>
+      <c r="E12" s="176"/>
+      <c r="I12" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="167"/>
-      <c r="K12" s="167"/>
-      <c r="L12" s="167"/>
-      <c r="M12" s="167"/>
-      <c r="N12" s="167"/>
+      <c r="J12" s="122"/>
+      <c r="K12" s="122"/>
+      <c r="L12" s="122"/>
+      <c r="M12" s="122"/>
+      <c r="N12" s="122"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
@@ -13176,12 +13176,12 @@
       <c r="S12" s="15"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
-      <c r="W12" s="169"/>
-      <c r="X12" s="169"/>
-      <c r="Y12" s="169"/>
-      <c r="Z12" s="169"/>
-      <c r="AA12" s="169"/>
-      <c r="AB12" s="169"/>
+      <c r="W12" s="135"/>
+      <c r="X12" s="135"/>
+      <c r="Y12" s="135"/>
+      <c r="Z12" s="135"/>
+      <c r="AA12" s="135"/>
+      <c r="AB12" s="135"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -13199,17 +13199,17 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="G13" s="177"/>
-      <c r="H13" s="177"/>
-      <c r="I13" s="177"/>
-      <c r="J13" s="177"/>
-      <c r="K13" s="177"/>
-      <c r="L13" s="177"/>
-      <c r="M13" s="177"/>
-      <c r="N13" s="177"/>
-      <c r="O13" s="177"/>
-      <c r="P13" s="177"/>
-      <c r="Q13" s="177"/>
+      <c r="G13" s="140"/>
+      <c r="H13" s="140"/>
+      <c r="I13" s="140"/>
+      <c r="J13" s="140"/>
+      <c r="K13" s="140"/>
+      <c r="L13" s="140"/>
+      <c r="M13" s="140"/>
+      <c r="N13" s="140"/>
+      <c r="O13" s="140"/>
+      <c r="P13" s="140"/>
+      <c r="Q13" s="140"/>
       <c r="R13" s="19" t="s">
         <v>19</v>
       </c>
@@ -13217,12 +13217,12 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="170"/>
-      <c r="X13" s="168"/>
-      <c r="Y13" s="168"/>
-      <c r="Z13" s="168"/>
-      <c r="AA13" s="168"/>
-      <c r="AB13" s="168"/>
+      <c r="W13" s="136"/>
+      <c r="X13" s="134"/>
+      <c r="Y13" s="134"/>
+      <c r="Z13" s="134"/>
+      <c r="AA13" s="134"/>
+      <c r="AB13" s="134"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -13448,33 +13448,33 @@
       <c r="F19" s="31"/>
       <c r="G19" s="31"/>
       <c r="H19" s="31"/>
-      <c r="I19" s="168"/>
-      <c r="J19" s="168"/>
-      <c r="K19" s="168"/>
-      <c r="L19" s="168"/>
-      <c r="M19" s="168"/>
-      <c r="N19" s="168"/>
+      <c r="I19" s="134"/>
+      <c r="J19" s="134"/>
+      <c r="K19" s="134"/>
+      <c r="L19" s="134"/>
+      <c r="M19" s="134"/>
+      <c r="N19" s="134"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
       <c r="Q19" s="32"/>
-      <c r="R19" s="176" t="s">
+      <c r="R19" s="132" t="s">
         <v>46</v>
       </c>
-      <c r="S19" s="176"/>
-      <c r="T19" s="176"/>
+      <c r="S19" s="132"/>
+      <c r="T19" s="132"/>
       <c r="U19" s="15"/>
-      <c r="W19" s="175"/>
-      <c r="X19" s="175"/>
-      <c r="Y19" s="175"/>
-      <c r="Z19" s="175"/>
-      <c r="AA19" s="175"/>
-      <c r="AB19" s="175"/>
-      <c r="AC19" s="175"/>
-      <c r="AD19" s="175"/>
-      <c r="AE19" s="175"/>
-      <c r="AF19" s="175"/>
-      <c r="AG19" s="175"/>
-      <c r="AH19" s="175"/>
+      <c r="W19" s="139"/>
+      <c r="X19" s="139"/>
+      <c r="Y19" s="139"/>
+      <c r="Z19" s="139"/>
+      <c r="AA19" s="139"/>
+      <c r="AB19" s="139"/>
+      <c r="AC19" s="139"/>
+      <c r="AD19" s="139"/>
+      <c r="AE19" s="139"/>
+      <c r="AF19" s="139"/>
+      <c r="AG19" s="139"/>
+      <c r="AH19" s="139"/>
       <c r="AJ19" s="17"/>
     </row>
     <row r="20" spans="1:36" ht="35.25" customHeight="1">
@@ -13488,20 +13488,20 @@
       <c r="F20" s="31"/>
       <c r="G20" s="31"/>
       <c r="H20" s="31"/>
-      <c r="I20" s="167"/>
-      <c r="J20" s="167"/>
-      <c r="K20" s="167"/>
-      <c r="L20" s="167"/>
-      <c r="M20" s="167"/>
-      <c r="N20" s="167"/>
+      <c r="I20" s="122"/>
+      <c r="J20" s="122"/>
+      <c r="K20" s="122"/>
+      <c r="L20" s="122"/>
+      <c r="M20" s="122"/>
+      <c r="N20" s="122"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="176" t="s">
+      <c r="R20" s="132" t="s">
         <v>45</v>
       </c>
-      <c r="S20" s="176"/>
-      <c r="T20" s="176"/>
+      <c r="S20" s="132"/>
+      <c r="T20" s="132"/>
       <c r="U20" s="15"/>
       <c r="W20" s="38"/>
       <c r="X20" s="38"/>
@@ -13529,20 +13529,20 @@
       <c r="F21" s="31"/>
       <c r="G21" s="31"/>
       <c r="H21" s="31"/>
-      <c r="I21" s="167"/>
-      <c r="J21" s="167"/>
-      <c r="K21" s="167"/>
-      <c r="L21" s="167"/>
-      <c r="M21" s="167"/>
-      <c r="N21" s="167"/>
+      <c r="I21" s="122"/>
+      <c r="J21" s="122"/>
+      <c r="K21" s="122"/>
+      <c r="L21" s="122"/>
+      <c r="M21" s="122"/>
+      <c r="N21" s="122"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
       <c r="Q21" s="32"/>
-      <c r="R21" s="176" t="s">
+      <c r="R21" s="132" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="176"/>
-      <c r="T21" s="176"/>
+      <c r="S21" s="132"/>
+      <c r="T21" s="132"/>
       <c r="U21" s="15"/>
       <c r="W21" s="39"/>
       <c r="X21" s="39"/>
@@ -13570,22 +13570,22 @@
       <c r="F22" s="31"/>
       <c r="G22" s="31"/>
       <c r="H22" s="31"/>
-      <c r="I22" s="167" t="s">
+      <c r="I22" s="122" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="167"/>
-      <c r="K22" s="167"/>
-      <c r="L22" s="167"/>
-      <c r="M22" s="167"/>
-      <c r="N22" s="167"/>
+      <c r="J22" s="122"/>
+      <c r="K22" s="122"/>
+      <c r="L22" s="122"/>
+      <c r="M22" s="122"/>
+      <c r="N22" s="122"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
       <c r="Q22" s="32"/>
-      <c r="R22" s="176" t="s">
+      <c r="R22" s="132" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="176"/>
-      <c r="T22" s="176"/>
+      <c r="S22" s="132"/>
+      <c r="T22" s="132"/>
       <c r="U22" s="15"/>
       <c r="W22" s="39" t="s">
         <v>60</v>
@@ -13682,470 +13682,470 @@
     </row>
     <row r="25" spans="1:36" ht="60" customHeight="1">
       <c r="A25" s="49"/>
-      <c r="B25" s="181" t="s">
+      <c r="B25" s="117" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="171"/>
-      <c r="D25" s="171" t="s">
+      <c r="C25" s="118"/>
+      <c r="D25" s="118" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="171"/>
-      <c r="F25" s="171"/>
-      <c r="G25" s="171"/>
-      <c r="H25" s="171"/>
-      <c r="I25" s="171"/>
-      <c r="J25" s="171"/>
-      <c r="K25" s="171"/>
-      <c r="L25" s="171"/>
-      <c r="M25" s="171"/>
-      <c r="N25" s="171"/>
-      <c r="O25" s="171"/>
-      <c r="P25" s="171" t="s">
+      <c r="E25" s="118"/>
+      <c r="F25" s="118"/>
+      <c r="G25" s="118"/>
+      <c r="H25" s="118"/>
+      <c r="I25" s="118"/>
+      <c r="J25" s="118"/>
+      <c r="K25" s="118"/>
+      <c r="L25" s="118"/>
+      <c r="M25" s="118"/>
+      <c r="N25" s="118"/>
+      <c r="O25" s="118"/>
+      <c r="P25" s="118" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="171"/>
-      <c r="R25" s="171"/>
-      <c r="S25" s="171"/>
-      <c r="T25" s="171"/>
-      <c r="U25" s="171"/>
-      <c r="V25" s="171" t="s">
+      <c r="Q25" s="118"/>
+      <c r="R25" s="118"/>
+      <c r="S25" s="118"/>
+      <c r="T25" s="118"/>
+      <c r="U25" s="118"/>
+      <c r="V25" s="118" t="s">
         <v>9</v>
       </c>
-      <c r="W25" s="171"/>
-      <c r="X25" s="171"/>
-      <c r="Y25" s="171"/>
-      <c r="Z25" s="171"/>
-      <c r="AA25" s="171"/>
-      <c r="AB25" s="171"/>
-      <c r="AC25" s="171"/>
-      <c r="AD25" s="171"/>
-      <c r="AE25" s="171"/>
-      <c r="AF25" s="171"/>
-      <c r="AG25" s="171"/>
-      <c r="AH25" s="171"/>
-      <c r="AI25" s="173"/>
+      <c r="W25" s="118"/>
+      <c r="X25" s="118"/>
+      <c r="Y25" s="118"/>
+      <c r="Z25" s="118"/>
+      <c r="AA25" s="118"/>
+      <c r="AB25" s="118"/>
+      <c r="AC25" s="118"/>
+      <c r="AD25" s="118"/>
+      <c r="AE25" s="118"/>
+      <c r="AF25" s="118"/>
+      <c r="AG25" s="118"/>
+      <c r="AH25" s="118"/>
+      <c r="AI25" s="137"/>
       <c r="AJ25" s="50"/>
     </row>
     <row r="26" spans="1:36" ht="60" customHeight="1">
       <c r="A26" s="49"/>
-      <c r="B26" s="182"/>
-      <c r="C26" s="172"/>
-      <c r="D26" s="172"/>
-      <c r="E26" s="172"/>
-      <c r="F26" s="172"/>
-      <c r="G26" s="172"/>
-      <c r="H26" s="172"/>
-      <c r="I26" s="172"/>
-      <c r="J26" s="172"/>
-      <c r="K26" s="172"/>
-      <c r="L26" s="172"/>
-      <c r="M26" s="172"/>
-      <c r="N26" s="172"/>
-      <c r="O26" s="172"/>
-      <c r="P26" s="128" t="s">
+      <c r="B26" s="119"/>
+      <c r="C26" s="120"/>
+      <c r="D26" s="120"/>
+      <c r="E26" s="120"/>
+      <c r="F26" s="120"/>
+      <c r="G26" s="120"/>
+      <c r="H26" s="120"/>
+      <c r="I26" s="120"/>
+      <c r="J26" s="120"/>
+      <c r="K26" s="120"/>
+      <c r="L26" s="120"/>
+      <c r="M26" s="120"/>
+      <c r="N26" s="120"/>
+      <c r="O26" s="120"/>
+      <c r="P26" s="121" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="128"/>
-      <c r="R26" s="128" t="s">
+      <c r="Q26" s="121"/>
+      <c r="R26" s="121" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="128"/>
-      <c r="T26" s="128" t="s">
+      <c r="S26" s="121"/>
+      <c r="T26" s="121" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="128"/>
-      <c r="V26" s="172"/>
-      <c r="W26" s="172"/>
-      <c r="X26" s="172"/>
-      <c r="Y26" s="172"/>
-      <c r="Z26" s="172"/>
-      <c r="AA26" s="172"/>
-      <c r="AB26" s="172"/>
-      <c r="AC26" s="172"/>
-      <c r="AD26" s="172"/>
-      <c r="AE26" s="172"/>
-      <c r="AF26" s="172"/>
-      <c r="AG26" s="172"/>
-      <c r="AH26" s="172"/>
-      <c r="AI26" s="174"/>
+      <c r="U26" s="121"/>
+      <c r="V26" s="120"/>
+      <c r="W26" s="120"/>
+      <c r="X26" s="120"/>
+      <c r="Y26" s="120"/>
+      <c r="Z26" s="120"/>
+      <c r="AA26" s="120"/>
+      <c r="AB26" s="120"/>
+      <c r="AC26" s="120"/>
+      <c r="AD26" s="120"/>
+      <c r="AE26" s="120"/>
+      <c r="AF26" s="120"/>
+      <c r="AG26" s="120"/>
+      <c r="AH26" s="120"/>
+      <c r="AI26" s="138"/>
       <c r="AJ26" s="51"/>
     </row>
     <row r="27" spans="1:36" ht="60" customHeight="1">
       <c r="A27" s="52"/>
-      <c r="B27" s="119">
+      <c r="B27" s="130">
         <v>1</v>
       </c>
-      <c r="C27" s="120"/>
-      <c r="D27" s="180" t="s">
+      <c r="C27" s="131"/>
+      <c r="D27" s="129" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="180"/>
-      <c r="F27" s="180"/>
-      <c r="G27" s="180"/>
-      <c r="H27" s="180"/>
-      <c r="I27" s="180"/>
-      <c r="J27" s="180"/>
-      <c r="K27" s="180"/>
-      <c r="L27" s="180"/>
-      <c r="M27" s="180"/>
-      <c r="N27" s="180"/>
-      <c r="O27" s="180"/>
-      <c r="P27" s="128"/>
-      <c r="Q27" s="128"/>
-      <c r="R27" s="128"/>
-      <c r="S27" s="128"/>
-      <c r="T27" s="128"/>
-      <c r="U27" s="128"/>
-      <c r="V27" s="128"/>
-      <c r="W27" s="128"/>
-      <c r="X27" s="128"/>
-      <c r="Y27" s="128"/>
-      <c r="Z27" s="128"/>
-      <c r="AA27" s="128"/>
-      <c r="AB27" s="128"/>
-      <c r="AC27" s="128"/>
-      <c r="AD27" s="128"/>
-      <c r="AE27" s="128"/>
-      <c r="AF27" s="128"/>
-      <c r="AG27" s="128"/>
-      <c r="AH27" s="128"/>
-      <c r="AI27" s="129"/>
+      <c r="E27" s="129"/>
+      <c r="F27" s="129"/>
+      <c r="G27" s="129"/>
+      <c r="H27" s="129"/>
+      <c r="I27" s="129"/>
+      <c r="J27" s="129"/>
+      <c r="K27" s="129"/>
+      <c r="L27" s="129"/>
+      <c r="M27" s="129"/>
+      <c r="N27" s="129"/>
+      <c r="O27" s="129"/>
+      <c r="P27" s="121"/>
+      <c r="Q27" s="121"/>
+      <c r="R27" s="121"/>
+      <c r="S27" s="121"/>
+      <c r="T27" s="121"/>
+      <c r="U27" s="121"/>
+      <c r="V27" s="121"/>
+      <c r="W27" s="121"/>
+      <c r="X27" s="121"/>
+      <c r="Y27" s="121"/>
+      <c r="Z27" s="121"/>
+      <c r="AA27" s="121"/>
+      <c r="AB27" s="121"/>
+      <c r="AC27" s="121"/>
+      <c r="AD27" s="121"/>
+      <c r="AE27" s="121"/>
+      <c r="AF27" s="121"/>
+      <c r="AG27" s="121"/>
+      <c r="AH27" s="121"/>
+      <c r="AI27" s="141"/>
       <c r="AJ27" s="51"/>
     </row>
     <row r="28" spans="1:36" ht="60" customHeight="1">
       <c r="A28" s="52"/>
-      <c r="B28" s="119">
+      <c r="B28" s="130">
         <v>2</v>
       </c>
-      <c r="C28" s="120"/>
-      <c r="D28" s="180" t="s">
+      <c r="C28" s="131"/>
+      <c r="D28" s="129" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="180"/>
-      <c r="F28" s="180"/>
-      <c r="G28" s="180"/>
-      <c r="H28" s="180"/>
-      <c r="I28" s="180"/>
-      <c r="J28" s="180"/>
-      <c r="K28" s="180"/>
-      <c r="L28" s="180"/>
-      <c r="M28" s="180"/>
-      <c r="N28" s="180"/>
-      <c r="O28" s="180"/>
-      <c r="P28" s="128"/>
-      <c r="Q28" s="128"/>
-      <c r="R28" s="128"/>
-      <c r="S28" s="128"/>
-      <c r="T28" s="128"/>
-      <c r="U28" s="128"/>
-      <c r="V28" s="128"/>
-      <c r="W28" s="128"/>
-      <c r="X28" s="128"/>
-      <c r="Y28" s="128"/>
-      <c r="Z28" s="128"/>
-      <c r="AA28" s="128"/>
-      <c r="AB28" s="128"/>
-      <c r="AC28" s="128"/>
-      <c r="AD28" s="128"/>
-      <c r="AE28" s="128"/>
-      <c r="AF28" s="128"/>
-      <c r="AG28" s="128"/>
-      <c r="AH28" s="128"/>
-      <c r="AI28" s="129"/>
+      <c r="E28" s="129"/>
+      <c r="F28" s="129"/>
+      <c r="G28" s="129"/>
+      <c r="H28" s="129"/>
+      <c r="I28" s="129"/>
+      <c r="J28" s="129"/>
+      <c r="K28" s="129"/>
+      <c r="L28" s="129"/>
+      <c r="M28" s="129"/>
+      <c r="N28" s="129"/>
+      <c r="O28" s="129"/>
+      <c r="P28" s="121"/>
+      <c r="Q28" s="121"/>
+      <c r="R28" s="121"/>
+      <c r="S28" s="121"/>
+      <c r="T28" s="121"/>
+      <c r="U28" s="121"/>
+      <c r="V28" s="121"/>
+      <c r="W28" s="121"/>
+      <c r="X28" s="121"/>
+      <c r="Y28" s="121"/>
+      <c r="Z28" s="121"/>
+      <c r="AA28" s="121"/>
+      <c r="AB28" s="121"/>
+      <c r="AC28" s="121"/>
+      <c r="AD28" s="121"/>
+      <c r="AE28" s="121"/>
+      <c r="AF28" s="121"/>
+      <c r="AG28" s="121"/>
+      <c r="AH28" s="121"/>
+      <c r="AI28" s="141"/>
       <c r="AJ28" s="51"/>
     </row>
     <row r="29" spans="1:36" ht="60" customHeight="1">
       <c r="A29" s="52"/>
-      <c r="B29" s="119">
+      <c r="B29" s="130">
         <v>3</v>
       </c>
-      <c r="C29" s="120"/>
-      <c r="D29" s="180" t="s">
+      <c r="C29" s="131"/>
+      <c r="D29" s="129" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="180"/>
-      <c r="F29" s="180"/>
-      <c r="G29" s="180"/>
-      <c r="H29" s="180"/>
-      <c r="I29" s="180"/>
-      <c r="J29" s="180"/>
-      <c r="K29" s="180"/>
-      <c r="L29" s="180"/>
-      <c r="M29" s="180"/>
-      <c r="N29" s="180"/>
-      <c r="O29" s="180"/>
-      <c r="P29" s="128"/>
-      <c r="Q29" s="128"/>
-      <c r="R29" s="128"/>
-      <c r="S29" s="128"/>
-      <c r="T29" s="128"/>
-      <c r="U29" s="128"/>
-      <c r="V29" s="128"/>
-      <c r="W29" s="128"/>
-      <c r="X29" s="128"/>
-      <c r="Y29" s="128"/>
-      <c r="Z29" s="128"/>
-      <c r="AA29" s="128"/>
-      <c r="AB29" s="128"/>
-      <c r="AC29" s="128"/>
-      <c r="AD29" s="128"/>
-      <c r="AE29" s="128"/>
-      <c r="AF29" s="128"/>
-      <c r="AG29" s="128"/>
-      <c r="AH29" s="128"/>
-      <c r="AI29" s="129"/>
+      <c r="E29" s="129"/>
+      <c r="F29" s="129"/>
+      <c r="G29" s="129"/>
+      <c r="H29" s="129"/>
+      <c r="I29" s="129"/>
+      <c r="J29" s="129"/>
+      <c r="K29" s="129"/>
+      <c r="L29" s="129"/>
+      <c r="M29" s="129"/>
+      <c r="N29" s="129"/>
+      <c r="O29" s="129"/>
+      <c r="P29" s="121"/>
+      <c r="Q29" s="121"/>
+      <c r="R29" s="121"/>
+      <c r="S29" s="121"/>
+      <c r="T29" s="121"/>
+      <c r="U29" s="121"/>
+      <c r="V29" s="121"/>
+      <c r="W29" s="121"/>
+      <c r="X29" s="121"/>
+      <c r="Y29" s="121"/>
+      <c r="Z29" s="121"/>
+      <c r="AA29" s="121"/>
+      <c r="AB29" s="121"/>
+      <c r="AC29" s="121"/>
+      <c r="AD29" s="121"/>
+      <c r="AE29" s="121"/>
+      <c r="AF29" s="121"/>
+      <c r="AG29" s="121"/>
+      <c r="AH29" s="121"/>
+      <c r="AI29" s="141"/>
       <c r="AJ29" s="51"/>
     </row>
     <row r="30" spans="1:36" ht="60" customHeight="1">
       <c r="A30" s="52"/>
-      <c r="B30" s="119">
+      <c r="B30" s="130">
         <v>4</v>
       </c>
-      <c r="C30" s="120"/>
-      <c r="D30" s="180" t="s">
+      <c r="C30" s="131"/>
+      <c r="D30" s="129" t="s">
         <v>44</v>
       </c>
-      <c r="E30" s="180"/>
-      <c r="F30" s="180"/>
-      <c r="G30" s="180"/>
-      <c r="H30" s="180"/>
-      <c r="I30" s="180"/>
-      <c r="J30" s="180"/>
-      <c r="K30" s="180"/>
-      <c r="L30" s="180"/>
-      <c r="M30" s="180"/>
-      <c r="N30" s="180"/>
-      <c r="O30" s="180"/>
-      <c r="P30" s="128"/>
-      <c r="Q30" s="128"/>
-      <c r="R30" s="128"/>
-      <c r="S30" s="128"/>
-      <c r="T30" s="128"/>
-      <c r="U30" s="128"/>
-      <c r="V30" s="128"/>
-      <c r="W30" s="128"/>
-      <c r="X30" s="128"/>
-      <c r="Y30" s="128"/>
-      <c r="Z30" s="128"/>
-      <c r="AA30" s="128"/>
-      <c r="AB30" s="128"/>
-      <c r="AC30" s="128"/>
-      <c r="AD30" s="128"/>
-      <c r="AE30" s="128"/>
-      <c r="AF30" s="128"/>
-      <c r="AG30" s="128"/>
-      <c r="AH30" s="128"/>
-      <c r="AI30" s="129"/>
+      <c r="E30" s="129"/>
+      <c r="F30" s="129"/>
+      <c r="G30" s="129"/>
+      <c r="H30" s="129"/>
+      <c r="I30" s="129"/>
+      <c r="J30" s="129"/>
+      <c r="K30" s="129"/>
+      <c r="L30" s="129"/>
+      <c r="M30" s="129"/>
+      <c r="N30" s="129"/>
+      <c r="O30" s="129"/>
+      <c r="P30" s="121"/>
+      <c r="Q30" s="121"/>
+      <c r="R30" s="121"/>
+      <c r="S30" s="121"/>
+      <c r="T30" s="121"/>
+      <c r="U30" s="121"/>
+      <c r="V30" s="121"/>
+      <c r="W30" s="121"/>
+      <c r="X30" s="121"/>
+      <c r="Y30" s="121"/>
+      <c r="Z30" s="121"/>
+      <c r="AA30" s="121"/>
+      <c r="AB30" s="121"/>
+      <c r="AC30" s="121"/>
+      <c r="AD30" s="121"/>
+      <c r="AE30" s="121"/>
+      <c r="AF30" s="121"/>
+      <c r="AG30" s="121"/>
+      <c r="AH30" s="121"/>
+      <c r="AI30" s="141"/>
       <c r="AJ30" s="51"/>
     </row>
     <row r="31" spans="1:36" ht="60" customHeight="1">
       <c r="A31" s="52"/>
-      <c r="B31" s="119">
+      <c r="B31" s="130">
         <v>5</v>
       </c>
-      <c r="C31" s="120"/>
-      <c r="D31" s="180" t="s">
+      <c r="C31" s="131"/>
+      <c r="D31" s="129" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="180"/>
-      <c r="F31" s="180"/>
-      <c r="G31" s="180"/>
-      <c r="H31" s="180"/>
-      <c r="I31" s="180"/>
-      <c r="J31" s="180"/>
-      <c r="K31" s="180"/>
-      <c r="L31" s="180"/>
-      <c r="M31" s="180"/>
-      <c r="N31" s="180"/>
-      <c r="O31" s="180"/>
-      <c r="P31" s="128"/>
-      <c r="Q31" s="128"/>
-      <c r="R31" s="128"/>
-      <c r="S31" s="128"/>
-      <c r="T31" s="128"/>
-      <c r="U31" s="128"/>
-      <c r="V31" s="128"/>
-      <c r="W31" s="128"/>
-      <c r="X31" s="128"/>
-      <c r="Y31" s="128"/>
-      <c r="Z31" s="128"/>
-      <c r="AA31" s="128"/>
-      <c r="AB31" s="128"/>
-      <c r="AC31" s="128"/>
-      <c r="AD31" s="128"/>
-      <c r="AE31" s="128"/>
-      <c r="AF31" s="128"/>
-      <c r="AG31" s="128"/>
-      <c r="AH31" s="128"/>
-      <c r="AI31" s="129"/>
+      <c r="E31" s="129"/>
+      <c r="F31" s="129"/>
+      <c r="G31" s="129"/>
+      <c r="H31" s="129"/>
+      <c r="I31" s="129"/>
+      <c r="J31" s="129"/>
+      <c r="K31" s="129"/>
+      <c r="L31" s="129"/>
+      <c r="M31" s="129"/>
+      <c r="N31" s="129"/>
+      <c r="O31" s="129"/>
+      <c r="P31" s="121"/>
+      <c r="Q31" s="121"/>
+      <c r="R31" s="121"/>
+      <c r="S31" s="121"/>
+      <c r="T31" s="121"/>
+      <c r="U31" s="121"/>
+      <c r="V31" s="121"/>
+      <c r="W31" s="121"/>
+      <c r="X31" s="121"/>
+      <c r="Y31" s="121"/>
+      <c r="Z31" s="121"/>
+      <c r="AA31" s="121"/>
+      <c r="AB31" s="121"/>
+      <c r="AC31" s="121"/>
+      <c r="AD31" s="121"/>
+      <c r="AE31" s="121"/>
+      <c r="AF31" s="121"/>
+      <c r="AG31" s="121"/>
+      <c r="AH31" s="121"/>
+      <c r="AI31" s="141"/>
       <c r="AJ31" s="51"/>
     </row>
     <row r="32" spans="1:36" ht="60" customHeight="1">
       <c r="A32" s="52"/>
-      <c r="B32" s="119">
+      <c r="B32" s="130">
         <v>6</v>
       </c>
-      <c r="C32" s="120"/>
-      <c r="D32" s="180" t="s">
+      <c r="C32" s="131"/>
+      <c r="D32" s="129" t="s">
         <v>43</v>
       </c>
-      <c r="E32" s="180"/>
-      <c r="F32" s="180"/>
-      <c r="G32" s="180"/>
-      <c r="H32" s="180"/>
-      <c r="I32" s="180"/>
-      <c r="J32" s="180"/>
-      <c r="K32" s="180"/>
-      <c r="L32" s="180"/>
-      <c r="M32" s="180"/>
-      <c r="N32" s="180"/>
-      <c r="O32" s="180"/>
-      <c r="P32" s="128"/>
-      <c r="Q32" s="128"/>
-      <c r="R32" s="128"/>
-      <c r="S32" s="128"/>
-      <c r="T32" s="128"/>
-      <c r="U32" s="128"/>
-      <c r="V32" s="128"/>
-      <c r="W32" s="128"/>
-      <c r="X32" s="128"/>
-      <c r="Y32" s="128"/>
-      <c r="Z32" s="128"/>
-      <c r="AA32" s="128"/>
-      <c r="AB32" s="128"/>
-      <c r="AC32" s="128"/>
-      <c r="AD32" s="128"/>
-      <c r="AE32" s="128"/>
-      <c r="AF32" s="128"/>
-      <c r="AG32" s="128"/>
-      <c r="AH32" s="128"/>
-      <c r="AI32" s="129"/>
+      <c r="E32" s="129"/>
+      <c r="F32" s="129"/>
+      <c r="G32" s="129"/>
+      <c r="H32" s="129"/>
+      <c r="I32" s="129"/>
+      <c r="J32" s="129"/>
+      <c r="K32" s="129"/>
+      <c r="L32" s="129"/>
+      <c r="M32" s="129"/>
+      <c r="N32" s="129"/>
+      <c r="O32" s="129"/>
+      <c r="P32" s="121"/>
+      <c r="Q32" s="121"/>
+      <c r="R32" s="121"/>
+      <c r="S32" s="121"/>
+      <c r="T32" s="121"/>
+      <c r="U32" s="121"/>
+      <c r="V32" s="121"/>
+      <c r="W32" s="121"/>
+      <c r="X32" s="121"/>
+      <c r="Y32" s="121"/>
+      <c r="Z32" s="121"/>
+      <c r="AA32" s="121"/>
+      <c r="AB32" s="121"/>
+      <c r="AC32" s="121"/>
+      <c r="AD32" s="121"/>
+      <c r="AE32" s="121"/>
+      <c r="AF32" s="121"/>
+      <c r="AG32" s="121"/>
+      <c r="AH32" s="121"/>
+      <c r="AI32" s="141"/>
       <c r="AJ32" s="51"/>
     </row>
     <row r="33" spans="1:54" ht="60" customHeight="1">
       <c r="A33" s="52"/>
-      <c r="B33" s="119">
+      <c r="B33" s="130">
         <v>7</v>
       </c>
-      <c r="C33" s="120"/>
-      <c r="D33" s="180" t="s">
+      <c r="C33" s="131"/>
+      <c r="D33" s="129" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="180"/>
-      <c r="F33" s="180"/>
-      <c r="G33" s="180"/>
-      <c r="H33" s="180"/>
-      <c r="I33" s="180"/>
-      <c r="J33" s="180"/>
-      <c r="K33" s="180"/>
-      <c r="L33" s="180"/>
-      <c r="M33" s="180"/>
-      <c r="N33" s="180"/>
-      <c r="O33" s="180"/>
-      <c r="P33" s="128"/>
-      <c r="Q33" s="128"/>
-      <c r="R33" s="128"/>
-      <c r="S33" s="128"/>
-      <c r="T33" s="128"/>
-      <c r="U33" s="128"/>
-      <c r="V33" s="128"/>
-      <c r="W33" s="128"/>
-      <c r="X33" s="128"/>
-      <c r="Y33" s="128"/>
-      <c r="Z33" s="128"/>
-      <c r="AA33" s="128"/>
-      <c r="AB33" s="128"/>
-      <c r="AC33" s="128"/>
-      <c r="AD33" s="128"/>
-      <c r="AE33" s="128"/>
-      <c r="AF33" s="128"/>
-      <c r="AG33" s="128"/>
-      <c r="AH33" s="128"/>
-      <c r="AI33" s="129"/>
+      <c r="E33" s="129"/>
+      <c r="F33" s="129"/>
+      <c r="G33" s="129"/>
+      <c r="H33" s="129"/>
+      <c r="I33" s="129"/>
+      <c r="J33" s="129"/>
+      <c r="K33" s="129"/>
+      <c r="L33" s="129"/>
+      <c r="M33" s="129"/>
+      <c r="N33" s="129"/>
+      <c r="O33" s="129"/>
+      <c r="P33" s="121"/>
+      <c r="Q33" s="121"/>
+      <c r="R33" s="121"/>
+      <c r="S33" s="121"/>
+      <c r="T33" s="121"/>
+      <c r="U33" s="121"/>
+      <c r="V33" s="121"/>
+      <c r="W33" s="121"/>
+      <c r="X33" s="121"/>
+      <c r="Y33" s="121"/>
+      <c r="Z33" s="121"/>
+      <c r="AA33" s="121"/>
+      <c r="AB33" s="121"/>
+      <c r="AC33" s="121"/>
+      <c r="AD33" s="121"/>
+      <c r="AE33" s="121"/>
+      <c r="AF33" s="121"/>
+      <c r="AG33" s="121"/>
+      <c r="AH33" s="121"/>
+      <c r="AI33" s="141"/>
       <c r="AJ33" s="51"/>
     </row>
     <row r="34" spans="1:54" ht="60" customHeight="1">
       <c r="A34" s="52"/>
-      <c r="B34" s="119">
+      <c r="B34" s="130">
         <v>8</v>
       </c>
-      <c r="C34" s="120"/>
-      <c r="D34" s="180" t="s">
+      <c r="C34" s="131"/>
+      <c r="D34" s="129" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="180"/>
-      <c r="F34" s="180"/>
-      <c r="G34" s="180"/>
-      <c r="H34" s="180"/>
-      <c r="I34" s="180"/>
-      <c r="J34" s="180"/>
-      <c r="K34" s="180"/>
-      <c r="L34" s="180"/>
-      <c r="M34" s="180"/>
-      <c r="N34" s="180"/>
-      <c r="O34" s="180"/>
-      <c r="P34" s="128"/>
-      <c r="Q34" s="128"/>
-      <c r="R34" s="128"/>
-      <c r="S34" s="128"/>
-      <c r="T34" s="128"/>
-      <c r="U34" s="128"/>
-      <c r="V34" s="128"/>
-      <c r="W34" s="128"/>
-      <c r="X34" s="128"/>
-      <c r="Y34" s="128"/>
-      <c r="Z34" s="128"/>
-      <c r="AA34" s="128"/>
-      <c r="AB34" s="128"/>
-      <c r="AC34" s="128"/>
-      <c r="AD34" s="128"/>
-      <c r="AE34" s="128"/>
-      <c r="AF34" s="128"/>
-      <c r="AG34" s="128"/>
-      <c r="AH34" s="128"/>
-      <c r="AI34" s="129"/>
+      <c r="E34" s="129"/>
+      <c r="F34" s="129"/>
+      <c r="G34" s="129"/>
+      <c r="H34" s="129"/>
+      <c r="I34" s="129"/>
+      <c r="J34" s="129"/>
+      <c r="K34" s="129"/>
+      <c r="L34" s="129"/>
+      <c r="M34" s="129"/>
+      <c r="N34" s="129"/>
+      <c r="O34" s="129"/>
+      <c r="P34" s="121"/>
+      <c r="Q34" s="121"/>
+      <c r="R34" s="121"/>
+      <c r="S34" s="121"/>
+      <c r="T34" s="121"/>
+      <c r="U34" s="121"/>
+      <c r="V34" s="121"/>
+      <c r="W34" s="121"/>
+      <c r="X34" s="121"/>
+      <c r="Y34" s="121"/>
+      <c r="Z34" s="121"/>
+      <c r="AA34" s="121"/>
+      <c r="AB34" s="121"/>
+      <c r="AC34" s="121"/>
+      <c r="AD34" s="121"/>
+      <c r="AE34" s="121"/>
+      <c r="AF34" s="121"/>
+      <c r="AG34" s="121"/>
+      <c r="AH34" s="121"/>
+      <c r="AI34" s="141"/>
       <c r="AJ34" s="51"/>
     </row>
     <row r="35" spans="1:54" ht="60" customHeight="1">
       <c r="A35" s="52"/>
-      <c r="B35" s="178">
+      <c r="B35" s="133">
         <v>9</v>
       </c>
-      <c r="C35" s="179"/>
-      <c r="D35" s="180" t="s">
+      <c r="C35" s="125"/>
+      <c r="D35" s="129" t="s">
         <v>56</v>
       </c>
-      <c r="E35" s="180"/>
-      <c r="F35" s="180"/>
-      <c r="G35" s="180"/>
-      <c r="H35" s="180"/>
-      <c r="I35" s="180"/>
-      <c r="J35" s="180"/>
-      <c r="K35" s="180"/>
-      <c r="L35" s="180"/>
-      <c r="M35" s="180"/>
-      <c r="N35" s="180"/>
-      <c r="O35" s="180"/>
-      <c r="P35" s="128"/>
-      <c r="Q35" s="128"/>
-      <c r="R35" s="128"/>
-      <c r="S35" s="128"/>
-      <c r="T35" s="128"/>
-      <c r="U35" s="128"/>
-      <c r="V35" s="128"/>
-      <c r="W35" s="128"/>
-      <c r="X35" s="128"/>
-      <c r="Y35" s="128"/>
-      <c r="Z35" s="128"/>
-      <c r="AA35" s="128"/>
-      <c r="AB35" s="128"/>
-      <c r="AC35" s="128"/>
-      <c r="AD35" s="128"/>
-      <c r="AE35" s="128"/>
-      <c r="AF35" s="128"/>
-      <c r="AG35" s="128"/>
-      <c r="AH35" s="128"/>
-      <c r="AI35" s="129"/>
+      <c r="E35" s="129"/>
+      <c r="F35" s="129"/>
+      <c r="G35" s="129"/>
+      <c r="H35" s="129"/>
+      <c r="I35" s="129"/>
+      <c r="J35" s="129"/>
+      <c r="K35" s="129"/>
+      <c r="L35" s="129"/>
+      <c r="M35" s="129"/>
+      <c r="N35" s="129"/>
+      <c r="O35" s="129"/>
+      <c r="P35" s="121"/>
+      <c r="Q35" s="121"/>
+      <c r="R35" s="121"/>
+      <c r="S35" s="121"/>
+      <c r="T35" s="121"/>
+      <c r="U35" s="121"/>
+      <c r="V35" s="121"/>
+      <c r="W35" s="121"/>
+      <c r="X35" s="121"/>
+      <c r="Y35" s="121"/>
+      <c r="Z35" s="121"/>
+      <c r="AA35" s="121"/>
+      <c r="AB35" s="121"/>
+      <c r="AC35" s="121"/>
+      <c r="AD35" s="121"/>
+      <c r="AE35" s="121"/>
+      <c r="AF35" s="121"/>
+      <c r="AG35" s="121"/>
+      <c r="AH35" s="121"/>
+      <c r="AI35" s="141"/>
       <c r="AJ35" s="51"/>
     </row>
     <row r="36" spans="1:54" ht="6.75" customHeight="1" thickBot="1">
@@ -14355,16 +14355,16 @@
       <c r="M42" s="32"/>
       <c r="N42" s="32"/>
       <c r="O42" s="32"/>
-      <c r="Q42" s="130"/>
-      <c r="R42" s="130"/>
-      <c r="S42" s="130"/>
-      <c r="T42" s="130"/>
+      <c r="Q42" s="128"/>
+      <c r="R42" s="128"/>
+      <c r="S42" s="128"/>
+      <c r="T42" s="128"/>
       <c r="Z42" s="82"/>
       <c r="AA42" s="82"/>
-      <c r="AB42" s="130"/>
-      <c r="AC42" s="130"/>
-      <c r="AD42" s="130"/>
-      <c r="AE42" s="130"/>
+      <c r="AB42" s="128"/>
+      <c r="AC42" s="128"/>
+      <c r="AD42" s="128"/>
+      <c r="AE42" s="128"/>
       <c r="AF42" s="83"/>
       <c r="AG42" s="83"/>
       <c r="AH42" s="83"/>
@@ -14372,50 +14372,50 @@
       <c r="AJ42" s="17"/>
     </row>
     <row r="43" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A43" s="119" t="s">
+      <c r="A43" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B43" s="120"/>
-      <c r="C43" s="120"/>
-      <c r="D43" s="120"/>
-      <c r="E43" s="120"/>
-      <c r="F43" s="120"/>
-      <c r="G43" s="120"/>
-      <c r="H43" s="120"/>
-      <c r="I43" s="121"/>
-      <c r="J43" s="122" t="s">
+      <c r="B43" s="131"/>
+      <c r="C43" s="131"/>
+      <c r="D43" s="131"/>
+      <c r="E43" s="131"/>
+      <c r="F43" s="131"/>
+      <c r="G43" s="131"/>
+      <c r="H43" s="131"/>
+      <c r="I43" s="178"/>
+      <c r="J43" s="179" t="s">
         <v>57</v>
       </c>
-      <c r="K43" s="120"/>
-      <c r="L43" s="120"/>
-      <c r="M43" s="120"/>
-      <c r="N43" s="120"/>
-      <c r="O43" s="120"/>
-      <c r="P43" s="120"/>
-      <c r="Q43" s="120"/>
-      <c r="R43" s="121"/>
-      <c r="S43" s="122" t="s">
+      <c r="K43" s="131"/>
+      <c r="L43" s="131"/>
+      <c r="M43" s="131"/>
+      <c r="N43" s="131"/>
+      <c r="O43" s="131"/>
+      <c r="P43" s="131"/>
+      <c r="Q43" s="131"/>
+      <c r="R43" s="178"/>
+      <c r="S43" s="179" t="s">
         <v>55</v>
       </c>
-      <c r="T43" s="120"/>
-      <c r="U43" s="120"/>
-      <c r="V43" s="120"/>
-      <c r="W43" s="120"/>
-      <c r="X43" s="120"/>
-      <c r="Y43" s="120"/>
-      <c r="Z43" s="120"/>
-      <c r="AA43" s="121"/>
-      <c r="AB43" s="123" t="s">
+      <c r="T43" s="131"/>
+      <c r="U43" s="131"/>
+      <c r="V43" s="131"/>
+      <c r="W43" s="131"/>
+      <c r="X43" s="131"/>
+      <c r="Y43" s="131"/>
+      <c r="Z43" s="131"/>
+      <c r="AA43" s="178"/>
+      <c r="AB43" s="180" t="s">
         <v>50</v>
       </c>
-      <c r="AC43" s="124"/>
-      <c r="AD43" s="124"/>
-      <c r="AE43" s="124"/>
-      <c r="AF43" s="124"/>
-      <c r="AG43" s="124"/>
-      <c r="AH43" s="124"/>
-      <c r="AI43" s="124"/>
-      <c r="AJ43" s="125"/>
+      <c r="AC43" s="181"/>
+      <c r="AD43" s="181"/>
+      <c r="AE43" s="181"/>
+      <c r="AF43" s="181"/>
+      <c r="AG43" s="181"/>
+      <c r="AH43" s="181"/>
+      <c r="AI43" s="181"/>
+      <c r="AJ43" s="182"/>
     </row>
     <row r="44" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
       <c r="A44" s="84" t="s">
@@ -14423,23 +14423,23 @@
       </c>
       <c r="B44" s="15"/>
       <c r="C44" s="34"/>
-      <c r="D44" s="117"/>
-      <c r="E44" s="117"/>
-      <c r="F44" s="117"/>
-      <c r="G44" s="117"/>
-      <c r="H44" s="117"/>
-      <c r="I44" s="118"/>
+      <c r="D44" s="126"/>
+      <c r="E44" s="126"/>
+      <c r="F44" s="126"/>
+      <c r="G44" s="126"/>
+      <c r="H44" s="126"/>
+      <c r="I44" s="127"/>
       <c r="J44" s="85" t="s">
         <v>1</v>
       </c>
       <c r="K44" s="34"/>
       <c r="L44" s="116"/>
-      <c r="M44" s="117"/>
-      <c r="N44" s="117"/>
-      <c r="O44" s="117"/>
-      <c r="P44" s="117"/>
-      <c r="Q44" s="117"/>
-      <c r="R44" s="118"/>
+      <c r="M44" s="126"/>
+      <c r="N44" s="126"/>
+      <c r="O44" s="126"/>
+      <c r="P44" s="126"/>
+      <c r="Q44" s="126"/>
+      <c r="R44" s="127"/>
       <c r="S44" s="85" t="s">
         <v>1</v>
       </c>
@@ -14469,23 +14469,23 @@
       </c>
       <c r="B45" s="15"/>
       <c r="C45" s="34"/>
-      <c r="D45" s="184"/>
-      <c r="E45" s="184"/>
-      <c r="F45" s="184"/>
-      <c r="G45" s="184"/>
-      <c r="H45" s="184"/>
-      <c r="I45" s="179"/>
+      <c r="D45" s="124"/>
+      <c r="E45" s="124"/>
+      <c r="F45" s="124"/>
+      <c r="G45" s="124"/>
+      <c r="H45" s="124"/>
+      <c r="I45" s="125"/>
       <c r="J45" s="94" t="s">
         <v>2</v>
       </c>
       <c r="K45" s="18"/>
       <c r="L45" s="116"/>
-      <c r="M45" s="117"/>
-      <c r="N45" s="117"/>
-      <c r="O45" s="117"/>
-      <c r="P45" s="117"/>
-      <c r="Q45" s="117"/>
-      <c r="R45" s="118"/>
+      <c r="M45" s="126"/>
+      <c r="N45" s="126"/>
+      <c r="O45" s="126"/>
+      <c r="P45" s="126"/>
+      <c r="Q45" s="126"/>
+      <c r="R45" s="127"/>
       <c r="S45" s="94" t="s">
         <v>2</v>
       </c>
@@ -14515,23 +14515,23 @@
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="183"/>
-      <c r="E46" s="184"/>
-      <c r="F46" s="184"/>
-      <c r="G46" s="184"/>
-      <c r="H46" s="184"/>
-      <c r="I46" s="179"/>
+      <c r="D46" s="123"/>
+      <c r="E46" s="124"/>
+      <c r="F46" s="124"/>
+      <c r="G46" s="124"/>
+      <c r="H46" s="124"/>
+      <c r="I46" s="125"/>
       <c r="J46" s="94" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="18"/>
       <c r="L46" s="116"/>
-      <c r="M46" s="117"/>
-      <c r="N46" s="117"/>
-      <c r="O46" s="117"/>
-      <c r="P46" s="117"/>
-      <c r="Q46" s="117"/>
-      <c r="R46" s="118"/>
+      <c r="M46" s="126"/>
+      <c r="N46" s="126"/>
+      <c r="O46" s="126"/>
+      <c r="P46" s="126"/>
+      <c r="Q46" s="126"/>
+      <c r="R46" s="127"/>
       <c r="S46" s="94" t="s">
         <v>3</v>
       </c>
@@ -14561,12 +14561,12 @@
       </c>
       <c r="B47" s="89"/>
       <c r="C47" s="87"/>
-      <c r="D47" s="184"/>
-      <c r="E47" s="184"/>
-      <c r="F47" s="184"/>
-      <c r="G47" s="184"/>
-      <c r="H47" s="184"/>
-      <c r="I47" s="179"/>
+      <c r="D47" s="124"/>
+      <c r="E47" s="124"/>
+      <c r="F47" s="124"/>
+      <c r="G47" s="124"/>
+      <c r="H47" s="124"/>
+      <c r="I47" s="125"/>
       <c r="J47" s="103" t="s">
         <v>4</v>
       </c>
@@ -14641,6 +14641,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="M44:R44"/>
+    <mergeCell ref="M45:R45"/>
+    <mergeCell ref="M46:R46"/>
+    <mergeCell ref="A43:I43"/>
+    <mergeCell ref="J43:R43"/>
+    <mergeCell ref="S43:AA43"/>
+    <mergeCell ref="AB43:AJ43"/>
+    <mergeCell ref="AE7:AJ7"/>
+    <mergeCell ref="V32:AI32"/>
+    <mergeCell ref="P33:Q33"/>
+    <mergeCell ref="R33:S33"/>
+    <mergeCell ref="T33:U33"/>
+    <mergeCell ref="V33:AI33"/>
+    <mergeCell ref="T26:U26"/>
+    <mergeCell ref="V29:AI29"/>
+    <mergeCell ref="P30:Q30"/>
+    <mergeCell ref="R30:S30"/>
+    <mergeCell ref="T30:U30"/>
+    <mergeCell ref="V30:AI30"/>
+    <mergeCell ref="P32:Q32"/>
+    <mergeCell ref="R32:S32"/>
+    <mergeCell ref="T32:U32"/>
+    <mergeCell ref="P35:Q35"/>
+    <mergeCell ref="R35:S35"/>
+    <mergeCell ref="AB42:AE42"/>
+    <mergeCell ref="V35:AI35"/>
+    <mergeCell ref="T28:U28"/>
+    <mergeCell ref="V28:AI28"/>
+    <mergeCell ref="T29:U29"/>
+    <mergeCell ref="V31:AI31"/>
+    <mergeCell ref="A2:G6"/>
+    <mergeCell ref="H2:AD3"/>
+    <mergeCell ref="AE2:AJ5"/>
+    <mergeCell ref="H4:AD6"/>
+    <mergeCell ref="AE6:AG6"/>
+    <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="A8:AJ8"/>
+    <mergeCell ref="B10:E10"/>
+    <mergeCell ref="B11:E11"/>
+    <mergeCell ref="B12:E12"/>
+    <mergeCell ref="P34:Q34"/>
+    <mergeCell ref="R34:S34"/>
+    <mergeCell ref="T34:U34"/>
+    <mergeCell ref="V10:AC10"/>
+    <mergeCell ref="V34:AI34"/>
+    <mergeCell ref="I22:N22"/>
+    <mergeCell ref="I10:N10"/>
+    <mergeCell ref="I11:N11"/>
+    <mergeCell ref="W11:AB11"/>
+    <mergeCell ref="I12:N12"/>
+    <mergeCell ref="W12:AB12"/>
+    <mergeCell ref="P31:Q31"/>
+    <mergeCell ref="W13:AB13"/>
+    <mergeCell ref="I19:N19"/>
+    <mergeCell ref="P25:U25"/>
+    <mergeCell ref="P26:Q26"/>
+    <mergeCell ref="R26:S26"/>
+    <mergeCell ref="D25:O26"/>
+    <mergeCell ref="I20:N20"/>
+    <mergeCell ref="V25:AI26"/>
+    <mergeCell ref="AC19:AH19"/>
+    <mergeCell ref="R21:T21"/>
+    <mergeCell ref="R19:T19"/>
+    <mergeCell ref="R20:T20"/>
+    <mergeCell ref="G13:Q13"/>
+    <mergeCell ref="W19:AB19"/>
+    <mergeCell ref="T27:U27"/>
+    <mergeCell ref="V27:AI27"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B27:C27"/>
+    <mergeCell ref="B28:C28"/>
+    <mergeCell ref="B29:C29"/>
+    <mergeCell ref="P27:Q27"/>
+    <mergeCell ref="R27:S27"/>
+    <mergeCell ref="P28:Q28"/>
+    <mergeCell ref="R28:S28"/>
+    <mergeCell ref="P29:Q29"/>
+    <mergeCell ref="R29:S29"/>
     <mergeCell ref="B25:C26"/>
     <mergeCell ref="T35:U35"/>
     <mergeCell ref="I21:N21"/>
@@ -14665,85 +14744,6 @@
     <mergeCell ref="D35:O35"/>
     <mergeCell ref="B31:C31"/>
     <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B27:C27"/>
-    <mergeCell ref="B28:C28"/>
-    <mergeCell ref="B29:C29"/>
-    <mergeCell ref="P27:Q27"/>
-    <mergeCell ref="R27:S27"/>
-    <mergeCell ref="P28:Q28"/>
-    <mergeCell ref="R28:S28"/>
-    <mergeCell ref="P29:Q29"/>
-    <mergeCell ref="R29:S29"/>
-    <mergeCell ref="I10:N10"/>
-    <mergeCell ref="I11:N11"/>
-    <mergeCell ref="W11:AB11"/>
-    <mergeCell ref="I12:N12"/>
-    <mergeCell ref="W12:AB12"/>
-    <mergeCell ref="P31:Q31"/>
-    <mergeCell ref="W13:AB13"/>
-    <mergeCell ref="I19:N19"/>
-    <mergeCell ref="P25:U25"/>
-    <mergeCell ref="P26:Q26"/>
-    <mergeCell ref="R26:S26"/>
-    <mergeCell ref="D25:O26"/>
-    <mergeCell ref="I20:N20"/>
-    <mergeCell ref="V25:AI26"/>
-    <mergeCell ref="AC19:AH19"/>
-    <mergeCell ref="R21:T21"/>
-    <mergeCell ref="R19:T19"/>
-    <mergeCell ref="R20:T20"/>
-    <mergeCell ref="G13:Q13"/>
-    <mergeCell ref="W19:AB19"/>
-    <mergeCell ref="T27:U27"/>
-    <mergeCell ref="V27:AI27"/>
-    <mergeCell ref="AB42:AE42"/>
-    <mergeCell ref="V35:AI35"/>
-    <mergeCell ref="T28:U28"/>
-    <mergeCell ref="V28:AI28"/>
-    <mergeCell ref="T29:U29"/>
-    <mergeCell ref="V31:AI31"/>
-    <mergeCell ref="A2:G6"/>
-    <mergeCell ref="H2:AD3"/>
-    <mergeCell ref="AE2:AJ5"/>
-    <mergeCell ref="H4:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="A8:AJ8"/>
-    <mergeCell ref="B10:E10"/>
-    <mergeCell ref="B11:E11"/>
-    <mergeCell ref="B12:E12"/>
-    <mergeCell ref="P34:Q34"/>
-    <mergeCell ref="R34:S34"/>
-    <mergeCell ref="T34:U34"/>
-    <mergeCell ref="V10:AC10"/>
-    <mergeCell ref="V34:AI34"/>
-    <mergeCell ref="I22:N22"/>
-    <mergeCell ref="M44:R44"/>
-    <mergeCell ref="M45:R45"/>
-    <mergeCell ref="M46:R46"/>
-    <mergeCell ref="A43:I43"/>
-    <mergeCell ref="J43:R43"/>
-    <mergeCell ref="S43:AA43"/>
-    <mergeCell ref="AB43:AJ43"/>
-    <mergeCell ref="AE7:AJ7"/>
-    <mergeCell ref="V32:AI32"/>
-    <mergeCell ref="P33:Q33"/>
-    <mergeCell ref="R33:S33"/>
-    <mergeCell ref="T33:U33"/>
-    <mergeCell ref="V33:AI33"/>
-    <mergeCell ref="T26:U26"/>
-    <mergeCell ref="V29:AI29"/>
-    <mergeCell ref="P30:Q30"/>
-    <mergeCell ref="R30:S30"/>
-    <mergeCell ref="T30:U30"/>
-    <mergeCell ref="V30:AI30"/>
-    <mergeCell ref="P32:Q32"/>
-    <mergeCell ref="R32:S32"/>
-    <mergeCell ref="T32:U32"/>
-    <mergeCell ref="P35:Q35"/>
-    <mergeCell ref="R35:S35"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.43307086614173229" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>
@@ -14817,13 +14817,13 @@
       <c r="AJ1" s="3"/>
     </row>
     <row r="2" spans="1:36" ht="39.75" customHeight="1">
-      <c r="A2" s="143"/>
-      <c r="B2" s="144"/>
-      <c r="C2" s="144"/>
-      <c r="D2" s="144"/>
-      <c r="E2" s="144"/>
-      <c r="F2" s="144"/>
-      <c r="G2" s="144"/>
+      <c r="A2" s="154"/>
+      <c r="B2" s="155"/>
+      <c r="C2" s="155"/>
+      <c r="D2" s="155"/>
+      <c r="E2" s="155"/>
+      <c r="F2" s="155"/>
+      <c r="G2" s="155"/>
       <c r="H2" s="187" t="s">
         <v>52</v>
       </c>
@@ -14849,21 +14849,21 @@
       <c r="AB2" s="188"/>
       <c r="AC2" s="188"/>
       <c r="AD2" s="189"/>
-      <c r="AE2" s="143"/>
-      <c r="AF2" s="144"/>
-      <c r="AG2" s="144"/>
-      <c r="AH2" s="144"/>
-      <c r="AI2" s="144"/>
-      <c r="AJ2" s="145"/>
+      <c r="AE2" s="154"/>
+      <c r="AF2" s="155"/>
+      <c r="AG2" s="155"/>
+      <c r="AH2" s="155"/>
+      <c r="AI2" s="155"/>
+      <c r="AJ2" s="156"/>
     </row>
     <row r="3" spans="1:36" ht="39.75" customHeight="1">
-      <c r="A3" s="146"/>
-      <c r="B3" s="147"/>
-      <c r="C3" s="147"/>
-      <c r="D3" s="147"/>
-      <c r="E3" s="147"/>
-      <c r="F3" s="147"/>
-      <c r="G3" s="147"/>
+      <c r="A3" s="157"/>
+      <c r="B3" s="158"/>
+      <c r="C3" s="158"/>
+      <c r="D3" s="158"/>
+      <c r="E3" s="158"/>
+      <c r="F3" s="158"/>
+      <c r="G3" s="158"/>
       <c r="H3" s="190"/>
       <c r="I3" s="191"/>
       <c r="J3" s="191"/>
@@ -14887,90 +14887,90 @@
       <c r="AB3" s="191"/>
       <c r="AC3" s="191"/>
       <c r="AD3" s="192"/>
-      <c r="AE3" s="146"/>
-      <c r="AF3" s="147"/>
-      <c r="AG3" s="147"/>
-      <c r="AH3" s="147"/>
-      <c r="AI3" s="147"/>
-      <c r="AJ3" s="148"/>
+      <c r="AE3" s="157"/>
+      <c r="AF3" s="158"/>
+      <c r="AG3" s="158"/>
+      <c r="AH3" s="158"/>
+      <c r="AI3" s="158"/>
+      <c r="AJ3" s="159"/>
     </row>
     <row r="4" spans="1:36" ht="21" customHeight="1">
-      <c r="A4" s="146"/>
-      <c r="B4" s="147"/>
-      <c r="C4" s="147"/>
-      <c r="D4" s="147"/>
-      <c r="E4" s="147"/>
-      <c r="F4" s="147"/>
-      <c r="G4" s="147"/>
-      <c r="H4" s="149" t="s">
+      <c r="A4" s="157"/>
+      <c r="B4" s="158"/>
+      <c r="C4" s="158"/>
+      <c r="D4" s="158"/>
+      <c r="E4" s="158"/>
+      <c r="F4" s="158"/>
+      <c r="G4" s="158"/>
+      <c r="H4" s="160" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="150"/>
-      <c r="J4" s="150"/>
-      <c r="K4" s="150"/>
-      <c r="L4" s="150"/>
-      <c r="M4" s="150"/>
-      <c r="N4" s="150"/>
-      <c r="O4" s="150"/>
-      <c r="P4" s="150"/>
-      <c r="Q4" s="150"/>
-      <c r="R4" s="150"/>
-      <c r="S4" s="150"/>
-      <c r="T4" s="150"/>
-      <c r="U4" s="150"/>
-      <c r="V4" s="150"/>
-      <c r="W4" s="150"/>
-      <c r="X4" s="150"/>
-      <c r="Y4" s="150"/>
-      <c r="Z4" s="150"/>
-      <c r="AA4" s="150"/>
-      <c r="AB4" s="150"/>
-      <c r="AC4" s="150"/>
-      <c r="AD4" s="151"/>
-      <c r="AE4" s="146"/>
-      <c r="AF4" s="147"/>
-      <c r="AG4" s="147"/>
-      <c r="AH4" s="147"/>
-      <c r="AI4" s="147"/>
-      <c r="AJ4" s="148"/>
+      <c r="I4" s="161"/>
+      <c r="J4" s="161"/>
+      <c r="K4" s="161"/>
+      <c r="L4" s="161"/>
+      <c r="M4" s="161"/>
+      <c r="N4" s="161"/>
+      <c r="O4" s="161"/>
+      <c r="P4" s="161"/>
+      <c r="Q4" s="161"/>
+      <c r="R4" s="161"/>
+      <c r="S4" s="161"/>
+      <c r="T4" s="161"/>
+      <c r="U4" s="161"/>
+      <c r="V4" s="161"/>
+      <c r="W4" s="161"/>
+      <c r="X4" s="161"/>
+      <c r="Y4" s="161"/>
+      <c r="Z4" s="161"/>
+      <c r="AA4" s="161"/>
+      <c r="AB4" s="161"/>
+      <c r="AC4" s="161"/>
+      <c r="AD4" s="162"/>
+      <c r="AE4" s="157"/>
+      <c r="AF4" s="158"/>
+      <c r="AG4" s="158"/>
+      <c r="AH4" s="158"/>
+      <c r="AI4" s="158"/>
+      <c r="AJ4" s="159"/>
     </row>
     <row r="5" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A5" s="146"/>
-      <c r="B5" s="147"/>
-      <c r="C5" s="147"/>
-      <c r="D5" s="147"/>
-      <c r="E5" s="147"/>
-      <c r="F5" s="147"/>
-      <c r="G5" s="147"/>
-      <c r="H5" s="152"/>
-      <c r="I5" s="153"/>
-      <c r="J5" s="153"/>
-      <c r="K5" s="153"/>
-      <c r="L5" s="153"/>
-      <c r="M5" s="153"/>
-      <c r="N5" s="153"/>
-      <c r="O5" s="153"/>
-      <c r="P5" s="153"/>
-      <c r="Q5" s="153"/>
-      <c r="R5" s="153"/>
-      <c r="S5" s="153"/>
-      <c r="T5" s="153"/>
-      <c r="U5" s="153"/>
-      <c r="V5" s="153"/>
-      <c r="W5" s="153"/>
-      <c r="X5" s="153"/>
-      <c r="Y5" s="153"/>
-      <c r="Z5" s="153"/>
-      <c r="AA5" s="153"/>
-      <c r="AB5" s="153"/>
-      <c r="AC5" s="153"/>
-      <c r="AD5" s="154"/>
-      <c r="AE5" s="146"/>
-      <c r="AF5" s="147"/>
-      <c r="AG5" s="147"/>
-      <c r="AH5" s="147"/>
-      <c r="AI5" s="147"/>
-      <c r="AJ5" s="148"/>
+      <c r="A5" s="157"/>
+      <c r="B5" s="158"/>
+      <c r="C5" s="158"/>
+      <c r="D5" s="158"/>
+      <c r="E5" s="158"/>
+      <c r="F5" s="158"/>
+      <c r="G5" s="158"/>
+      <c r="H5" s="163"/>
+      <c r="I5" s="164"/>
+      <c r="J5" s="164"/>
+      <c r="K5" s="164"/>
+      <c r="L5" s="164"/>
+      <c r="M5" s="164"/>
+      <c r="N5" s="164"/>
+      <c r="O5" s="164"/>
+      <c r="P5" s="164"/>
+      <c r="Q5" s="164"/>
+      <c r="R5" s="164"/>
+      <c r="S5" s="164"/>
+      <c r="T5" s="164"/>
+      <c r="U5" s="164"/>
+      <c r="V5" s="164"/>
+      <c r="W5" s="164"/>
+      <c r="X5" s="164"/>
+      <c r="Y5" s="164"/>
+      <c r="Z5" s="164"/>
+      <c r="AA5" s="164"/>
+      <c r="AB5" s="164"/>
+      <c r="AC5" s="164"/>
+      <c r="AD5" s="165"/>
+      <c r="AE5" s="157"/>
+      <c r="AF5" s="158"/>
+      <c r="AG5" s="158"/>
+      <c r="AH5" s="158"/>
+      <c r="AI5" s="158"/>
+      <c r="AJ5" s="159"/>
     </row>
     <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
       <c r="A6" s="185"/>
@@ -14980,35 +14980,35 @@
       <c r="E6" s="186"/>
       <c r="F6" s="186"/>
       <c r="G6" s="186"/>
-      <c r="H6" s="155"/>
-      <c r="I6" s="156"/>
-      <c r="J6" s="156"/>
-      <c r="K6" s="156"/>
-      <c r="L6" s="156"/>
-      <c r="M6" s="156"/>
-      <c r="N6" s="156"/>
-      <c r="O6" s="156"/>
-      <c r="P6" s="156"/>
-      <c r="Q6" s="156"/>
-      <c r="R6" s="156"/>
-      <c r="S6" s="156"/>
-      <c r="T6" s="156"/>
-      <c r="U6" s="156"/>
-      <c r="V6" s="156"/>
-      <c r="W6" s="156"/>
-      <c r="X6" s="156"/>
-      <c r="Y6" s="156"/>
-      <c r="Z6" s="156"/>
-      <c r="AA6" s="156"/>
-      <c r="AB6" s="156"/>
-      <c r="AC6" s="156"/>
-      <c r="AD6" s="157"/>
-      <c r="AE6" s="158"/>
-      <c r="AF6" s="159"/>
-      <c r="AG6" s="159"/>
-      <c r="AH6" s="160"/>
-      <c r="AI6" s="160"/>
-      <c r="AJ6" s="161"/>
+      <c r="H6" s="166"/>
+      <c r="I6" s="167"/>
+      <c r="J6" s="167"/>
+      <c r="K6" s="167"/>
+      <c r="L6" s="167"/>
+      <c r="M6" s="167"/>
+      <c r="N6" s="167"/>
+      <c r="O6" s="167"/>
+      <c r="P6" s="167"/>
+      <c r="Q6" s="167"/>
+      <c r="R6" s="167"/>
+      <c r="S6" s="167"/>
+      <c r="T6" s="167"/>
+      <c r="U6" s="167"/>
+      <c r="V6" s="167"/>
+      <c r="W6" s="167"/>
+      <c r="X6" s="167"/>
+      <c r="Y6" s="167"/>
+      <c r="Z6" s="167"/>
+      <c r="AA6" s="167"/>
+      <c r="AB6" s="167"/>
+      <c r="AC6" s="167"/>
+      <c r="AD6" s="168"/>
+      <c r="AE6" s="169"/>
+      <c r="AF6" s="170"/>
+      <c r="AG6" s="170"/>
+      <c r="AH6" s="171"/>
+      <c r="AI6" s="171"/>
+      <c r="AJ6" s="172"/>
     </row>
     <row r="7" spans="1:36" ht="25.5" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
@@ -15041,52 +15041,52 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="126" t="s">
+      <c r="AE7" s="183" t="s">
         <v>41</v>
       </c>
-      <c r="AF7" s="126"/>
-      <c r="AG7" s="126"/>
-      <c r="AH7" s="126"/>
-      <c r="AI7" s="126"/>
-      <c r="AJ7" s="127"/>
+      <c r="AF7" s="183"/>
+      <c r="AG7" s="183"/>
+      <c r="AH7" s="183"/>
+      <c r="AI7" s="183"/>
+      <c r="AJ7" s="184"/>
     </row>
     <row r="8" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A8" s="162"/>
-      <c r="B8" s="163"/>
-      <c r="C8" s="163"/>
-      <c r="D8" s="163"/>
-      <c r="E8" s="163"/>
-      <c r="F8" s="163"/>
-      <c r="G8" s="163"/>
-      <c r="H8" s="163"/>
-      <c r="I8" s="163"/>
-      <c r="J8" s="163"/>
-      <c r="K8" s="163"/>
-      <c r="L8" s="163"/>
-      <c r="M8" s="163"/>
-      <c r="N8" s="163"/>
-      <c r="O8" s="163"/>
-      <c r="P8" s="163"/>
-      <c r="Q8" s="163"/>
-      <c r="R8" s="163"/>
-      <c r="S8" s="163"/>
-      <c r="T8" s="163"/>
-      <c r="U8" s="163"/>
-      <c r="V8" s="163"/>
-      <c r="W8" s="163"/>
-      <c r="X8" s="163"/>
-      <c r="Y8" s="163"/>
-      <c r="Z8" s="163"/>
-      <c r="AA8" s="163"/>
-      <c r="AB8" s="163"/>
-      <c r="AC8" s="163"/>
-      <c r="AD8" s="163"/>
-      <c r="AE8" s="163"/>
-      <c r="AF8" s="163"/>
-      <c r="AG8" s="163"/>
-      <c r="AH8" s="163"/>
-      <c r="AI8" s="163"/>
-      <c r="AJ8" s="164"/>
+      <c r="A8" s="173"/>
+      <c r="B8" s="174"/>
+      <c r="C8" s="174"/>
+      <c r="D8" s="174"/>
+      <c r="E8" s="174"/>
+      <c r="F8" s="174"/>
+      <c r="G8" s="174"/>
+      <c r="H8" s="174"/>
+      <c r="I8" s="174"/>
+      <c r="J8" s="174"/>
+      <c r="K8" s="174"/>
+      <c r="L8" s="174"/>
+      <c r="M8" s="174"/>
+      <c r="N8" s="174"/>
+      <c r="O8" s="174"/>
+      <c r="P8" s="174"/>
+      <c r="Q8" s="174"/>
+      <c r="R8" s="174"/>
+      <c r="S8" s="174"/>
+      <c r="T8" s="174"/>
+      <c r="U8" s="174"/>
+      <c r="V8" s="174"/>
+      <c r="W8" s="174"/>
+      <c r="X8" s="174"/>
+      <c r="Y8" s="174"/>
+      <c r="Z8" s="174"/>
+      <c r="AA8" s="174"/>
+      <c r="AB8" s="174"/>
+      <c r="AC8" s="174"/>
+      <c r="AD8" s="174"/>
+      <c r="AE8" s="174"/>
+      <c r="AF8" s="174"/>
+      <c r="AG8" s="174"/>
+      <c r="AH8" s="174"/>
+      <c r="AI8" s="174"/>
+      <c r="AJ8" s="175"/>
     </row>
     <row r="9" spans="1:36" ht="30" customHeight="1">
       <c r="A9" s="1"/>
@@ -16527,16 +16527,16 @@
       <c r="M53" s="32"/>
       <c r="N53" s="32"/>
       <c r="O53" s="32"/>
-      <c r="Q53" s="130"/>
-      <c r="R53" s="130"/>
-      <c r="S53" s="130"/>
-      <c r="T53" s="130"/>
+      <c r="Q53" s="128"/>
+      <c r="R53" s="128"/>
+      <c r="S53" s="128"/>
+      <c r="T53" s="128"/>
       <c r="Z53" s="82"/>
       <c r="AA53" s="82"/>
-      <c r="AB53" s="130"/>
-      <c r="AC53" s="130"/>
-      <c r="AD53" s="130"/>
-      <c r="AE53" s="130"/>
+      <c r="AB53" s="128"/>
+      <c r="AC53" s="128"/>
+      <c r="AD53" s="128"/>
+      <c r="AE53" s="128"/>
       <c r="AF53" s="83"/>
       <c r="AG53" s="83"/>
       <c r="AH53" s="83"/>
@@ -16544,14 +16544,14 @@
       <c r="AJ53" s="17"/>
     </row>
     <row r="54" spans="1:54" s="16" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="119" t="s">
+      <c r="A54" s="130" t="s">
         <v>53</v>
       </c>
-      <c r="B54" s="120"/>
-      <c r="C54" s="120"/>
-      <c r="D54" s="120"/>
-      <c r="E54" s="120"/>
-      <c r="F54" s="120"/>
+      <c r="B54" s="131"/>
+      <c r="C54" s="131"/>
+      <c r="D54" s="131"/>
+      <c r="E54" s="131"/>
+      <c r="F54" s="131"/>
       <c r="G54" s="107"/>
       <c r="H54" s="107"/>
       <c r="I54" s="107"/>
@@ -16595,12 +16595,12 @@
       </c>
       <c r="B55" s="15"/>
       <c r="C55" s="34"/>
-      <c r="D55" s="117"/>
-      <c r="E55" s="117"/>
-      <c r="F55" s="117"/>
-      <c r="G55" s="117"/>
-      <c r="H55" s="117"/>
-      <c r="I55" s="118"/>
+      <c r="D55" s="126"/>
+      <c r="E55" s="126"/>
+      <c r="F55" s="126"/>
+      <c r="G55" s="126"/>
+      <c r="H55" s="126"/>
+      <c r="I55" s="127"/>
       <c r="J55" s="85" t="s">
         <v>1</v>
       </c>
@@ -16641,12 +16641,12 @@
       </c>
       <c r="B56" s="15"/>
       <c r="C56" s="34"/>
-      <c r="D56" s="184"/>
-      <c r="E56" s="184"/>
-      <c r="F56" s="184"/>
-      <c r="G56" s="184"/>
-      <c r="H56" s="184"/>
-      <c r="I56" s="179"/>
+      <c r="D56" s="124"/>
+      <c r="E56" s="124"/>
+      <c r="F56" s="124"/>
+      <c r="G56" s="124"/>
+      <c r="H56" s="124"/>
+      <c r="I56" s="125"/>
       <c r="J56" s="94" t="s">
         <v>2</v>
       </c>
@@ -16687,12 +16687,12 @@
       </c>
       <c r="B57" s="15"/>
       <c r="C57" s="18"/>
-      <c r="D57" s="183"/>
-      <c r="E57" s="184"/>
-      <c r="F57" s="184"/>
-      <c r="G57" s="184"/>
-      <c r="H57" s="184"/>
-      <c r="I57" s="179"/>
+      <c r="D57" s="123"/>
+      <c r="E57" s="124"/>
+      <c r="F57" s="124"/>
+      <c r="G57" s="124"/>
+      <c r="H57" s="124"/>
+      <c r="I57" s="125"/>
       <c r="J57" s="94" t="s">
         <v>3</v>
       </c>
@@ -16733,12 +16733,12 @@
       </c>
       <c r="B58" s="89"/>
       <c r="C58" s="87"/>
-      <c r="D58" s="184"/>
-      <c r="E58" s="184"/>
-      <c r="F58" s="184"/>
-      <c r="G58" s="184"/>
-      <c r="H58" s="184"/>
-      <c r="I58" s="179"/>
+      <c r="D58" s="124"/>
+      <c r="E58" s="124"/>
+      <c r="F58" s="124"/>
+      <c r="G58" s="124"/>
+      <c r="H58" s="124"/>
+      <c r="I58" s="125"/>
       <c r="J58" s="103" t="s">
         <v>4</v>
       </c>
@@ -16813,13 +16813,6 @@
     </row>
   </sheetData>
   <mergeCells count="15">
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
     <mergeCell ref="AE7:AJ7"/>
     <mergeCell ref="A8:AJ8"/>
     <mergeCell ref="A2:G6"/>
@@ -16828,6 +16821,13 @@
     <mergeCell ref="H4:AD6"/>
     <mergeCell ref="AE6:AG6"/>
     <mergeCell ref="AH6:AJ6"/>
+    <mergeCell ref="D57:I57"/>
+    <mergeCell ref="D58:I58"/>
+    <mergeCell ref="Q53:T53"/>
+    <mergeCell ref="AB53:AE53"/>
+    <mergeCell ref="A54:F54"/>
+    <mergeCell ref="D55:I55"/>
+    <mergeCell ref="D56:I56"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.43307086614173229" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>

--- a/wksp_T_RA_PP/res/T/Protocolo Tendido de conductores electricos.xlsx
+++ b/wksp_T_RA_PP/res/T/Protocolo Tendido de conductores electricos.xlsx
@@ -1,51 +1,42 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27029"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Vichaoss\PycharmProjects\Protocol_Workshop\wksp_T_RA_PP\res\T\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\vicea\PycharmProjects\Protocol_Workshop\wksp_T_RA_PP\res\T\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{405122E4-215F-4175-9FC4-C324A623182E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{618D27D8-303C-4109-86D8-6B19DBE7DC32}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" tabRatio="778" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Protocolo de Tendido" sheetId="1" r:id="rId1"/>
-    <sheet name="Recorrido Cable" sheetId="2" r:id="rId2"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId2"/>
   </externalReferences>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Protocolo de Tendido'!$A$2:$AJ$48</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="1">'Recorrido Cable'!$A$2:$AJ$59</definedName>
     <definedName name="d_loseta" localSheetId="0">#REF!</definedName>
-    <definedName name="d_loseta" localSheetId="1">#REF!</definedName>
     <definedName name="d_loseta">#REF!</definedName>
     <definedName name="d_planos">'[1]datos plano'!$A$5:$AK$76</definedName>
     <definedName name="d_terreno">'[1]datos terreno'!$A$4:$V$75</definedName>
     <definedName name="DP" localSheetId="0">#REF!</definedName>
-    <definedName name="DP" localSheetId="1">#REF!</definedName>
     <definedName name="DP">#REF!</definedName>
     <definedName name="DT" localSheetId="0">#REF!</definedName>
-    <definedName name="DT" localSheetId="1">#REF!</definedName>
     <definedName name="DT">#REF!</definedName>
     <definedName name="IMP" localSheetId="0">#REF!</definedName>
-    <definedName name="IMP" localSheetId="1">#REF!</definedName>
     <definedName name="IMP">#REF!</definedName>
     <definedName name="mb" localSheetId="0">#REF!</definedName>
-    <definedName name="mb" localSheetId="1">#REF!</definedName>
     <definedName name="mb">#REF!</definedName>
     <definedName name="p_diagonal">'[1]Perfil Diagonal'!$A$4:$S$75</definedName>
     <definedName name="t_fundacion">'[1]tipo fundacion'!$A$6:$F$15</definedName>
     <definedName name="t_torres" localSheetId="0">#REF!</definedName>
-    <definedName name="t_torres" localSheetId="1">#REF!</definedName>
     <definedName name="t_torres">#REF!</definedName>
     <definedName name="VERTICE" localSheetId="0">LISTADO</definedName>
-    <definedName name="VERTICE" localSheetId="1">LISTADO</definedName>
     <definedName name="VERTICE">LISTADO</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
@@ -58,7 +49,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="61">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="56">
   <si>
     <t>Observaciones:</t>
   </si>
@@ -183,12 +174,6 @@
     <t>DESCRIPCIÓN TENDIDO DE CONDUCTORES</t>
   </si>
   <si>
-    <t>PÁGINA 2 DE 2</t>
-  </si>
-  <si>
-    <t>3.- PLANO</t>
-  </si>
-  <si>
     <t>Se realizó inspsección previa a su tendido</t>
   </si>
   <si>
@@ -214,17 +199,7 @@
     <t xml:space="preserve">                  TOMA CONOCIMIENTO ITO</t>
   </si>
   <si>
-    <t xml:space="preserve">                          TOMA CONOCIMIENTO ITO</t>
-  </si>
-  <si>
-    <t>CONTRATO  SNN4008
-   SUBESTACION PARINAS 500/220kV</t>
-  </si>
-  <si>
     <t>ELABORA</t>
-  </si>
-  <si>
-    <t>RECIBE</t>
   </si>
   <si>
     <t>APRUEBA</t>
@@ -249,9 +224,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="9">
+  <numFmts count="8">
     <numFmt numFmtId="164" formatCode="0.000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
     <numFmt numFmtId="166" formatCode="&quot;PROTOCOLO DE MEGGEO DE CABLES CARRETE N°&quot;\ 0"/>
     <numFmt numFmtId="167" formatCode="&quot;Carrete N° &quot;0"/>
     <numFmt numFmtId="168" formatCode="&quot;Temperatura&quot;\ 0.0&quot; °C&quot;"/>
@@ -260,7 +234,7 @@
     <numFmt numFmtId="171" formatCode="0.&quot;x&quot;0\ &quot;mm&quot;"/>
     <numFmt numFmtId="172" formatCode="&quot;SAN-EPC-PT-E-TC-&quot;000"/>
   </numFmts>
-  <fonts count="23">
+  <fonts count="18">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -322,12 +296,6 @@
       <family val="1"/>
     </font>
     <font>
-      <sz val="10"/>
-      <color rgb="FFFF0000"/>
-      <name val="Frutiger-Light"/>
-      <family val="1"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <name val="Frutiger-Light"/>
@@ -365,31 +333,6 @@
     <font>
       <u/>
       <sz val="12"/>
-      <name val="Frutiger-Light"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="16"/>
-      <color theme="1"/>
-      <name val="Frutiger-Light"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="12"/>
-      <color theme="0"/>
-      <name val="Frutiger-Light"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <sz val="10"/>
-      <color theme="0"/>
-      <name val="Frutiger-Light"/>
-      <family val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="12"/>
-      <color theme="0"/>
       <name val="Frutiger-Light"/>
       <family val="1"/>
     </font>
@@ -836,7 +779,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="193">
+  <cellXfs count="167">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
@@ -895,52 +838,49 @@
     <xf numFmtId="0" fontId="10" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -955,31 +895,31 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="167" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="169" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="171" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="168" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="171" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="170" fontId="12" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="170" fontId="11" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -991,31 +931,31 @@
     <xf numFmtId="0" fontId="4" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="15" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="14" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="12" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="11" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="1" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="16" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="15" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
@@ -1033,13 +973,7 @@
     <xf numFmtId="164" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1074,114 +1008,69 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="165" fontId="1" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="14" fontId="9" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="21" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1215,7 +1104,7 @@
     <xf numFmtId="0" fontId="8" fillId="2" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="17" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="16" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="3" fontId="8" fillId="2" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1391,30 +1280,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -3426,3567 +3291,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="4" name="Line 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A5A54973-7E71-471B-97F2-E52B50D6B6E6}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18126075"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Line 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0BBFD3EB-F9FF-457F-B74E-0502597172FA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18126075"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="6" name="Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{93D6D825-CE70-49BC-B49E-7D9D63316D41}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18126075"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C3F4BB64-FB84-4F36-90DF-A9F26EA571D9}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="1815610"/>
-          <a:ext cx="0" cy="460865"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="8" name="Line 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1B7D29DE-0838-46F0-AEF1-DE1B34B17F50}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18126075"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="9" name="Line 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9A4220A2-0E54-47BE-B6A4-3DD44125C16D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18126075"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="10" name="Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CEF1AEBC-C7CB-4320-A5D0-1405173C5334}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18126075"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="11" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F2E7ADE8-FF82-4745-A28A-AAA2812925DF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="14" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{886C2F63-A8C0-4FBE-9034-CEBB35EF6711}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="1815610"/>
-          <a:ext cx="0" cy="460865"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137118</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="16" name="Imagen 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8E41A60B-BEB3-4B9A-B836-F9B1D2100B10}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="23964" b="25113"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13061950" y="336550"/>
-          <a:ext cx="2193925" cy="1381718"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="17" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1557B5C8-A6A3-4A63-9456-F445EAF2E567}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="18" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{782FF2AB-4ECF-4C5D-BEC9-3F93363012AB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="19" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{67A6DBE2-8ADA-407E-AE45-D8D971023B30}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="20" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8FE43CDC-9917-4406-81D6-44AC20DA64AF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="21" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{25EF9121-821F-43F8-B904-F569570696B2}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="22" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1551633C-68C6-4D44-A54F-01A70587ABB0}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="23" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F1DF775-945B-48DF-91A9-EAF835233AAF}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="24" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5F97B0C2-9BEE-4DEF-A4B3-1087DBD1DE08}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="25" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4D3A2765-9F6E-4BF4-BE45-130BC37D7982}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="26" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8A3D998A-5C11-4F14-B498-0A199C86ACC8}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="27" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{47175C44-37AD-4DCE-B890-DF4A4F45756C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="28" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{C90F543E-07DE-43E4-A3E6-5E4EB8683248}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="29" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6A3054FE-A8D7-4835-AE74-C2B12AA6A70C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="30" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4081A7B1-DC29-4DFF-822E-2F8916742361}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="31" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65B83F03-3D2F-468C-9EE9-06C858B24746}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="32" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8084F29C-7945-4FA9-8598-FE93D1A6D555}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="33" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FF53F73-4F98-422C-9E34-CF7EBC2EC07D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="34" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EC10DEDB-329F-47B7-A2E7-FE036CCA9845}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="3028950"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="35" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9230000C-68E0-424F-B815-1DE2C9B5D936}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="36" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{76660D4E-F48D-456C-9F5B-E92DA5F62A3F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="37" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0E49CE77-1C38-45B6-8A7A-F447E572E865}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2139460"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="39" name="Line 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{464AC8B1-5451-469D-BA8E-A11D43519A3B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18945225"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="41" name="Line 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B32927D1-856F-4594-9BFB-C134E1939526}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18945225"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="42" name="Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E7724D1D-F488-4D85-8966-1C9373739087}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18945225"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="43" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0111634C-AAC5-4C76-BCC2-07C371BD7964}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2082310"/>
-          <a:ext cx="0" cy="460865"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="44" name="Line 15">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6EE76C2-489F-40D4-8C14-5E9301C51BEA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18945225"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="45" name="Line 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{89DFF3B3-2F17-45F4-8F54-DA290B86DE1A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18945225"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>52</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="46" name="Line 17">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{15CBE883-5410-42EE-BCDA-47CD8966FFAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="5572125" y="18945225"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="47" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{202018F0-D6B8-4882-A3B4-E5657BF00230}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>8</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="48" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{386DAB91-4693-4514-ADC8-490B20EB14DA}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2082310"/>
-          <a:ext cx="0" cy="460865"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>30</xdr:col>
-      <xdr:colOff>203200</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>35</xdr:col>
-      <xdr:colOff>254000</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>137118</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="50" name="Imagen 16">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{10F8FEFE-CF50-4C27-A585-778A05635964}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect t="23964" b="25113"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="13061950" y="336550"/>
-          <a:ext cx="2193925" cy="1648418"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-          <a:ext uri="{91240B29-F687-4F45-9708-019B960494DF}">
-            <a14:hiddenLine xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" w="9525">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:miter lim="800000"/>
-              <a:headEnd/>
-              <a:tailEnd/>
-            </a14:hiddenLine>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="51" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{6017A711-63BE-41EB-9BB7-6B5A0499F5C4}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="52" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BC3E0F0A-683A-4DE5-B681-E4C226528698}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="53" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{EE0F2FFC-F0FD-41B8-A7D1-22D6CDDEA524}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="54" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9C93F621-BC24-4073-9148-C8EB6A671522}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="55" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7354F1AE-3584-46A0-944E-92733A57B67D}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="56" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{94AE3403-2C54-4C3E-8876-8C0F4F134429}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="57" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0F200A09-7964-4EC3-AFFF-A9968279E8F7}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>6</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="58" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{50943450-E056-4AF5-B961-4109BF7CD21B}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="2571750" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="59" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{2E93DBD7-6AF8-4101-BEF0-F874E3D2FD07}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="60" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{31416EE6-927E-4D7F-BF19-FF02D9585AAB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="61" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B26A6516-9973-4C18-9537-972985435858}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="62" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{30B6CA24-DAC4-454F-8D3D-62507561991A}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="63" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{8D30E7DD-CB83-4EE9-8247-E3B2265A9742}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="64" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{28EF363C-98A1-4FBF-AE32-9A69D461A3BB}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="65" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3098A9B2-E38E-49A1-AD3A-E10447DFB544}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="66" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{26C11A5A-5856-447B-80D0-729A80E2B850}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="67" name="Line 12">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{FECE4ACA-5612-422B-B97E-5C83DE237324}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>44</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="68" name="Line 13">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0234C521-4C52-4CB1-B0EB-484B8A6DB61F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr>
-          <a:spLocks noChangeShapeType="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3857625" y="15925800"/>
-          <a:ext cx="0" cy="0"/>
-        </a:xfrm>
-        <a:prstGeom prst="line">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:solidFill>
-            <a:srgbClr val="000000"/>
-          </a:solidFill>
-          <a:round/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="69" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{80461F31-CA9B-44CD-A9CD-D7DE12DABF9C}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="70" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B2C93767-1858-4151-8C57-5FB388A7B268}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>34435</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>19843</xdr:colOff>
-      <xdr:row>9</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:to>
-    <xdr:sp macro="" textlink="">
-      <xdr:nvSpPr>
-        <xdr:cNvPr id="71" name="Text Box 21">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{17E69184-33AD-41F6-A76B-B908FA197827}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvSpPr txBox="1">
-          <a:spLocks noChangeArrowheads="1"/>
-        </xdr:cNvSpPr>
-      </xdr:nvSpPr>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="3877468" y="2406160"/>
-          <a:ext cx="0" cy="518015"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:ln w="9525">
-          <a:noFill/>
-          <a:miter lim="800000"/>
-          <a:headEnd/>
-          <a:tailEnd/>
-        </a:ln>
-      </xdr:spPr>
-      <xdr:txBody>
-        <a:bodyPr vertOverflow="clip" wrap="square" lIns="27432" tIns="22860" rIns="0" bIns="0" anchor="t" upright="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr algn="l" rtl="0">
-            <a:defRPr sz="1000"/>
-          </a:pPr>
-          <a:r>
-            <a:rPr lang="es-CL" sz="1000" b="0" i="0" strike="noStrike">
-              <a:solidFill>
-                <a:srgbClr val="000000"/>
-              </a:solidFill>
-              <a:latin typeface="Arial"/>
-              <a:cs typeface="Arial"/>
-            </a:rPr>
-            <a:t>2</a:t>
-          </a:r>
-        </a:p>
-      </xdr:txBody>
-    </xdr:sp>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>436880</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>457200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>288429</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>230658</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="2" name="Imagen 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{646E7929-3AB7-4169-80A3-843F84FA633F}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr>
-        <a:xfrm>
-          <a:off x="436880" y="741680"/>
-          <a:ext cx="2086749" cy="789458"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
 <externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
@@ -12710,24 +9014,19 @@
     <tabColor rgb="FFFFFF00"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:BB48"/>
+  <dimension ref="A1:AJ48"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A31" zoomScale="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="AJ48" sqref="A2:AJ48"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" topLeftCell="A7" zoomScale="40" zoomScaleNormal="25" zoomScaleSheetLayoutView="40" zoomScalePageLayoutView="25" workbookViewId="0">
+      <selection activeCell="AN34" sqref="AN34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="36" width="6.44140625" style="4" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" style="4" customWidth="1"/>
-    <col min="38" max="40" width="3.6640625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="10.6640625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="10" style="4" customWidth="1"/>
-    <col min="43" max="54" width="3.6640625" style="4" customWidth="1"/>
-    <col min="55" max="16384" width="11.44140625" style="4"/>
+    <col min="37" max="16384" width="11.44140625" style="4"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:43" ht="22.5" customHeight="1" thickBot="1">
+    <row r="1" spans="1:36" ht="22.5" customHeight="1" thickBot="1">
       <c r="A1" s="1"/>
       <c r="B1" s="2"/>
       <c r="C1" s="2"/>
@@ -12765,201 +9064,201 @@
       <c r="AI1" s="2"/>
       <c r="AJ1" s="3"/>
     </row>
-    <row r="2" spans="1:43" ht="42" customHeight="1">
-      <c r="A2" s="142"/>
-      <c r="B2" s="143"/>
-      <c r="C2" s="143"/>
-      <c r="D2" s="143"/>
-      <c r="E2" s="143"/>
-      <c r="F2" s="143"/>
-      <c r="G2" s="143"/>
-      <c r="H2" s="148" t="s">
-        <v>49</v>
+    <row r="2" spans="1:36" ht="42" customHeight="1">
+      <c r="A2" s="124"/>
+      <c r="B2" s="125"/>
+      <c r="C2" s="125"/>
+      <c r="D2" s="125"/>
+      <c r="E2" s="125"/>
+      <c r="F2" s="125"/>
+      <c r="G2" s="125"/>
+      <c r="H2" s="130" t="s">
+        <v>47</v>
       </c>
-      <c r="I2" s="149"/>
-      <c r="J2" s="149"/>
-      <c r="K2" s="149"/>
-      <c r="L2" s="149"/>
-      <c r="M2" s="149"/>
-      <c r="N2" s="149"/>
-      <c r="O2" s="149"/>
-      <c r="P2" s="149"/>
-      <c r="Q2" s="149"/>
-      <c r="R2" s="149"/>
-      <c r="S2" s="149"/>
-      <c r="T2" s="149"/>
-      <c r="U2" s="149"/>
-      <c r="V2" s="149"/>
-      <c r="W2" s="149"/>
-      <c r="X2" s="149"/>
-      <c r="Y2" s="149"/>
-      <c r="Z2" s="149"/>
-      <c r="AA2" s="149"/>
-      <c r="AB2" s="149"/>
-      <c r="AC2" s="149"/>
-      <c r="AD2" s="150"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="156"/>
+      <c r="I2" s="131"/>
+      <c r="J2" s="131"/>
+      <c r="K2" s="131"/>
+      <c r="L2" s="131"/>
+      <c r="M2" s="131"/>
+      <c r="N2" s="131"/>
+      <c r="O2" s="131"/>
+      <c r="P2" s="131"/>
+      <c r="Q2" s="131"/>
+      <c r="R2" s="131"/>
+      <c r="S2" s="131"/>
+      <c r="T2" s="131"/>
+      <c r="U2" s="131"/>
+      <c r="V2" s="131"/>
+      <c r="W2" s="131"/>
+      <c r="X2" s="131"/>
+      <c r="Y2" s="131"/>
+      <c r="Z2" s="131"/>
+      <c r="AA2" s="131"/>
+      <c r="AB2" s="131"/>
+      <c r="AC2" s="131"/>
+      <c r="AD2" s="132"/>
+      <c r="AE2" s="136"/>
+      <c r="AF2" s="137"/>
+      <c r="AG2" s="137"/>
+      <c r="AH2" s="137"/>
+      <c r="AI2" s="137"/>
+      <c r="AJ2" s="138"/>
     </row>
-    <row r="3" spans="1:43" ht="36.75" customHeight="1">
-      <c r="A3" s="144"/>
-      <c r="B3" s="145"/>
-      <c r="C3" s="145"/>
-      <c r="D3" s="145"/>
-      <c r="E3" s="145"/>
-      <c r="F3" s="145"/>
-      <c r="G3" s="145"/>
-      <c r="H3" s="151"/>
-      <c r="I3" s="152"/>
-      <c r="J3" s="152"/>
-      <c r="K3" s="152"/>
-      <c r="L3" s="152"/>
-      <c r="M3" s="152"/>
-      <c r="N3" s="152"/>
-      <c r="O3" s="152"/>
-      <c r="P3" s="152"/>
-      <c r="Q3" s="152"/>
-      <c r="R3" s="152"/>
-      <c r="S3" s="152"/>
-      <c r="T3" s="152"/>
-      <c r="U3" s="152"/>
-      <c r="V3" s="152"/>
-      <c r="W3" s="152"/>
-      <c r="X3" s="152"/>
-      <c r="Y3" s="152"/>
-      <c r="Z3" s="152"/>
-      <c r="AA3" s="152"/>
-      <c r="AB3" s="152"/>
-      <c r="AC3" s="152"/>
-      <c r="AD3" s="153"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="159"/>
+    <row r="3" spans="1:36" ht="36.75" customHeight="1">
+      <c r="A3" s="126"/>
+      <c r="B3" s="127"/>
+      <c r="C3" s="127"/>
+      <c r="D3" s="127"/>
+      <c r="E3" s="127"/>
+      <c r="F3" s="127"/>
+      <c r="G3" s="127"/>
+      <c r="H3" s="133"/>
+      <c r="I3" s="134"/>
+      <c r="J3" s="134"/>
+      <c r="K3" s="134"/>
+      <c r="L3" s="134"/>
+      <c r="M3" s="134"/>
+      <c r="N3" s="134"/>
+      <c r="O3" s="134"/>
+      <c r="P3" s="134"/>
+      <c r="Q3" s="134"/>
+      <c r="R3" s="134"/>
+      <c r="S3" s="134"/>
+      <c r="T3" s="134"/>
+      <c r="U3" s="134"/>
+      <c r="V3" s="134"/>
+      <c r="W3" s="134"/>
+      <c r="X3" s="134"/>
+      <c r="Y3" s="134"/>
+      <c r="Z3" s="134"/>
+      <c r="AA3" s="134"/>
+      <c r="AB3" s="134"/>
+      <c r="AC3" s="134"/>
+      <c r="AD3" s="135"/>
+      <c r="AE3" s="139"/>
+      <c r="AF3" s="140"/>
+      <c r="AG3" s="140"/>
+      <c r="AH3" s="140"/>
+      <c r="AI3" s="140"/>
+      <c r="AJ3" s="141"/>
     </row>
-    <row r="4" spans="1:43" ht="21" customHeight="1">
-      <c r="A4" s="144"/>
-      <c r="B4" s="145"/>
-      <c r="C4" s="145"/>
-      <c r="D4" s="145"/>
-      <c r="E4" s="145"/>
-      <c r="F4" s="145"/>
-      <c r="G4" s="145"/>
-      <c r="H4" s="160" t="s">
+    <row r="4" spans="1:36" ht="21" customHeight="1">
+      <c r="A4" s="126"/>
+      <c r="B4" s="127"/>
+      <c r="C4" s="127"/>
+      <c r="D4" s="127"/>
+      <c r="E4" s="127"/>
+      <c r="F4" s="127"/>
+      <c r="G4" s="127"/>
+      <c r="H4" s="142" t="s">
         <v>10</v>
       </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="157"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="159"/>
+      <c r="I4" s="143"/>
+      <c r="J4" s="143"/>
+      <c r="K4" s="143"/>
+      <c r="L4" s="143"/>
+      <c r="M4" s="143"/>
+      <c r="N4" s="143"/>
+      <c r="O4" s="143"/>
+      <c r="P4" s="143"/>
+      <c r="Q4" s="143"/>
+      <c r="R4" s="143"/>
+      <c r="S4" s="143"/>
+      <c r="T4" s="143"/>
+      <c r="U4" s="143"/>
+      <c r="V4" s="143"/>
+      <c r="W4" s="143"/>
+      <c r="X4" s="143"/>
+      <c r="Y4" s="143"/>
+      <c r="Z4" s="143"/>
+      <c r="AA4" s="143"/>
+      <c r="AB4" s="143"/>
+      <c r="AC4" s="143"/>
+      <c r="AD4" s="144"/>
+      <c r="AE4" s="139"/>
+      <c r="AF4" s="140"/>
+      <c r="AG4" s="140"/>
+      <c r="AH4" s="140"/>
+      <c r="AI4" s="140"/>
+      <c r="AJ4" s="141"/>
     </row>
-    <row r="5" spans="1:43" ht="22.5" customHeight="1">
-      <c r="A5" s="144"/>
-      <c r="B5" s="145"/>
-      <c r="C5" s="145"/>
-      <c r="D5" s="145"/>
-      <c r="E5" s="145"/>
-      <c r="F5" s="145"/>
-      <c r="G5" s="145"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="157"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="159"/>
+    <row r="5" spans="1:36" ht="22.5" customHeight="1">
+      <c r="A5" s="126"/>
+      <c r="B5" s="127"/>
+      <c r="C5" s="127"/>
+      <c r="D5" s="127"/>
+      <c r="E5" s="127"/>
+      <c r="F5" s="127"/>
+      <c r="G5" s="127"/>
+      <c r="H5" s="145"/>
+      <c r="I5" s="146"/>
+      <c r="J5" s="146"/>
+      <c r="K5" s="146"/>
+      <c r="L5" s="146"/>
+      <c r="M5" s="146"/>
+      <c r="N5" s="146"/>
+      <c r="O5" s="146"/>
+      <c r="P5" s="146"/>
+      <c r="Q5" s="146"/>
+      <c r="R5" s="146"/>
+      <c r="S5" s="146"/>
+      <c r="T5" s="146"/>
+      <c r="U5" s="146"/>
+      <c r="V5" s="146"/>
+      <c r="W5" s="146"/>
+      <c r="X5" s="146"/>
+      <c r="Y5" s="146"/>
+      <c r="Z5" s="146"/>
+      <c r="AA5" s="146"/>
+      <c r="AB5" s="146"/>
+      <c r="AC5" s="146"/>
+      <c r="AD5" s="147"/>
+      <c r="AE5" s="139"/>
+      <c r="AF5" s="140"/>
+      <c r="AG5" s="140"/>
+      <c r="AH5" s="140"/>
+      <c r="AI5" s="140"/>
+      <c r="AJ5" s="141"/>
     </row>
-    <row r="6" spans="1:43" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="146"/>
-      <c r="B6" s="147"/>
-      <c r="C6" s="147"/>
-      <c r="D6" s="147"/>
-      <c r="E6" s="147"/>
-      <c r="F6" s="147"/>
-      <c r="G6" s="147"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="170"/>
-      <c r="AG6" s="170"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="172"/>
+    <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
+      <c r="A6" s="128"/>
+      <c r="B6" s="129"/>
+      <c r="C6" s="129"/>
+      <c r="D6" s="129"/>
+      <c r="E6" s="129"/>
+      <c r="F6" s="129"/>
+      <c r="G6" s="129"/>
+      <c r="H6" s="148"/>
+      <c r="I6" s="149"/>
+      <c r="J6" s="149"/>
+      <c r="K6" s="149"/>
+      <c r="L6" s="149"/>
+      <c r="M6" s="149"/>
+      <c r="N6" s="149"/>
+      <c r="O6" s="149"/>
+      <c r="P6" s="149"/>
+      <c r="Q6" s="149"/>
+      <c r="R6" s="149"/>
+      <c r="S6" s="149"/>
+      <c r="T6" s="149"/>
+      <c r="U6" s="149"/>
+      <c r="V6" s="149"/>
+      <c r="W6" s="149"/>
+      <c r="X6" s="149"/>
+      <c r="Y6" s="149"/>
+      <c r="Z6" s="149"/>
+      <c r="AA6" s="149"/>
+      <c r="AB6" s="149"/>
+      <c r="AC6" s="149"/>
+      <c r="AD6" s="150"/>
+      <c r="AE6" s="151"/>
+      <c r="AF6" s="152"/>
+      <c r="AG6" s="152"/>
+      <c r="AH6" s="153"/>
+      <c r="AI6" s="153"/>
+      <c r="AJ6" s="154"/>
     </row>
-    <row r="7" spans="1:43" ht="25.5" customHeight="1" thickBot="1">
+    <row r="7" spans="1:36" ht="25.5" customHeight="1" thickBot="1">
       <c r="A7" s="5"/>
       <c r="B7" s="6"/>
       <c r="C7" s="6"/>
@@ -12990,52 +9289,52 @@
       <c r="AB7" s="6"/>
       <c r="AC7" s="6"/>
       <c r="AD7" s="6"/>
-      <c r="AE7" s="183"/>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="184"/>
+      <c r="AE7" s="165"/>
+      <c r="AF7" s="165"/>
+      <c r="AG7" s="165"/>
+      <c r="AH7" s="165"/>
+      <c r="AI7" s="165"/>
+      <c r="AJ7" s="166"/>
     </row>
-    <row r="8" spans="1:43" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174"/>
-      <c r="U8" s="174"/>
-      <c r="V8" s="174"/>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="174"/>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174"/>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="175"/>
+    <row r="8" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
+      <c r="A8" s="155"/>
+      <c r="B8" s="156"/>
+      <c r="C8" s="156"/>
+      <c r="D8" s="156"/>
+      <c r="E8" s="156"/>
+      <c r="F8" s="156"/>
+      <c r="G8" s="156"/>
+      <c r="H8" s="156"/>
+      <c r="I8" s="156"/>
+      <c r="J8" s="156"/>
+      <c r="K8" s="156"/>
+      <c r="L8" s="156"/>
+      <c r="M8" s="156"/>
+      <c r="N8" s="156"/>
+      <c r="O8" s="156"/>
+      <c r="P8" s="156"/>
+      <c r="Q8" s="156"/>
+      <c r="R8" s="156"/>
+      <c r="S8" s="156"/>
+      <c r="T8" s="156"/>
+      <c r="U8" s="156"/>
+      <c r="V8" s="156"/>
+      <c r="W8" s="156"/>
+      <c r="X8" s="156"/>
+      <c r="Y8" s="156"/>
+      <c r="Z8" s="156"/>
+      <c r="AA8" s="156"/>
+      <c r="AB8" s="156"/>
+      <c r="AC8" s="156"/>
+      <c r="AD8" s="156"/>
+      <c r="AE8" s="156"/>
+      <c r="AF8" s="156"/>
+      <c r="AG8" s="156"/>
+      <c r="AH8" s="156"/>
+      <c r="AI8" s="156"/>
+      <c r="AJ8" s="157"/>
     </row>
-    <row r="9" spans="1:43" ht="35.25" customHeight="1">
+    <row r="9" spans="1:36" ht="35.25" customHeight="1">
       <c r="A9" s="1"/>
       <c r="B9" s="7" t="s">
         <v>11</v>
@@ -13075,36 +9374,36 @@
       <c r="AI9" s="2"/>
       <c r="AJ9" s="3"/>
     </row>
-    <row r="10" spans="1:43" ht="35.25" customHeight="1">
+    <row r="10" spans="1:36" ht="35.25" customHeight="1">
       <c r="A10" s="14"/>
-      <c r="B10" s="176" t="s">
+      <c r="B10" s="158" t="s">
         <v>12</v>
       </c>
-      <c r="C10" s="176"/>
-      <c r="D10" s="176"/>
-      <c r="E10" s="176"/>
-      <c r="I10" s="134" t="s">
-        <v>58</v>
+      <c r="C10" s="158"/>
+      <c r="D10" s="158"/>
+      <c r="E10" s="158"/>
+      <c r="I10" s="116" t="s">
+        <v>53</v>
       </c>
-      <c r="J10" s="134"/>
-      <c r="K10" s="134"/>
-      <c r="L10" s="134"/>
-      <c r="M10" s="134"/>
-      <c r="N10" s="134"/>
+      <c r="J10" s="116"/>
+      <c r="K10" s="116"/>
+      <c r="L10" s="116"/>
+      <c r="M10" s="116"/>
+      <c r="N10" s="116"/>
       <c r="R10" s="15" t="s">
         <v>13</v>
       </c>
       <c r="U10" s="15"/>
-      <c r="V10" s="177" t="s">
-        <v>48</v>
+      <c r="V10" s="159" t="s">
+        <v>46</v>
       </c>
-      <c r="W10" s="177"/>
-      <c r="X10" s="177"/>
-      <c r="Y10" s="177"/>
-      <c r="Z10" s="177"/>
-      <c r="AA10" s="177"/>
-      <c r="AB10" s="177"/>
-      <c r="AC10" s="177"/>
+      <c r="W10" s="159"/>
+      <c r="X10" s="159"/>
+      <c r="Y10" s="159"/>
+      <c r="Z10" s="159"/>
+      <c r="AA10" s="159"/>
+      <c r="AB10" s="159"/>
+      <c r="AC10" s="159"/>
       <c r="AD10" s="16"/>
       <c r="AE10" s="16"/>
       <c r="AF10" s="16"/>
@@ -13113,36 +9412,36 @@
       <c r="AI10" s="16"/>
       <c r="AJ10" s="17"/>
     </row>
-    <row r="11" spans="1:43" ht="35.25" customHeight="1">
+    <row r="11" spans="1:36" ht="35.25" customHeight="1">
       <c r="A11" s="14"/>
-      <c r="B11" s="176" t="s">
+      <c r="B11" s="158" t="s">
         <v>14</v>
       </c>
-      <c r="C11" s="176"/>
-      <c r="D11" s="176"/>
-      <c r="E11" s="176"/>
-      <c r="I11" s="122" t="s">
-        <v>59</v>
+      <c r="C11" s="158"/>
+      <c r="D11" s="158"/>
+      <c r="E11" s="158"/>
+      <c r="I11" s="104" t="s">
+        <v>54</v>
       </c>
-      <c r="J11" s="122"/>
-      <c r="K11" s="122"/>
-      <c r="L11" s="122"/>
-      <c r="M11" s="122"/>
-      <c r="N11" s="122"/>
+      <c r="J11" s="104"/>
+      <c r="K11" s="104"/>
+      <c r="L11" s="104"/>
+      <c r="M11" s="104"/>
+      <c r="N11" s="104"/>
       <c r="R11" s="15" t="s">
         <v>15</v>
       </c>
       <c r="S11" s="15"/>
       <c r="U11" s="18"/>
       <c r="V11" s="18"/>
-      <c r="W11" s="134">
+      <c r="W11" s="116">
         <v>0</v>
       </c>
-      <c r="X11" s="134"/>
-      <c r="Y11" s="134"/>
-      <c r="Z11" s="134"/>
-      <c r="AA11" s="134"/>
-      <c r="AB11" s="134"/>
+      <c r="X11" s="116"/>
+      <c r="Y11" s="116"/>
+      <c r="Z11" s="116"/>
+      <c r="AA11" s="116"/>
+      <c r="AB11" s="116"/>
       <c r="AC11" s="16"/>
       <c r="AD11" s="16"/>
       <c r="AE11" s="16"/>
@@ -13152,22 +9451,22 @@
       <c r="AI11" s="16"/>
       <c r="AJ11" s="17"/>
     </row>
-    <row r="12" spans="1:43" ht="35.25" customHeight="1">
+    <row r="12" spans="1:36" ht="35.25" customHeight="1">
       <c r="A12" s="14"/>
-      <c r="B12" s="176" t="s">
+      <c r="B12" s="158" t="s">
         <v>16</v>
       </c>
-      <c r="C12" s="176"/>
-      <c r="D12" s="176"/>
-      <c r="E12" s="176"/>
-      <c r="I12" s="122" t="s">
+      <c r="C12" s="158"/>
+      <c r="D12" s="158"/>
+      <c r="E12" s="158"/>
+      <c r="I12" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="122"/>
-      <c r="K12" s="122"/>
-      <c r="L12" s="122"/>
-      <c r="M12" s="122"/>
-      <c r="N12" s="122"/>
+      <c r="J12" s="104"/>
+      <c r="K12" s="104"/>
+      <c r="L12" s="104"/>
+      <c r="M12" s="104"/>
+      <c r="N12" s="104"/>
       <c r="O12" s="15"/>
       <c r="P12" s="15"/>
       <c r="Q12" s="15" t="s">
@@ -13176,12 +9475,12 @@
       <c r="S12" s="15"/>
       <c r="U12" s="18"/>
       <c r="V12" s="18"/>
-      <c r="W12" s="135"/>
-      <c r="X12" s="135"/>
-      <c r="Y12" s="135"/>
-      <c r="Z12" s="135"/>
-      <c r="AA12" s="135"/>
-      <c r="AB12" s="135"/>
+      <c r="W12" s="117"/>
+      <c r="X12" s="117"/>
+      <c r="Y12" s="117"/>
+      <c r="Z12" s="117"/>
+      <c r="AA12" s="117"/>
+      <c r="AB12" s="117"/>
       <c r="AC12" s="16"/>
       <c r="AD12" s="16"/>
       <c r="AE12" s="16"/>
@@ -13191,7 +9490,7 @@
       <c r="AI12" s="16"/>
       <c r="AJ12" s="17"/>
     </row>
-    <row r="13" spans="1:43" ht="35.25" customHeight="1">
+    <row r="13" spans="1:36" ht="35.25" customHeight="1">
       <c r="A13" s="14"/>
       <c r="B13" s="19" t="s">
         <v>18</v>
@@ -13199,17 +9498,17 @@
       <c r="C13" s="19"/>
       <c r="D13" s="19"/>
       <c r="E13" s="19"/>
-      <c r="G13" s="140"/>
-      <c r="H13" s="140"/>
-      <c r="I13" s="140"/>
-      <c r="J13" s="140"/>
-      <c r="K13" s="140"/>
-      <c r="L13" s="140"/>
-      <c r="M13" s="140"/>
-      <c r="N13" s="140"/>
-      <c r="O13" s="140"/>
-      <c r="P13" s="140"/>
-      <c r="Q13" s="140"/>
+      <c r="G13" s="122"/>
+      <c r="H13" s="122"/>
+      <c r="I13" s="122"/>
+      <c r="J13" s="122"/>
+      <c r="K13" s="122"/>
+      <c r="L13" s="122"/>
+      <c r="M13" s="122"/>
+      <c r="N13" s="122"/>
+      <c r="O13" s="122"/>
+      <c r="P13" s="122"/>
+      <c r="Q13" s="122"/>
       <c r="R13" s="19" t="s">
         <v>19</v>
       </c>
@@ -13217,12 +9516,12 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="W13" s="136"/>
-      <c r="X13" s="134"/>
-      <c r="Y13" s="134"/>
-      <c r="Z13" s="134"/>
-      <c r="AA13" s="134"/>
-      <c r="AB13" s="134"/>
+      <c r="W13" s="118"/>
+      <c r="X13" s="116"/>
+      <c r="Y13" s="116"/>
+      <c r="Z13" s="116"/>
+      <c r="AA13" s="116"/>
+      <c r="AB13" s="116"/>
       <c r="AC13" s="16"/>
       <c r="AD13" s="16"/>
       <c r="AE13" s="16"/>
@@ -13231,128 +9530,127 @@
       <c r="AH13" s="16"/>
       <c r="AI13" s="16"/>
       <c r="AJ13" s="17"/>
-      <c r="AQ13" s="20"/>
     </row>
-    <row r="14" spans="1:43" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A14" s="21"/>
-      <c r="B14" s="22"/>
-      <c r="C14" s="23"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="23"/>
-      <c r="K14" s="23"/>
-      <c r="L14" s="23"/>
-      <c r="M14" s="23"/>
-      <c r="N14" s="23"/>
-      <c r="O14" s="23"/>
-      <c r="P14" s="22"/>
-      <c r="Q14" s="22"/>
-      <c r="R14" s="24"/>
-      <c r="S14" s="24"/>
-      <c r="T14" s="23"/>
-      <c r="U14" s="23"/>
-      <c r="V14" s="23"/>
-      <c r="W14" s="23"/>
-      <c r="X14" s="23"/>
-      <c r="Y14" s="23"/>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="23"/>
-      <c r="AH14" s="23"/>
-      <c r="AI14" s="22"/>
-      <c r="AJ14" s="25"/>
+    <row r="14" spans="1:36" ht="35.25" customHeight="1" thickBot="1">
+      <c r="A14" s="20"/>
+      <c r="B14" s="21"/>
+      <c r="C14" s="22"/>
+      <c r="D14" s="22"/>
+      <c r="E14" s="22"/>
+      <c r="F14" s="22"/>
+      <c r="G14" s="22"/>
+      <c r="H14" s="22"/>
+      <c r="I14" s="22"/>
+      <c r="J14" s="22"/>
+      <c r="K14" s="22"/>
+      <c r="L14" s="22"/>
+      <c r="M14" s="22"/>
+      <c r="N14" s="22"/>
+      <c r="O14" s="22"/>
+      <c r="P14" s="21"/>
+      <c r="Q14" s="21"/>
+      <c r="R14" s="23"/>
+      <c r="S14" s="23"/>
+      <c r="T14" s="22"/>
+      <c r="U14" s="22"/>
+      <c r="V14" s="22"/>
+      <c r="W14" s="22"/>
+      <c r="X14" s="22"/>
+      <c r="Y14" s="22"/>
+      <c r="Z14" s="22"/>
+      <c r="AA14" s="22"/>
+      <c r="AB14" s="22"/>
+      <c r="AC14" s="22"/>
+      <c r="AD14" s="22"/>
+      <c r="AE14" s="22"/>
+      <c r="AF14" s="22"/>
+      <c r="AG14" s="22"/>
+      <c r="AH14" s="22"/>
+      <c r="AI14" s="21"/>
+      <c r="AJ14" s="24"/>
     </row>
-    <row r="15" spans="1:43" ht="35.25" customHeight="1">
-      <c r="A15" s="26"/>
+    <row r="15" spans="1:36" ht="35.25" customHeight="1">
+      <c r="A15" s="25"/>
       <c r="B15" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="C15" s="27"/>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27"/>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27"/>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
-      <c r="L15" s="27"/>
-      <c r="M15" s="27"/>
-      <c r="N15" s="27"/>
-      <c r="O15" s="28"/>
-      <c r="P15" s="28"/>
-      <c r="Q15" s="29"/>
-      <c r="R15" s="29"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27"/>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
-      <c r="W15" s="27"/>
-      <c r="X15" s="27"/>
-      <c r="Y15" s="27"/>
-      <c r="Z15" s="27"/>
-      <c r="AA15" s="27"/>
-      <c r="AB15" s="27"/>
-      <c r="AC15" s="27"/>
-      <c r="AD15" s="27"/>
-      <c r="AE15" s="27"/>
-      <c r="AF15" s="27"/>
-      <c r="AG15" s="27"/>
-      <c r="AH15" s="28"/>
-      <c r="AI15" s="28"/>
-      <c r="AJ15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="26"/>
+      <c r="J15" s="26"/>
+      <c r="K15" s="26"/>
+      <c r="L15" s="26"/>
+      <c r="M15" s="26"/>
+      <c r="N15" s="26"/>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="28"/>
+      <c r="R15" s="28"/>
+      <c r="S15" s="26"/>
+      <c r="T15" s="26"/>
+      <c r="U15" s="26"/>
+      <c r="V15" s="26"/>
+      <c r="W15" s="26"/>
+      <c r="X15" s="26"/>
+      <c r="Y15" s="26"/>
+      <c r="Z15" s="26"/>
+      <c r="AA15" s="26"/>
+      <c r="AB15" s="26"/>
+      <c r="AC15" s="26"/>
+      <c r="AD15" s="26"/>
+      <c r="AE15" s="26"/>
+      <c r="AF15" s="26"/>
+      <c r="AG15" s="26"/>
+      <c r="AH15" s="27"/>
+      <c r="AI15" s="27"/>
+      <c r="AJ15" s="29"/>
     </row>
-    <row r="16" spans="1:43" ht="35.25" customHeight="1">
+    <row r="16" spans="1:36" ht="35.25" customHeight="1">
       <c r="A16" s="14"/>
       <c r="B16" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="C16" s="31"/>
-      <c r="D16" s="31"/>
-      <c r="E16" s="31"/>
-      <c r="F16" s="31"/>
-      <c r="G16" s="31"/>
-      <c r="H16" s="31"/>
-      <c r="I16" s="31"/>
-      <c r="J16" s="31"/>
-      <c r="K16" s="31"/>
-      <c r="L16" s="31"/>
-      <c r="M16" s="31"/>
-      <c r="N16" s="31"/>
+      <c r="C16" s="30"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
+      <c r="L16" s="30"/>
+      <c r="M16" s="30"/>
+      <c r="N16" s="30"/>
       <c r="O16" s="16"/>
       <c r="P16" s="16"/>
-      <c r="Q16" s="32"/>
-      <c r="R16" s="32"/>
-      <c r="S16" s="31"/>
-      <c r="T16" s="31"/>
-      <c r="U16" s="31"/>
-      <c r="V16" s="31"/>
-      <c r="W16" s="31"/>
-      <c r="X16" s="31"/>
-      <c r="Y16" s="31"/>
-      <c r="Z16" s="31"/>
-      <c r="AA16" s="31"/>
-      <c r="AB16" s="31" t="s">
+      <c r="Q16" s="31"/>
+      <c r="R16" s="31"/>
+      <c r="S16" s="30"/>
+      <c r="T16" s="30"/>
+      <c r="U16" s="30"/>
+      <c r="V16" s="30"/>
+      <c r="W16" s="30"/>
+      <c r="X16" s="30"/>
+      <c r="Y16" s="30"/>
+      <c r="Z16" s="30"/>
+      <c r="AA16" s="30"/>
+      <c r="AB16" s="30" t="s">
         <v>22</v>
       </c>
-      <c r="AC16" s="31"/>
-      <c r="AD16" s="31"/>
-      <c r="AE16" s="31"/>
-      <c r="AF16" s="31" t="s">
+      <c r="AC16" s="30"/>
+      <c r="AD16" s="30"/>
+      <c r="AE16" s="30"/>
+      <c r="AF16" s="30" t="s">
         <v>23</v>
       </c>
-      <c r="AG16" s="31"/>
+      <c r="AG16" s="30"/>
       <c r="AH16" s="16"/>
-      <c r="AI16" s="31"/>
+      <c r="AI16" s="30"/>
       <c r="AJ16" s="17"/>
     </row>
     <row r="17" spans="1:36" ht="36" customHeight="1">
@@ -13360,79 +9658,79 @@
       <c r="B17" s="18" t="s">
         <v>24</v>
       </c>
-      <c r="C17" s="31"/>
-      <c r="D17" s="31"/>
-      <c r="E17" s="31"/>
-      <c r="F17" s="31"/>
-      <c r="G17" s="33"/>
-      <c r="H17" s="31"/>
-      <c r="I17" s="31"/>
+      <c r="C17" s="30"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
       <c r="J17" s="18" t="s">
         <v>25</v>
       </c>
-      <c r="K17" s="31"/>
-      <c r="L17" s="31"/>
-      <c r="M17" s="31"/>
-      <c r="O17" s="31"/>
-      <c r="P17" s="114"/>
-      <c r="R17" s="34" t="s">
+      <c r="K17" s="30"/>
+      <c r="L17" s="30"/>
+      <c r="M17" s="30"/>
+      <c r="O17" s="30"/>
+      <c r="P17" s="96"/>
+      <c r="R17" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="S17" s="32"/>
-      <c r="T17" s="31"/>
-      <c r="U17" s="31"/>
-      <c r="V17" s="31"/>
-      <c r="W17" s="33"/>
-      <c r="X17" s="31"/>
-      <c r="Y17" s="31"/>
-      <c r="Z17" s="31"/>
-      <c r="AA17" s="31"/>
-      <c r="AB17" s="31"/>
-      <c r="AC17" s="33"/>
-      <c r="AD17" s="31"/>
-      <c r="AE17" s="31"/>
-      <c r="AF17" s="40"/>
-      <c r="AG17" s="33"/>
-      <c r="AH17" s="115"/>
-      <c r="AI17" s="31"/>
+      <c r="S17" s="31"/>
+      <c r="T17" s="30"/>
+      <c r="U17" s="30"/>
+      <c r="V17" s="30"/>
+      <c r="W17" s="32"/>
+      <c r="X17" s="30"/>
+      <c r="Y17" s="30"/>
+      <c r="Z17" s="30"/>
+      <c r="AA17" s="30"/>
+      <c r="AB17" s="30"/>
+      <c r="AC17" s="32"/>
+      <c r="AD17" s="30"/>
+      <c r="AE17" s="30"/>
+      <c r="AF17" s="39"/>
+      <c r="AG17" s="32"/>
+      <c r="AH17" s="97"/>
+      <c r="AI17" s="30"/>
       <c r="AJ17" s="17"/>
     </row>
     <row r="18" spans="1:36" ht="50.25" customHeight="1">
       <c r="A18" s="14"/>
       <c r="B18" s="18" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
-      <c r="C18" s="31"/>
-      <c r="D18" s="31"/>
-      <c r="E18" s="31"/>
-      <c r="F18" s="31"/>
-      <c r="G18" s="35"/>
-      <c r="H18" s="35"/>
-      <c r="I18" s="35"/>
-      <c r="J18" s="35"/>
-      <c r="K18" s="35"/>
-      <c r="L18" s="35"/>
-      <c r="M18" s="35"/>
-      <c r="N18" s="35"/>
-      <c r="O18" s="36"/>
-      <c r="P18" s="36"/>
-      <c r="Q18" s="37"/>
-      <c r="R18" s="32"/>
-      <c r="S18" s="31"/>
-      <c r="T18" s="31"/>
-      <c r="U18" s="31"/>
-      <c r="V18" s="31"/>
-      <c r="W18" s="31"/>
-      <c r="X18" s="31"/>
-      <c r="Y18" s="31"/>
-      <c r="Z18" s="31"/>
-      <c r="AA18" s="31"/>
-      <c r="AB18" s="31"/>
-      <c r="AC18" s="31"/>
-      <c r="AD18" s="31"/>
-      <c r="AE18" s="31"/>
-      <c r="AF18" s="31"/>
-      <c r="AG18" s="31"/>
+      <c r="C18" s="30"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="34"/>
+      <c r="H18" s="34"/>
+      <c r="I18" s="34"/>
+      <c r="J18" s="34"/>
+      <c r="K18" s="34"/>
+      <c r="L18" s="34"/>
+      <c r="M18" s="34"/>
+      <c r="N18" s="34"/>
+      <c r="O18" s="35"/>
+      <c r="P18" s="35"/>
+      <c r="Q18" s="36"/>
+      <c r="R18" s="31"/>
+      <c r="S18" s="30"/>
+      <c r="T18" s="30"/>
+      <c r="U18" s="30"/>
+      <c r="V18" s="30"/>
+      <c r="W18" s="30"/>
+      <c r="X18" s="30"/>
+      <c r="Y18" s="30"/>
+      <c r="Z18" s="30"/>
+      <c r="AA18" s="30"/>
+      <c r="AB18" s="30"/>
+      <c r="AC18" s="30"/>
+      <c r="AD18" s="30"/>
+      <c r="AE18" s="30"/>
+      <c r="AF18" s="30"/>
+      <c r="AG18" s="30"/>
       <c r="AH18" s="16"/>
       <c r="AI18" s="16"/>
       <c r="AJ18" s="17"/>
@@ -13442,39 +9740,39 @@
       <c r="B19" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="C19" s="31"/>
-      <c r="D19" s="31"/>
-      <c r="E19" s="31"/>
-      <c r="F19" s="31"/>
-      <c r="G19" s="31"/>
-      <c r="H19" s="31"/>
-      <c r="I19" s="134"/>
-      <c r="J19" s="134"/>
-      <c r="K19" s="134"/>
-      <c r="L19" s="134"/>
-      <c r="M19" s="134"/>
-      <c r="N19" s="134"/>
+      <c r="C19" s="30"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="116"/>
+      <c r="J19" s="116"/>
+      <c r="K19" s="116"/>
+      <c r="L19" s="116"/>
+      <c r="M19" s="116"/>
+      <c r="N19" s="116"/>
       <c r="O19" s="16"/>
       <c r="P19" s="16"/>
-      <c r="Q19" s="32"/>
-      <c r="R19" s="132" t="s">
-        <v>46</v>
+      <c r="Q19" s="31"/>
+      <c r="R19" s="114" t="s">
+        <v>44</v>
       </c>
-      <c r="S19" s="132"/>
-      <c r="T19" s="132"/>
+      <c r="S19" s="114"/>
+      <c r="T19" s="114"/>
       <c r="U19" s="15"/>
-      <c r="W19" s="139"/>
-      <c r="X19" s="139"/>
-      <c r="Y19" s="139"/>
-      <c r="Z19" s="139"/>
-      <c r="AA19" s="139"/>
-      <c r="AB19" s="139"/>
-      <c r="AC19" s="139"/>
-      <c r="AD19" s="139"/>
-      <c r="AE19" s="139"/>
-      <c r="AF19" s="139"/>
-      <c r="AG19" s="139"/>
-      <c r="AH19" s="139"/>
+      <c r="W19" s="121"/>
+      <c r="X19" s="121"/>
+      <c r="Y19" s="121"/>
+      <c r="Z19" s="121"/>
+      <c r="AA19" s="121"/>
+      <c r="AB19" s="121"/>
+      <c r="AC19" s="121"/>
+      <c r="AD19" s="121"/>
+      <c r="AE19" s="121"/>
+      <c r="AF19" s="121"/>
+      <c r="AG19" s="121"/>
+      <c r="AH19" s="121"/>
       <c r="AJ19" s="17"/>
     </row>
     <row r="20" spans="1:36" ht="35.25" customHeight="1">
@@ -13482,40 +9780,40 @@
       <c r="B20" s="15" t="s">
         <v>28</v>
       </c>
-      <c r="C20" s="31"/>
-      <c r="D20" s="31"/>
-      <c r="E20" s="31"/>
-      <c r="F20" s="31"/>
-      <c r="G20" s="31"/>
-      <c r="H20" s="31"/>
-      <c r="I20" s="122"/>
-      <c r="J20" s="122"/>
-      <c r="K20" s="122"/>
-      <c r="L20" s="122"/>
-      <c r="M20" s="122"/>
-      <c r="N20" s="122"/>
+      <c r="C20" s="30"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="104"/>
+      <c r="J20" s="104"/>
+      <c r="K20" s="104"/>
+      <c r="L20" s="104"/>
+      <c r="M20" s="104"/>
+      <c r="N20" s="104"/>
       <c r="O20" s="16"/>
       <c r="P20" s="16"/>
       <c r="Q20" s="15"/>
-      <c r="R20" s="132" t="s">
-        <v>45</v>
+      <c r="R20" s="114" t="s">
+        <v>43</v>
       </c>
-      <c r="S20" s="132"/>
-      <c r="T20" s="132"/>
+      <c r="S20" s="114"/>
+      <c r="T20" s="114"/>
       <c r="U20" s="15"/>
-      <c r="W20" s="38"/>
-      <c r="X20" s="38"/>
-      <c r="Y20" s="38"/>
-      <c r="Z20" s="38"/>
-      <c r="AA20" s="38"/>
-      <c r="AB20" s="38"/>
-      <c r="AC20" s="38"/>
-      <c r="AD20" s="38"/>
-      <c r="AE20" s="38"/>
-      <c r="AF20" s="38"/>
-      <c r="AG20" s="38"/>
-      <c r="AH20" s="38"/>
-      <c r="AI20" s="31"/>
+      <c r="W20" s="37"/>
+      <c r="X20" s="37"/>
+      <c r="Y20" s="37"/>
+      <c r="Z20" s="37"/>
+      <c r="AA20" s="37"/>
+      <c r="AB20" s="37"/>
+      <c r="AC20" s="37"/>
+      <c r="AD20" s="37"/>
+      <c r="AE20" s="37"/>
+      <c r="AF20" s="37"/>
+      <c r="AG20" s="37"/>
+      <c r="AH20" s="37"/>
+      <c r="AI20" s="30"/>
       <c r="AJ20" s="17"/>
     </row>
     <row r="21" spans="1:36" ht="35.25" customHeight="1">
@@ -13523,40 +9821,40 @@
       <c r="B21" s="15" t="s">
         <v>30</v>
       </c>
-      <c r="C21" s="31"/>
-      <c r="D21" s="31"/>
-      <c r="E21" s="31"/>
-      <c r="F21" s="31"/>
-      <c r="G21" s="31"/>
-      <c r="H21" s="31"/>
-      <c r="I21" s="122"/>
-      <c r="J21" s="122"/>
-      <c r="K21" s="122"/>
-      <c r="L21" s="122"/>
-      <c r="M21" s="122"/>
-      <c r="N21" s="122"/>
+      <c r="C21" s="30"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="104"/>
+      <c r="J21" s="104"/>
+      <c r="K21" s="104"/>
+      <c r="L21" s="104"/>
+      <c r="M21" s="104"/>
+      <c r="N21" s="104"/>
       <c r="O21" s="16"/>
       <c r="P21" s="16"/>
-      <c r="Q21" s="32"/>
-      <c r="R21" s="132" t="s">
+      <c r="Q21" s="31"/>
+      <c r="R21" s="114" t="s">
         <v>29</v>
       </c>
-      <c r="S21" s="132"/>
-      <c r="T21" s="132"/>
+      <c r="S21" s="114"/>
+      <c r="T21" s="114"/>
       <c r="U21" s="15"/>
-      <c r="W21" s="39"/>
-      <c r="X21" s="39"/>
-      <c r="Y21" s="39"/>
-      <c r="Z21" s="39"/>
-      <c r="AA21" s="39"/>
-      <c r="AB21" s="39"/>
-      <c r="AC21" s="39"/>
-      <c r="AD21" s="39"/>
-      <c r="AE21" s="39"/>
-      <c r="AF21" s="39"/>
-      <c r="AG21" s="39"/>
-      <c r="AH21" s="39"/>
-      <c r="AI21" s="40"/>
+      <c r="W21" s="38"/>
+      <c r="X21" s="38"/>
+      <c r="Y21" s="38"/>
+      <c r="Z21" s="38"/>
+      <c r="AA21" s="38"/>
+      <c r="AB21" s="38"/>
+      <c r="AC21" s="38"/>
+      <c r="AD21" s="38"/>
+      <c r="AE21" s="38"/>
+      <c r="AF21" s="38"/>
+      <c r="AG21" s="38"/>
+      <c r="AH21" s="38"/>
+      <c r="AI21" s="39"/>
       <c r="AJ21" s="17"/>
     </row>
     <row r="22" spans="1:36" ht="35.25" customHeight="1">
@@ -13564,1080 +9862,1041 @@
       <c r="B22" s="15" t="s">
         <v>32</v>
       </c>
-      <c r="C22" s="31"/>
-      <c r="D22" s="31"/>
-      <c r="E22" s="31"/>
-      <c r="F22" s="31"/>
-      <c r="G22" s="31"/>
-      <c r="H22" s="31"/>
-      <c r="I22" s="122" t="s">
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="104" t="s">
         <v>8</v>
       </c>
-      <c r="J22" s="122"/>
-      <c r="K22" s="122"/>
-      <c r="L22" s="122"/>
-      <c r="M22" s="122"/>
-      <c r="N22" s="122"/>
+      <c r="J22" s="104"/>
+      <c r="K22" s="104"/>
+      <c r="L22" s="104"/>
+      <c r="M22" s="104"/>
+      <c r="N22" s="104"/>
       <c r="O22" s="16"/>
       <c r="P22" s="16"/>
-      <c r="Q22" s="32"/>
-      <c r="R22" s="132" t="s">
+      <c r="Q22" s="31"/>
+      <c r="R22" s="114" t="s">
         <v>31</v>
       </c>
-      <c r="S22" s="132"/>
-      <c r="T22" s="132"/>
+      <c r="S22" s="114"/>
+      <c r="T22" s="114"/>
       <c r="U22" s="15"/>
-      <c r="W22" s="39" t="s">
-        <v>60</v>
+      <c r="W22" s="38" t="s">
+        <v>55</v>
       </c>
-      <c r="X22" s="39"/>
-      <c r="Y22" s="39"/>
-      <c r="Z22" s="39"/>
-      <c r="AA22" s="39"/>
-      <c r="AB22" s="39"/>
-      <c r="AC22" s="39"/>
-      <c r="AD22" s="39"/>
-      <c r="AE22" s="39"/>
-      <c r="AF22" s="39"/>
-      <c r="AG22" s="39"/>
-      <c r="AH22" s="39"/>
-      <c r="AI22" s="31"/>
+      <c r="X22" s="38"/>
+      <c r="Y22" s="38"/>
+      <c r="Z22" s="38"/>
+      <c r="AA22" s="38"/>
+      <c r="AB22" s="38"/>
+      <c r="AC22" s="38"/>
+      <c r="AD22" s="38"/>
+      <c r="AE22" s="38"/>
+      <c r="AF22" s="38"/>
+      <c r="AG22" s="38"/>
+      <c r="AH22" s="38"/>
+      <c r="AI22" s="30"/>
       <c r="AJ22" s="17"/>
     </row>
     <row r="23" spans="1:36" ht="35.25" customHeight="1" thickBot="1">
-      <c r="A23" s="21"/>
-      <c r="B23" s="41"/>
-      <c r="C23" s="41"/>
-      <c r="D23" s="41"/>
-      <c r="E23" s="41"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="41"/>
-      <c r="L23" s="41"/>
-      <c r="M23" s="41"/>
-      <c r="N23" s="43"/>
-      <c r="O23" s="43"/>
-      <c r="P23" s="43"/>
-      <c r="Q23" s="44"/>
-      <c r="R23" s="45"/>
-      <c r="S23" s="45"/>
-      <c r="T23" s="45"/>
-      <c r="U23" s="45"/>
-      <c r="V23" s="44"/>
-      <c r="W23" s="23"/>
-      <c r="X23" s="23"/>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="23"/>
-      <c r="AG23" s="23"/>
-      <c r="AH23" s="23"/>
-      <c r="AI23" s="22"/>
-      <c r="AJ23" s="25"/>
+      <c r="A23" s="20"/>
+      <c r="B23" s="40"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="22"/>
+      <c r="G23" s="41"/>
+      <c r="H23" s="41"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="22"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40"/>
+      <c r="M23" s="40"/>
+      <c r="N23" s="42"/>
+      <c r="O23" s="42"/>
+      <c r="P23" s="42"/>
+      <c r="Q23" s="43"/>
+      <c r="R23" s="44"/>
+      <c r="S23" s="44"/>
+      <c r="T23" s="44"/>
+      <c r="U23" s="44"/>
+      <c r="V23" s="43"/>
+      <c r="W23" s="22"/>
+      <c r="X23" s="22"/>
+      <c r="Y23" s="22"/>
+      <c r="Z23" s="22"/>
+      <c r="AA23" s="22"/>
+      <c r="AB23" s="22"/>
+      <c r="AC23" s="22"/>
+      <c r="AD23" s="22"/>
+      <c r="AE23" s="22"/>
+      <c r="AF23" s="22"/>
+      <c r="AG23" s="22"/>
+      <c r="AH23" s="22"/>
+      <c r="AI23" s="21"/>
+      <c r="AJ23" s="24"/>
     </row>
     <row r="24" spans="1:36" ht="34.5" customHeight="1" thickBot="1">
       <c r="A24" s="14"/>
-      <c r="B24" s="31"/>
-      <c r="C24" s="31"/>
-      <c r="D24" s="31"/>
-      <c r="E24" s="31"/>
-      <c r="F24" s="31"/>
-      <c r="G24" s="46"/>
-      <c r="H24" s="46"/>
-      <c r="I24" s="31"/>
-      <c r="J24" s="31"/>
-      <c r="K24" s="31"/>
-      <c r="L24" s="31"/>
-      <c r="M24" s="31"/>
-      <c r="N24" s="31"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="31"/>
-      <c r="Q24" s="31"/>
-      <c r="R24" s="32"/>
-      <c r="S24" s="32"/>
-      <c r="T24" s="47"/>
-      <c r="U24" s="31"/>
-      <c r="V24" s="31"/>
-      <c r="W24" s="31"/>
-      <c r="X24" s="31"/>
-      <c r="Y24" s="48"/>
-      <c r="Z24" s="48"/>
-      <c r="AA24" s="31"/>
-      <c r="AB24" s="31"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="31"/>
-      <c r="AE24" s="31"/>
-      <c r="AF24" s="31"/>
-      <c r="AG24" s="31"/>
-      <c r="AH24" s="31"/>
-      <c r="AI24" s="31"/>
+      <c r="B24" s="30"/>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="45"/>
+      <c r="H24" s="45"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
+      <c r="L24" s="30"/>
+      <c r="M24" s="30"/>
+      <c r="N24" s="30"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="30"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
+      <c r="S24" s="31"/>
+      <c r="T24" s="46"/>
+      <c r="U24" s="30"/>
+      <c r="V24" s="30"/>
+      <c r="W24" s="30"/>
+      <c r="X24" s="30"/>
+      <c r="Y24" s="47"/>
+      <c r="Z24" s="47"/>
+      <c r="AA24" s="30"/>
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="30"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="30"/>
+      <c r="AG24" s="30"/>
+      <c r="AH24" s="30"/>
+      <c r="AI24" s="30"/>
       <c r="AJ24" s="17"/>
     </row>
     <row r="25" spans="1:36" ht="60" customHeight="1">
-      <c r="A25" s="49"/>
-      <c r="B25" s="117" t="s">
+      <c r="A25" s="48"/>
+      <c r="B25" s="99" t="s">
         <v>5</v>
       </c>
-      <c r="C25" s="118"/>
-      <c r="D25" s="118" t="s">
+      <c r="C25" s="100"/>
+      <c r="D25" s="100" t="s">
         <v>40</v>
       </c>
-      <c r="E25" s="118"/>
-      <c r="F25" s="118"/>
-      <c r="G25" s="118"/>
-      <c r="H25" s="118"/>
-      <c r="I25" s="118"/>
-      <c r="J25" s="118"/>
-      <c r="K25" s="118"/>
-      <c r="L25" s="118"/>
-      <c r="M25" s="118"/>
-      <c r="N25" s="118"/>
-      <c r="O25" s="118"/>
-      <c r="P25" s="118" t="s">
+      <c r="E25" s="100"/>
+      <c r="F25" s="100"/>
+      <c r="G25" s="100"/>
+      <c r="H25" s="100"/>
+      <c r="I25" s="100"/>
+      <c r="J25" s="100"/>
+      <c r="K25" s="100"/>
+      <c r="L25" s="100"/>
+      <c r="M25" s="100"/>
+      <c r="N25" s="100"/>
+      <c r="O25" s="100"/>
+      <c r="P25" s="100" t="s">
         <v>39</v>
       </c>
-      <c r="Q25" s="118"/>
-      <c r="R25" s="118"/>
-      <c r="S25" s="118"/>
-      <c r="T25" s="118"/>
-      <c r="U25" s="118"/>
-      <c r="V25" s="118" t="s">
+      <c r="Q25" s="100"/>
+      <c r="R25" s="100"/>
+      <c r="S25" s="100"/>
+      <c r="T25" s="100"/>
+      <c r="U25" s="100"/>
+      <c r="V25" s="100" t="s">
         <v>9</v>
       </c>
-      <c r="W25" s="118"/>
-      <c r="X25" s="118"/>
-      <c r="Y25" s="118"/>
-      <c r="Z25" s="118"/>
-      <c r="AA25" s="118"/>
-      <c r="AB25" s="118"/>
-      <c r="AC25" s="118"/>
-      <c r="AD25" s="118"/>
-      <c r="AE25" s="118"/>
-      <c r="AF25" s="118"/>
-      <c r="AG25" s="118"/>
-      <c r="AH25" s="118"/>
-      <c r="AI25" s="137"/>
-      <c r="AJ25" s="50"/>
+      <c r="W25" s="100"/>
+      <c r="X25" s="100"/>
+      <c r="Y25" s="100"/>
+      <c r="Z25" s="100"/>
+      <c r="AA25" s="100"/>
+      <c r="AB25" s="100"/>
+      <c r="AC25" s="100"/>
+      <c r="AD25" s="100"/>
+      <c r="AE25" s="100"/>
+      <c r="AF25" s="100"/>
+      <c r="AG25" s="100"/>
+      <c r="AH25" s="100"/>
+      <c r="AI25" s="119"/>
+      <c r="AJ25" s="49"/>
     </row>
     <row r="26" spans="1:36" ht="60" customHeight="1">
-      <c r="A26" s="49"/>
-      <c r="B26" s="119"/>
-      <c r="C26" s="120"/>
-      <c r="D26" s="120"/>
-      <c r="E26" s="120"/>
-      <c r="F26" s="120"/>
-      <c r="G26" s="120"/>
-      <c r="H26" s="120"/>
-      <c r="I26" s="120"/>
-      <c r="J26" s="120"/>
-      <c r="K26" s="120"/>
-      <c r="L26" s="120"/>
-      <c r="M26" s="120"/>
-      <c r="N26" s="120"/>
-      <c r="O26" s="120"/>
-      <c r="P26" s="121" t="s">
+      <c r="A26" s="48"/>
+      <c r="B26" s="101"/>
+      <c r="C26" s="102"/>
+      <c r="D26" s="102"/>
+      <c r="E26" s="102"/>
+      <c r="F26" s="102"/>
+      <c r="G26" s="102"/>
+      <c r="H26" s="102"/>
+      <c r="I26" s="102"/>
+      <c r="J26" s="102"/>
+      <c r="K26" s="102"/>
+      <c r="L26" s="102"/>
+      <c r="M26" s="102"/>
+      <c r="N26" s="102"/>
+      <c r="O26" s="102"/>
+      <c r="P26" s="103" t="s">
         <v>6</v>
       </c>
-      <c r="Q26" s="121"/>
-      <c r="R26" s="121" t="s">
+      <c r="Q26" s="103"/>
+      <c r="R26" s="103" t="s">
         <v>7</v>
       </c>
-      <c r="S26" s="121"/>
-      <c r="T26" s="121" t="s">
+      <c r="S26" s="103"/>
+      <c r="T26" s="103" t="s">
         <v>8</v>
       </c>
-      <c r="U26" s="121"/>
-      <c r="V26" s="120"/>
-      <c r="W26" s="120"/>
-      <c r="X26" s="120"/>
-      <c r="Y26" s="120"/>
-      <c r="Z26" s="120"/>
-      <c r="AA26" s="120"/>
-      <c r="AB26" s="120"/>
-      <c r="AC26" s="120"/>
-      <c r="AD26" s="120"/>
-      <c r="AE26" s="120"/>
-      <c r="AF26" s="120"/>
-      <c r="AG26" s="120"/>
-      <c r="AH26" s="120"/>
-      <c r="AI26" s="138"/>
-      <c r="AJ26" s="51"/>
+      <c r="U26" s="103"/>
+      <c r="V26" s="102"/>
+      <c r="W26" s="102"/>
+      <c r="X26" s="102"/>
+      <c r="Y26" s="102"/>
+      <c r="Z26" s="102"/>
+      <c r="AA26" s="102"/>
+      <c r="AB26" s="102"/>
+      <c r="AC26" s="102"/>
+      <c r="AD26" s="102"/>
+      <c r="AE26" s="102"/>
+      <c r="AF26" s="102"/>
+      <c r="AG26" s="102"/>
+      <c r="AH26" s="102"/>
+      <c r="AI26" s="120"/>
+      <c r="AJ26" s="50"/>
     </row>
     <row r="27" spans="1:36" ht="60" customHeight="1">
-      <c r="A27" s="52"/>
-      <c r="B27" s="130">
+      <c r="A27" s="51"/>
+      <c r="B27" s="112">
         <v>1</v>
       </c>
-      <c r="C27" s="131"/>
-      <c r="D27" s="129" t="s">
+      <c r="C27" s="113"/>
+      <c r="D27" s="111" t="s">
         <v>33</v>
       </c>
-      <c r="E27" s="129"/>
-      <c r="F27" s="129"/>
-      <c r="G27" s="129"/>
-      <c r="H27" s="129"/>
-      <c r="I27" s="129"/>
-      <c r="J27" s="129"/>
-      <c r="K27" s="129"/>
-      <c r="L27" s="129"/>
-      <c r="M27" s="129"/>
-      <c r="N27" s="129"/>
-      <c r="O27" s="129"/>
-      <c r="P27" s="121"/>
-      <c r="Q27" s="121"/>
-      <c r="R27" s="121"/>
-      <c r="S27" s="121"/>
-      <c r="T27" s="121"/>
-      <c r="U27" s="121"/>
-      <c r="V27" s="121"/>
-      <c r="W27" s="121"/>
-      <c r="X27" s="121"/>
-      <c r="Y27" s="121"/>
-      <c r="Z27" s="121"/>
-      <c r="AA27" s="121"/>
-      <c r="AB27" s="121"/>
-      <c r="AC27" s="121"/>
-      <c r="AD27" s="121"/>
-      <c r="AE27" s="121"/>
-      <c r="AF27" s="121"/>
-      <c r="AG27" s="121"/>
-      <c r="AH27" s="121"/>
-      <c r="AI27" s="141"/>
-      <c r="AJ27" s="51"/>
+      <c r="E27" s="111"/>
+      <c r="F27" s="111"/>
+      <c r="G27" s="111"/>
+      <c r="H27" s="111"/>
+      <c r="I27" s="111"/>
+      <c r="J27" s="111"/>
+      <c r="K27" s="111"/>
+      <c r="L27" s="111"/>
+      <c r="M27" s="111"/>
+      <c r="N27" s="111"/>
+      <c r="O27" s="111"/>
+      <c r="P27" s="103"/>
+      <c r="Q27" s="103"/>
+      <c r="R27" s="103"/>
+      <c r="S27" s="103"/>
+      <c r="T27" s="103"/>
+      <c r="U27" s="103"/>
+      <c r="V27" s="103"/>
+      <c r="W27" s="103"/>
+      <c r="X27" s="103"/>
+      <c r="Y27" s="103"/>
+      <c r="Z27" s="103"/>
+      <c r="AA27" s="103"/>
+      <c r="AB27" s="103"/>
+      <c r="AC27" s="103"/>
+      <c r="AD27" s="103"/>
+      <c r="AE27" s="103"/>
+      <c r="AF27" s="103"/>
+      <c r="AG27" s="103"/>
+      <c r="AH27" s="103"/>
+      <c r="AI27" s="123"/>
+      <c r="AJ27" s="50"/>
     </row>
     <row r="28" spans="1:36" ht="60" customHeight="1">
-      <c r="A28" s="52"/>
-      <c r="B28" s="130">
+      <c r="A28" s="51"/>
+      <c r="B28" s="112">
         <v>2</v>
       </c>
-      <c r="C28" s="131"/>
-      <c r="D28" s="129" t="s">
+      <c r="C28" s="113"/>
+      <c r="D28" s="111" t="s">
         <v>34</v>
       </c>
-      <c r="E28" s="129"/>
-      <c r="F28" s="129"/>
-      <c r="G28" s="129"/>
-      <c r="H28" s="129"/>
-      <c r="I28" s="129"/>
-      <c r="J28" s="129"/>
-      <c r="K28" s="129"/>
-      <c r="L28" s="129"/>
-      <c r="M28" s="129"/>
-      <c r="N28" s="129"/>
-      <c r="O28" s="129"/>
-      <c r="P28" s="121"/>
-      <c r="Q28" s="121"/>
-      <c r="R28" s="121"/>
-      <c r="S28" s="121"/>
-      <c r="T28" s="121"/>
-      <c r="U28" s="121"/>
-      <c r="V28" s="121"/>
-      <c r="W28" s="121"/>
-      <c r="X28" s="121"/>
-      <c r="Y28" s="121"/>
-      <c r="Z28" s="121"/>
-      <c r="AA28" s="121"/>
-      <c r="AB28" s="121"/>
-      <c r="AC28" s="121"/>
-      <c r="AD28" s="121"/>
-      <c r="AE28" s="121"/>
-      <c r="AF28" s="121"/>
-      <c r="AG28" s="121"/>
-      <c r="AH28" s="121"/>
-      <c r="AI28" s="141"/>
-      <c r="AJ28" s="51"/>
+      <c r="E28" s="111"/>
+      <c r="F28" s="111"/>
+      <c r="G28" s="111"/>
+      <c r="H28" s="111"/>
+      <c r="I28" s="111"/>
+      <c r="J28" s="111"/>
+      <c r="K28" s="111"/>
+      <c r="L28" s="111"/>
+      <c r="M28" s="111"/>
+      <c r="N28" s="111"/>
+      <c r="O28" s="111"/>
+      <c r="P28" s="103"/>
+      <c r="Q28" s="103"/>
+      <c r="R28" s="103"/>
+      <c r="S28" s="103"/>
+      <c r="T28" s="103"/>
+      <c r="U28" s="103"/>
+      <c r="V28" s="103"/>
+      <c r="W28" s="103"/>
+      <c r="X28" s="103"/>
+      <c r="Y28" s="103"/>
+      <c r="Z28" s="103"/>
+      <c r="AA28" s="103"/>
+      <c r="AB28" s="103"/>
+      <c r="AC28" s="103"/>
+      <c r="AD28" s="103"/>
+      <c r="AE28" s="103"/>
+      <c r="AF28" s="103"/>
+      <c r="AG28" s="103"/>
+      <c r="AH28" s="103"/>
+      <c r="AI28" s="123"/>
+      <c r="AJ28" s="50"/>
     </row>
     <row r="29" spans="1:36" ht="60" customHeight="1">
-      <c r="A29" s="52"/>
-      <c r="B29" s="130">
+      <c r="A29" s="51"/>
+      <c r="B29" s="112">
         <v>3</v>
       </c>
-      <c r="C29" s="131"/>
-      <c r="D29" s="129" t="s">
+      <c r="C29" s="113"/>
+      <c r="D29" s="111" t="s">
         <v>35</v>
       </c>
-      <c r="E29" s="129"/>
-      <c r="F29" s="129"/>
-      <c r="G29" s="129"/>
-      <c r="H29" s="129"/>
-      <c r="I29" s="129"/>
-      <c r="J29" s="129"/>
-      <c r="K29" s="129"/>
-      <c r="L29" s="129"/>
-      <c r="M29" s="129"/>
-      <c r="N29" s="129"/>
-      <c r="O29" s="129"/>
-      <c r="P29" s="121"/>
-      <c r="Q29" s="121"/>
-      <c r="R29" s="121"/>
-      <c r="S29" s="121"/>
-      <c r="T29" s="121"/>
-      <c r="U29" s="121"/>
-      <c r="V29" s="121"/>
-      <c r="W29" s="121"/>
-      <c r="X29" s="121"/>
-      <c r="Y29" s="121"/>
-      <c r="Z29" s="121"/>
-      <c r="AA29" s="121"/>
-      <c r="AB29" s="121"/>
-      <c r="AC29" s="121"/>
-      <c r="AD29" s="121"/>
-      <c r="AE29" s="121"/>
-      <c r="AF29" s="121"/>
-      <c r="AG29" s="121"/>
-      <c r="AH29" s="121"/>
-      <c r="AI29" s="141"/>
-      <c r="AJ29" s="51"/>
+      <c r="E29" s="111"/>
+      <c r="F29" s="111"/>
+      <c r="G29" s="111"/>
+      <c r="H29" s="111"/>
+      <c r="I29" s="111"/>
+      <c r="J29" s="111"/>
+      <c r="K29" s="111"/>
+      <c r="L29" s="111"/>
+      <c r="M29" s="111"/>
+      <c r="N29" s="111"/>
+      <c r="O29" s="111"/>
+      <c r="P29" s="103"/>
+      <c r="Q29" s="103"/>
+      <c r="R29" s="103"/>
+      <c r="S29" s="103"/>
+      <c r="T29" s="103"/>
+      <c r="U29" s="103"/>
+      <c r="V29" s="103"/>
+      <c r="W29" s="103"/>
+      <c r="X29" s="103"/>
+      <c r="Y29" s="103"/>
+      <c r="Z29" s="103"/>
+      <c r="AA29" s="103"/>
+      <c r="AB29" s="103"/>
+      <c r="AC29" s="103"/>
+      <c r="AD29" s="103"/>
+      <c r="AE29" s="103"/>
+      <c r="AF29" s="103"/>
+      <c r="AG29" s="103"/>
+      <c r="AH29" s="103"/>
+      <c r="AI29" s="123"/>
+      <c r="AJ29" s="50"/>
     </row>
     <row r="30" spans="1:36" ht="60" customHeight="1">
-      <c r="A30" s="52"/>
-      <c r="B30" s="130">
+      <c r="A30" s="51"/>
+      <c r="B30" s="112">
         <v>4</v>
       </c>
-      <c r="C30" s="131"/>
-      <c r="D30" s="129" t="s">
-        <v>44</v>
+      <c r="C30" s="113"/>
+      <c r="D30" s="111" t="s">
+        <v>42</v>
       </c>
-      <c r="E30" s="129"/>
-      <c r="F30" s="129"/>
-      <c r="G30" s="129"/>
-      <c r="H30" s="129"/>
-      <c r="I30" s="129"/>
-      <c r="J30" s="129"/>
-      <c r="K30" s="129"/>
-      <c r="L30" s="129"/>
-      <c r="M30" s="129"/>
-      <c r="N30" s="129"/>
-      <c r="O30" s="129"/>
-      <c r="P30" s="121"/>
-      <c r="Q30" s="121"/>
-      <c r="R30" s="121"/>
-      <c r="S30" s="121"/>
-      <c r="T30" s="121"/>
-      <c r="U30" s="121"/>
-      <c r="V30" s="121"/>
-      <c r="W30" s="121"/>
-      <c r="X30" s="121"/>
-      <c r="Y30" s="121"/>
-      <c r="Z30" s="121"/>
-      <c r="AA30" s="121"/>
-      <c r="AB30" s="121"/>
-      <c r="AC30" s="121"/>
-      <c r="AD30" s="121"/>
-      <c r="AE30" s="121"/>
-      <c r="AF30" s="121"/>
-      <c r="AG30" s="121"/>
-      <c r="AH30" s="121"/>
-      <c r="AI30" s="141"/>
-      <c r="AJ30" s="51"/>
+      <c r="E30" s="111"/>
+      <c r="F30" s="111"/>
+      <c r="G30" s="111"/>
+      <c r="H30" s="111"/>
+      <c r="I30" s="111"/>
+      <c r="J30" s="111"/>
+      <c r="K30" s="111"/>
+      <c r="L30" s="111"/>
+      <c r="M30" s="111"/>
+      <c r="N30" s="111"/>
+      <c r="O30" s="111"/>
+      <c r="P30" s="103"/>
+      <c r="Q30" s="103"/>
+      <c r="R30" s="103"/>
+      <c r="S30" s="103"/>
+      <c r="T30" s="103"/>
+      <c r="U30" s="103"/>
+      <c r="V30" s="103"/>
+      <c r="W30" s="103"/>
+      <c r="X30" s="103"/>
+      <c r="Y30" s="103"/>
+      <c r="Z30" s="103"/>
+      <c r="AA30" s="103"/>
+      <c r="AB30" s="103"/>
+      <c r="AC30" s="103"/>
+      <c r="AD30" s="103"/>
+      <c r="AE30" s="103"/>
+      <c r="AF30" s="103"/>
+      <c r="AG30" s="103"/>
+      <c r="AH30" s="103"/>
+      <c r="AI30" s="123"/>
+      <c r="AJ30" s="50"/>
     </row>
     <row r="31" spans="1:36" ht="60" customHeight="1">
-      <c r="A31" s="52"/>
-      <c r="B31" s="130">
+      <c r="A31" s="51"/>
+      <c r="B31" s="112">
         <v>5</v>
       </c>
-      <c r="C31" s="131"/>
-      <c r="D31" s="129" t="s">
+      <c r="C31" s="113"/>
+      <c r="D31" s="111" t="s">
         <v>36</v>
       </c>
-      <c r="E31" s="129"/>
-      <c r="F31" s="129"/>
-      <c r="G31" s="129"/>
-      <c r="H31" s="129"/>
-      <c r="I31" s="129"/>
-      <c r="J31" s="129"/>
-      <c r="K31" s="129"/>
-      <c r="L31" s="129"/>
-      <c r="M31" s="129"/>
-      <c r="N31" s="129"/>
-      <c r="O31" s="129"/>
-      <c r="P31" s="121"/>
-      <c r="Q31" s="121"/>
-      <c r="R31" s="121"/>
-      <c r="S31" s="121"/>
-      <c r="T31" s="121"/>
-      <c r="U31" s="121"/>
-      <c r="V31" s="121"/>
-      <c r="W31" s="121"/>
-      <c r="X31" s="121"/>
-      <c r="Y31" s="121"/>
-      <c r="Z31" s="121"/>
-      <c r="AA31" s="121"/>
-      <c r="AB31" s="121"/>
-      <c r="AC31" s="121"/>
-      <c r="AD31" s="121"/>
-      <c r="AE31" s="121"/>
-      <c r="AF31" s="121"/>
-      <c r="AG31" s="121"/>
-      <c r="AH31" s="121"/>
-      <c r="AI31" s="141"/>
-      <c r="AJ31" s="51"/>
+      <c r="E31" s="111"/>
+      <c r="F31" s="111"/>
+      <c r="G31" s="111"/>
+      <c r="H31" s="111"/>
+      <c r="I31" s="111"/>
+      <c r="J31" s="111"/>
+      <c r="K31" s="111"/>
+      <c r="L31" s="111"/>
+      <c r="M31" s="111"/>
+      <c r="N31" s="111"/>
+      <c r="O31" s="111"/>
+      <c r="P31" s="103"/>
+      <c r="Q31" s="103"/>
+      <c r="R31" s="103"/>
+      <c r="S31" s="103"/>
+      <c r="T31" s="103"/>
+      <c r="U31" s="103"/>
+      <c r="V31" s="103"/>
+      <c r="W31" s="103"/>
+      <c r="X31" s="103"/>
+      <c r="Y31" s="103"/>
+      <c r="Z31" s="103"/>
+      <c r="AA31" s="103"/>
+      <c r="AB31" s="103"/>
+      <c r="AC31" s="103"/>
+      <c r="AD31" s="103"/>
+      <c r="AE31" s="103"/>
+      <c r="AF31" s="103"/>
+      <c r="AG31" s="103"/>
+      <c r="AH31" s="103"/>
+      <c r="AI31" s="123"/>
+      <c r="AJ31" s="50"/>
     </row>
     <row r="32" spans="1:36" ht="60" customHeight="1">
-      <c r="A32" s="52"/>
-      <c r="B32" s="130">
+      <c r="A32" s="51"/>
+      <c r="B32" s="112">
         <v>6</v>
       </c>
-      <c r="C32" s="131"/>
-      <c r="D32" s="129" t="s">
-        <v>43</v>
+      <c r="C32" s="113"/>
+      <c r="D32" s="111" t="s">
+        <v>41</v>
       </c>
-      <c r="E32" s="129"/>
-      <c r="F32" s="129"/>
-      <c r="G32" s="129"/>
-      <c r="H32" s="129"/>
-      <c r="I32" s="129"/>
-      <c r="J32" s="129"/>
-      <c r="K32" s="129"/>
-      <c r="L32" s="129"/>
-      <c r="M32" s="129"/>
-      <c r="N32" s="129"/>
-      <c r="O32" s="129"/>
-      <c r="P32" s="121"/>
-      <c r="Q32" s="121"/>
-      <c r="R32" s="121"/>
-      <c r="S32" s="121"/>
-      <c r="T32" s="121"/>
-      <c r="U32" s="121"/>
-      <c r="V32" s="121"/>
-      <c r="W32" s="121"/>
-      <c r="X32" s="121"/>
-      <c r="Y32" s="121"/>
-      <c r="Z32" s="121"/>
-      <c r="AA32" s="121"/>
-      <c r="AB32" s="121"/>
-      <c r="AC32" s="121"/>
-      <c r="AD32" s="121"/>
-      <c r="AE32" s="121"/>
-      <c r="AF32" s="121"/>
-      <c r="AG32" s="121"/>
-      <c r="AH32" s="121"/>
-      <c r="AI32" s="141"/>
-      <c r="AJ32" s="51"/>
+      <c r="E32" s="111"/>
+      <c r="F32" s="111"/>
+      <c r="G32" s="111"/>
+      <c r="H32" s="111"/>
+      <c r="I32" s="111"/>
+      <c r="J32" s="111"/>
+      <c r="K32" s="111"/>
+      <c r="L32" s="111"/>
+      <c r="M32" s="111"/>
+      <c r="N32" s="111"/>
+      <c r="O32" s="111"/>
+      <c r="P32" s="103"/>
+      <c r="Q32" s="103"/>
+      <c r="R32" s="103"/>
+      <c r="S32" s="103"/>
+      <c r="T32" s="103"/>
+      <c r="U32" s="103"/>
+      <c r="V32" s="103"/>
+      <c r="W32" s="103"/>
+      <c r="X32" s="103"/>
+      <c r="Y32" s="103"/>
+      <c r="Z32" s="103"/>
+      <c r="AA32" s="103"/>
+      <c r="AB32" s="103"/>
+      <c r="AC32" s="103"/>
+      <c r="AD32" s="103"/>
+      <c r="AE32" s="103"/>
+      <c r="AF32" s="103"/>
+      <c r="AG32" s="103"/>
+      <c r="AH32" s="103"/>
+      <c r="AI32" s="123"/>
+      <c r="AJ32" s="50"/>
     </row>
-    <row r="33" spans="1:54" ht="60" customHeight="1">
-      <c r="A33" s="52"/>
-      <c r="B33" s="130">
+    <row r="33" spans="1:36" ht="60" customHeight="1">
+      <c r="A33" s="51"/>
+      <c r="B33" s="112">
         <v>7</v>
       </c>
-      <c r="C33" s="131"/>
-      <c r="D33" s="129" t="s">
+      <c r="C33" s="113"/>
+      <c r="D33" s="111" t="s">
         <v>37</v>
       </c>
-      <c r="E33" s="129"/>
-      <c r="F33" s="129"/>
-      <c r="G33" s="129"/>
-      <c r="H33" s="129"/>
-      <c r="I33" s="129"/>
-      <c r="J33" s="129"/>
-      <c r="K33" s="129"/>
-      <c r="L33" s="129"/>
-      <c r="M33" s="129"/>
-      <c r="N33" s="129"/>
-      <c r="O33" s="129"/>
-      <c r="P33" s="121"/>
-      <c r="Q33" s="121"/>
-      <c r="R33" s="121"/>
-      <c r="S33" s="121"/>
-      <c r="T33" s="121"/>
-      <c r="U33" s="121"/>
-      <c r="V33" s="121"/>
-      <c r="W33" s="121"/>
-      <c r="X33" s="121"/>
-      <c r="Y33" s="121"/>
-      <c r="Z33" s="121"/>
-      <c r="AA33" s="121"/>
-      <c r="AB33" s="121"/>
-      <c r="AC33" s="121"/>
-      <c r="AD33" s="121"/>
-      <c r="AE33" s="121"/>
-      <c r="AF33" s="121"/>
-      <c r="AG33" s="121"/>
-      <c r="AH33" s="121"/>
-      <c r="AI33" s="141"/>
-      <c r="AJ33" s="51"/>
+      <c r="E33" s="111"/>
+      <c r="F33" s="111"/>
+      <c r="G33" s="111"/>
+      <c r="H33" s="111"/>
+      <c r="I33" s="111"/>
+      <c r="J33" s="111"/>
+      <c r="K33" s="111"/>
+      <c r="L33" s="111"/>
+      <c r="M33" s="111"/>
+      <c r="N33" s="111"/>
+      <c r="O33" s="111"/>
+      <c r="P33" s="103"/>
+      <c r="Q33" s="103"/>
+      <c r="R33" s="103"/>
+      <c r="S33" s="103"/>
+      <c r="T33" s="103"/>
+      <c r="U33" s="103"/>
+      <c r="V33" s="103"/>
+      <c r="W33" s="103"/>
+      <c r="X33" s="103"/>
+      <c r="Y33" s="103"/>
+      <c r="Z33" s="103"/>
+      <c r="AA33" s="103"/>
+      <c r="AB33" s="103"/>
+      <c r="AC33" s="103"/>
+      <c r="AD33" s="103"/>
+      <c r="AE33" s="103"/>
+      <c r="AF33" s="103"/>
+      <c r="AG33" s="103"/>
+      <c r="AH33" s="103"/>
+      <c r="AI33" s="123"/>
+      <c r="AJ33" s="50"/>
     </row>
-    <row r="34" spans="1:54" ht="60" customHeight="1">
-      <c r="A34" s="52"/>
-      <c r="B34" s="130">
+    <row r="34" spans="1:36" ht="60" customHeight="1">
+      <c r="A34" s="51"/>
+      <c r="B34" s="112">
         <v>8</v>
       </c>
-      <c r="C34" s="131"/>
-      <c r="D34" s="129" t="s">
+      <c r="C34" s="113"/>
+      <c r="D34" s="111" t="s">
         <v>38</v>
       </c>
-      <c r="E34" s="129"/>
-      <c r="F34" s="129"/>
-      <c r="G34" s="129"/>
-      <c r="H34" s="129"/>
-      <c r="I34" s="129"/>
-      <c r="J34" s="129"/>
-      <c r="K34" s="129"/>
-      <c r="L34" s="129"/>
-      <c r="M34" s="129"/>
-      <c r="N34" s="129"/>
-      <c r="O34" s="129"/>
-      <c r="P34" s="121"/>
-      <c r="Q34" s="121"/>
-      <c r="R34" s="121"/>
-      <c r="S34" s="121"/>
-      <c r="T34" s="121"/>
-      <c r="U34" s="121"/>
-      <c r="V34" s="121"/>
-      <c r="W34" s="121"/>
-      <c r="X34" s="121"/>
-      <c r="Y34" s="121"/>
-      <c r="Z34" s="121"/>
-      <c r="AA34" s="121"/>
-      <c r="AB34" s="121"/>
-      <c r="AC34" s="121"/>
-      <c r="AD34" s="121"/>
-      <c r="AE34" s="121"/>
-      <c r="AF34" s="121"/>
-      <c r="AG34" s="121"/>
-      <c r="AH34" s="121"/>
-      <c r="AI34" s="141"/>
-      <c r="AJ34" s="51"/>
+      <c r="E34" s="111"/>
+      <c r="F34" s="111"/>
+      <c r="G34" s="111"/>
+      <c r="H34" s="111"/>
+      <c r="I34" s="111"/>
+      <c r="J34" s="111"/>
+      <c r="K34" s="111"/>
+      <c r="L34" s="111"/>
+      <c r="M34" s="111"/>
+      <c r="N34" s="111"/>
+      <c r="O34" s="111"/>
+      <c r="P34" s="103"/>
+      <c r="Q34" s="103"/>
+      <c r="R34" s="103"/>
+      <c r="S34" s="103"/>
+      <c r="T34" s="103"/>
+      <c r="U34" s="103"/>
+      <c r="V34" s="103"/>
+      <c r="W34" s="103"/>
+      <c r="X34" s="103"/>
+      <c r="Y34" s="103"/>
+      <c r="Z34" s="103"/>
+      <c r="AA34" s="103"/>
+      <c r="AB34" s="103"/>
+      <c r="AC34" s="103"/>
+      <c r="AD34" s="103"/>
+      <c r="AE34" s="103"/>
+      <c r="AF34" s="103"/>
+      <c r="AG34" s="103"/>
+      <c r="AH34" s="103"/>
+      <c r="AI34" s="123"/>
+      <c r="AJ34" s="50"/>
     </row>
-    <row r="35" spans="1:54" ht="60" customHeight="1">
-      <c r="A35" s="52"/>
-      <c r="B35" s="133">
+    <row r="35" spans="1:36" ht="60" customHeight="1">
+      <c r="A35" s="51"/>
+      <c r="B35" s="115">
         <v>9</v>
       </c>
-      <c r="C35" s="125"/>
-      <c r="D35" s="129" t="s">
-        <v>56</v>
+      <c r="C35" s="107"/>
+      <c r="D35" s="111" t="s">
+        <v>51</v>
       </c>
-      <c r="E35" s="129"/>
-      <c r="F35" s="129"/>
-      <c r="G35" s="129"/>
-      <c r="H35" s="129"/>
-      <c r="I35" s="129"/>
-      <c r="J35" s="129"/>
-      <c r="K35" s="129"/>
-      <c r="L35" s="129"/>
-      <c r="M35" s="129"/>
-      <c r="N35" s="129"/>
-      <c r="O35" s="129"/>
-      <c r="P35" s="121"/>
-      <c r="Q35" s="121"/>
-      <c r="R35" s="121"/>
-      <c r="S35" s="121"/>
-      <c r="T35" s="121"/>
-      <c r="U35" s="121"/>
-      <c r="V35" s="121"/>
-      <c r="W35" s="121"/>
-      <c r="X35" s="121"/>
-      <c r="Y35" s="121"/>
-      <c r="Z35" s="121"/>
-      <c r="AA35" s="121"/>
-      <c r="AB35" s="121"/>
-      <c r="AC35" s="121"/>
-      <c r="AD35" s="121"/>
-      <c r="AE35" s="121"/>
-      <c r="AF35" s="121"/>
-      <c r="AG35" s="121"/>
-      <c r="AH35" s="121"/>
-      <c r="AI35" s="141"/>
-      <c r="AJ35" s="51"/>
+      <c r="E35" s="111"/>
+      <c r="F35" s="111"/>
+      <c r="G35" s="111"/>
+      <c r="H35" s="111"/>
+      <c r="I35" s="111"/>
+      <c r="J35" s="111"/>
+      <c r="K35" s="111"/>
+      <c r="L35" s="111"/>
+      <c r="M35" s="111"/>
+      <c r="N35" s="111"/>
+      <c r="O35" s="111"/>
+      <c r="P35" s="103"/>
+      <c r="Q35" s="103"/>
+      <c r="R35" s="103"/>
+      <c r="S35" s="103"/>
+      <c r="T35" s="103"/>
+      <c r="U35" s="103"/>
+      <c r="V35" s="103"/>
+      <c r="W35" s="103"/>
+      <c r="X35" s="103"/>
+      <c r="Y35" s="103"/>
+      <c r="Z35" s="103"/>
+      <c r="AA35" s="103"/>
+      <c r="AB35" s="103"/>
+      <c r="AC35" s="103"/>
+      <c r="AD35" s="103"/>
+      <c r="AE35" s="103"/>
+      <c r="AF35" s="103"/>
+      <c r="AG35" s="103"/>
+      <c r="AH35" s="103"/>
+      <c r="AI35" s="123"/>
+      <c r="AJ35" s="50"/>
     </row>
-    <row r="36" spans="1:54" ht="6.75" customHeight="1" thickBot="1">
-      <c r="A36" s="49"/>
-      <c r="B36" s="53"/>
-      <c r="C36" s="54"/>
-      <c r="D36" s="54"/>
-      <c r="E36" s="55"/>
-      <c r="F36" s="55"/>
-      <c r="G36" s="55"/>
-      <c r="H36" s="55"/>
-      <c r="I36" s="55"/>
-      <c r="J36" s="55"/>
-      <c r="K36" s="55"/>
-      <c r="L36" s="55"/>
-      <c r="M36" s="23"/>
-      <c r="N36" s="56"/>
-      <c r="O36" s="23"/>
-      <c r="P36" s="23"/>
-      <c r="Q36" s="23"/>
-      <c r="R36" s="57"/>
-      <c r="S36" s="23"/>
-      <c r="T36" s="23"/>
-      <c r="U36" s="23"/>
-      <c r="V36" s="23"/>
-      <c r="W36" s="23"/>
-      <c r="X36" s="23"/>
-      <c r="Y36" s="23"/>
-      <c r="Z36" s="23"/>
-      <c r="AA36" s="23"/>
-      <c r="AB36" s="23"/>
-      <c r="AC36" s="23"/>
-      <c r="AD36" s="23"/>
-      <c r="AE36" s="23"/>
-      <c r="AF36" s="23"/>
-      <c r="AG36" s="23"/>
-      <c r="AH36" s="23"/>
-      <c r="AI36" s="58"/>
-      <c r="AJ36" s="51"/>
+    <row r="36" spans="1:36" ht="6.75" customHeight="1" thickBot="1">
+      <c r="A36" s="48"/>
+      <c r="B36" s="52"/>
+      <c r="C36" s="53"/>
+      <c r="D36" s="53"/>
+      <c r="E36" s="54"/>
+      <c r="F36" s="54"/>
+      <c r="G36" s="54"/>
+      <c r="H36" s="54"/>
+      <c r="I36" s="54"/>
+      <c r="J36" s="54"/>
+      <c r="K36" s="54"/>
+      <c r="L36" s="54"/>
+      <c r="M36" s="22"/>
+      <c r="N36" s="55"/>
+      <c r="O36" s="22"/>
+      <c r="P36" s="22"/>
+      <c r="Q36" s="22"/>
+      <c r="R36" s="56"/>
+      <c r="S36" s="22"/>
+      <c r="T36" s="22"/>
+      <c r="U36" s="22"/>
+      <c r="V36" s="22"/>
+      <c r="W36" s="22"/>
+      <c r="X36" s="22"/>
+      <c r="Y36" s="22"/>
+      <c r="Z36" s="22"/>
+      <c r="AA36" s="22"/>
+      <c r="AB36" s="22"/>
+      <c r="AC36" s="22"/>
+      <c r="AD36" s="22"/>
+      <c r="AE36" s="22"/>
+      <c r="AF36" s="22"/>
+      <c r="AG36" s="22"/>
+      <c r="AH36" s="22"/>
+      <c r="AI36" s="57"/>
+      <c r="AJ36" s="50"/>
     </row>
-    <row r="37" spans="1:54" ht="27" customHeight="1">
-      <c r="A37" s="49"/>
-      <c r="B37" s="59"/>
-      <c r="C37" s="59"/>
-      <c r="D37" s="59"/>
-      <c r="E37" s="60"/>
-      <c r="F37" s="60"/>
-      <c r="G37" s="60"/>
-      <c r="H37" s="60"/>
-      <c r="I37" s="60"/>
-      <c r="J37" s="60"/>
-      <c r="K37" s="60"/>
-      <c r="L37" s="60"/>
-      <c r="N37" s="61"/>
+    <row r="37" spans="1:36" ht="27" customHeight="1">
+      <c r="A37" s="48"/>
+      <c r="B37" s="58"/>
+      <c r="C37" s="58"/>
+      <c r="D37" s="58"/>
+      <c r="E37" s="59"/>
+      <c r="F37" s="59"/>
+      <c r="G37" s="59"/>
+      <c r="H37" s="59"/>
+      <c r="I37" s="59"/>
+      <c r="J37" s="59"/>
+      <c r="K37" s="59"/>
+      <c r="L37" s="59"/>
+      <c r="N37" s="60"/>
       <c r="Q37" s="16"/>
-      <c r="R37" s="62"/>
-      <c r="AJ37" s="51"/>
+      <c r="R37" s="61"/>
+      <c r="AJ37" s="50"/>
     </row>
-    <row r="38" spans="1:54" ht="27" customHeight="1" thickBot="1">
-      <c r="A38" s="63"/>
-      <c r="B38" s="64"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="64"/>
-      <c r="E38" s="64"/>
-      <c r="F38" s="64"/>
-      <c r="G38" s="64"/>
-      <c r="H38" s="64"/>
-      <c r="I38" s="64"/>
-      <c r="J38" s="64"/>
-      <c r="K38" s="64"/>
-      <c r="L38" s="64"/>
-      <c r="M38" s="64"/>
-      <c r="N38" s="65"/>
-      <c r="O38" s="65"/>
-      <c r="P38" s="65"/>
-      <c r="AJ38" s="51"/>
+    <row r="38" spans="1:36" ht="27" customHeight="1">
+      <c r="A38" s="62"/>
+      <c r="B38" s="63"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="63"/>
+      <c r="E38" s="63"/>
+      <c r="F38" s="63"/>
+      <c r="G38" s="63"/>
+      <c r="H38" s="63"/>
+      <c r="I38" s="63"/>
+      <c r="J38" s="63"/>
+      <c r="K38" s="63"/>
+      <c r="L38" s="63"/>
+      <c r="M38" s="63"/>
+      <c r="N38" s="64"/>
+      <c r="O38" s="64"/>
+      <c r="P38" s="64"/>
+      <c r="AJ38" s="50"/>
     </row>
-    <row r="39" spans="1:54" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A39" s="49"/>
-      <c r="AJ39" s="51"/>
-      <c r="AK39" s="66"/>
-      <c r="AL39" s="67"/>
-      <c r="AM39" s="67"/>
-      <c r="AN39" s="67"/>
-      <c r="AO39" s="64"/>
+    <row r="39" spans="1:36" ht="0.75" customHeight="1" thickBot="1">
+      <c r="A39" s="48"/>
+      <c r="AJ39" s="50"/>
     </row>
-    <row r="40" spans="1:54" ht="46.5" customHeight="1">
-      <c r="A40" s="68" t="s">
+    <row r="40" spans="1:36" ht="46.5" customHeight="1">
+      <c r="A40" s="65" t="s">
         <v>0</v>
       </c>
       <c r="B40" s="8"/>
       <c r="C40" s="8"/>
       <c r="D40" s="8"/>
       <c r="E40" s="8"/>
-      <c r="F40" s="69"/>
-      <c r="G40" s="70"/>
-      <c r="H40" s="71"/>
-      <c r="I40" s="71"/>
-      <c r="J40" s="71"/>
-      <c r="K40" s="72"/>
-      <c r="L40" s="72"/>
-      <c r="M40" s="72"/>
-      <c r="N40" s="72"/>
-      <c r="O40" s="73"/>
-      <c r="P40" s="73"/>
-      <c r="Q40" s="73"/>
-      <c r="R40" s="73"/>
-      <c r="S40" s="73"/>
-      <c r="T40" s="73"/>
-      <c r="U40" s="73"/>
-      <c r="V40" s="73"/>
-      <c r="W40" s="73"/>
-      <c r="X40" s="73"/>
-      <c r="Y40" s="73"/>
-      <c r="Z40" s="73"/>
-      <c r="AA40" s="73"/>
-      <c r="AB40" s="73"/>
-      <c r="AC40" s="73"/>
-      <c r="AD40" s="73"/>
-      <c r="AE40" s="73"/>
-      <c r="AF40" s="73"/>
-      <c r="AG40" s="73"/>
-      <c r="AH40" s="73"/>
-      <c r="AI40" s="73"/>
-      <c r="AJ40" s="74"/>
-      <c r="AL40" s="67"/>
-      <c r="AM40" s="67"/>
-      <c r="AN40" s="67"/>
-      <c r="AO40" s="64"/>
-      <c r="AP40" s="64"/>
-      <c r="AQ40" s="64"/>
-      <c r="AR40" s="64"/>
-      <c r="AS40" s="64"/>
-      <c r="AT40" s="64"/>
-      <c r="AU40" s="64"/>
-      <c r="AV40" s="64"/>
-      <c r="AW40" s="64"/>
-      <c r="AX40" s="64"/>
-      <c r="AY40" s="64"/>
-      <c r="AZ40" s="64"/>
-      <c r="BA40" s="64"/>
-      <c r="BB40" s="64"/>
+      <c r="F40" s="66"/>
+      <c r="G40" s="67"/>
+      <c r="H40" s="68"/>
+      <c r="I40" s="68"/>
+      <c r="J40" s="68"/>
+      <c r="K40" s="69"/>
+      <c r="L40" s="69"/>
+      <c r="M40" s="69"/>
+      <c r="N40" s="69"/>
+      <c r="O40" s="70"/>
+      <c r="P40" s="70"/>
+      <c r="Q40" s="70"/>
+      <c r="R40" s="70"/>
+      <c r="S40" s="70"/>
+      <c r="T40" s="70"/>
+      <c r="U40" s="70"/>
+      <c r="V40" s="70"/>
+      <c r="W40" s="70"/>
+      <c r="X40" s="70"/>
+      <c r="Y40" s="70"/>
+      <c r="Z40" s="70"/>
+      <c r="AA40" s="70"/>
+      <c r="AB40" s="70"/>
+      <c r="AC40" s="70"/>
+      <c r="AD40" s="70"/>
+      <c r="AE40" s="70"/>
+      <c r="AF40" s="70"/>
+      <c r="AG40" s="70"/>
+      <c r="AH40" s="70"/>
+      <c r="AI40" s="70"/>
+      <c r="AJ40" s="71"/>
     </row>
-    <row r="41" spans="1:54" ht="46.5" customHeight="1">
-      <c r="A41" s="75"/>
-      <c r="B41" s="76"/>
-      <c r="C41" s="76"/>
-      <c r="D41" s="76"/>
-      <c r="E41" s="76"/>
-      <c r="F41" s="77"/>
-      <c r="G41" s="78"/>
-      <c r="H41" s="78"/>
-      <c r="I41" s="78"/>
-      <c r="J41" s="78"/>
-      <c r="K41" s="78"/>
-      <c r="L41" s="78"/>
-      <c r="M41" s="78"/>
-      <c r="N41" s="78"/>
-      <c r="O41" s="79"/>
-      <c r="P41" s="79"/>
-      <c r="Q41" s="79"/>
-      <c r="R41" s="79"/>
-      <c r="S41" s="79"/>
-      <c r="T41" s="79"/>
-      <c r="U41" s="79"/>
-      <c r="V41" s="79"/>
-      <c r="W41" s="79"/>
-      <c r="X41" s="79"/>
-      <c r="Y41" s="79"/>
-      <c r="Z41" s="79"/>
-      <c r="AA41" s="79"/>
-      <c r="AB41" s="79"/>
-      <c r="AC41" s="79"/>
-      <c r="AD41" s="79"/>
-      <c r="AE41" s="79"/>
-      <c r="AF41" s="79"/>
-      <c r="AG41" s="79"/>
-      <c r="AH41" s="79"/>
-      <c r="AI41" s="79"/>
-      <c r="AJ41" s="80"/>
-      <c r="AL41" s="67"/>
-      <c r="AM41" s="67"/>
-      <c r="AN41" s="67"/>
-      <c r="AO41" s="81"/>
-      <c r="AP41" s="81"/>
-      <c r="AQ41" s="81"/>
-      <c r="AR41" s="64"/>
-      <c r="AS41" s="64"/>
-      <c r="AT41" s="64"/>
-      <c r="AU41" s="64"/>
-      <c r="AV41" s="64"/>
-      <c r="AW41" s="64"/>
-      <c r="AX41" s="64"/>
-      <c r="AY41" s="64"/>
-      <c r="AZ41" s="64"/>
-      <c r="BA41" s="64"/>
-      <c r="BB41" s="64"/>
+    <row r="41" spans="1:36" ht="46.5" customHeight="1">
+      <c r="A41" s="72"/>
+      <c r="B41" s="73"/>
+      <c r="C41" s="73"/>
+      <c r="D41" s="73"/>
+      <c r="E41" s="73"/>
+      <c r="F41" s="74"/>
+      <c r="G41" s="75"/>
+      <c r="H41" s="75"/>
+      <c r="I41" s="75"/>
+      <c r="J41" s="75"/>
+      <c r="K41" s="75"/>
+      <c r="L41" s="75"/>
+      <c r="M41" s="75"/>
+      <c r="N41" s="75"/>
+      <c r="O41" s="76"/>
+      <c r="P41" s="76"/>
+      <c r="Q41" s="76"/>
+      <c r="R41" s="76"/>
+      <c r="S41" s="76"/>
+      <c r="T41" s="76"/>
+      <c r="U41" s="76"/>
+      <c r="V41" s="76"/>
+      <c r="W41" s="76"/>
+      <c r="X41" s="76"/>
+      <c r="Y41" s="76"/>
+      <c r="Z41" s="76"/>
+      <c r="AA41" s="76"/>
+      <c r="AB41" s="76"/>
+      <c r="AC41" s="76"/>
+      <c r="AD41" s="76"/>
+      <c r="AE41" s="76"/>
+      <c r="AF41" s="76"/>
+      <c r="AG41" s="76"/>
+      <c r="AH41" s="76"/>
+      <c r="AI41" s="76"/>
+      <c r="AJ41" s="77"/>
     </row>
-    <row r="42" spans="1:54" s="16" customFormat="1" ht="46.5" customHeight="1">
+    <row r="42" spans="1:36" s="16" customFormat="1" ht="46.5" customHeight="1">
       <c r="A42" s="14"/>
-      <c r="G42" s="32"/>
-      <c r="H42" s="32"/>
-      <c r="I42" s="32"/>
-      <c r="J42" s="32"/>
-      <c r="K42" s="32"/>
-      <c r="L42" s="32"/>
-      <c r="M42" s="32"/>
-      <c r="N42" s="32"/>
-      <c r="O42" s="32"/>
-      <c r="Q42" s="128"/>
-      <c r="R42" s="128"/>
-      <c r="S42" s="128"/>
-      <c r="T42" s="128"/>
-      <c r="Z42" s="82"/>
-      <c r="AA42" s="82"/>
-      <c r="AB42" s="128"/>
-      <c r="AC42" s="128"/>
-      <c r="AD42" s="128"/>
-      <c r="AE42" s="128"/>
-      <c r="AF42" s="83"/>
-      <c r="AG42" s="83"/>
-      <c r="AH42" s="83"/>
-      <c r="AI42" s="83"/>
+      <c r="G42" s="31"/>
+      <c r="H42" s="31"/>
+      <c r="I42" s="31"/>
+      <c r="J42" s="31"/>
+      <c r="K42" s="31"/>
+      <c r="L42" s="31"/>
+      <c r="M42" s="31"/>
+      <c r="N42" s="31"/>
+      <c r="O42" s="31"/>
+      <c r="Q42" s="110"/>
+      <c r="R42" s="110"/>
+      <c r="S42" s="110"/>
+      <c r="T42" s="110"/>
+      <c r="Z42" s="78"/>
+      <c r="AA42" s="78"/>
+      <c r="AB42" s="110"/>
+      <c r="AC42" s="110"/>
+      <c r="AD42" s="110"/>
+      <c r="AE42" s="110"/>
+      <c r="AF42" s="79"/>
+      <c r="AG42" s="79"/>
+      <c r="AH42" s="79"/>
+      <c r="AI42" s="79"/>
       <c r="AJ42" s="17"/>
     </row>
-    <row r="43" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A43" s="130" t="s">
-        <v>53</v>
+    <row r="43" spans="1:36" s="16" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A43" s="112" t="s">
+        <v>49</v>
       </c>
-      <c r="B43" s="131"/>
-      <c r="C43" s="131"/>
-      <c r="D43" s="131"/>
-      <c r="E43" s="131"/>
-      <c r="F43" s="131"/>
-      <c r="G43" s="131"/>
-      <c r="H43" s="131"/>
-      <c r="I43" s="178"/>
-      <c r="J43" s="179" t="s">
-        <v>57</v>
+      <c r="B43" s="113"/>
+      <c r="C43" s="113"/>
+      <c r="D43" s="113"/>
+      <c r="E43" s="113"/>
+      <c r="F43" s="113"/>
+      <c r="G43" s="113"/>
+      <c r="H43" s="113"/>
+      <c r="I43" s="160"/>
+      <c r="J43" s="161" t="s">
+        <v>52</v>
       </c>
-      <c r="K43" s="131"/>
-      <c r="L43" s="131"/>
-      <c r="M43" s="131"/>
-      <c r="N43" s="131"/>
-      <c r="O43" s="131"/>
-      <c r="P43" s="131"/>
-      <c r="Q43" s="131"/>
-      <c r="R43" s="178"/>
-      <c r="S43" s="179" t="s">
-        <v>55</v>
-      </c>
-      <c r="T43" s="131"/>
-      <c r="U43" s="131"/>
-      <c r="V43" s="131"/>
-      <c r="W43" s="131"/>
-      <c r="X43" s="131"/>
-      <c r="Y43" s="131"/>
-      <c r="Z43" s="131"/>
-      <c r="AA43" s="178"/>
-      <c r="AB43" s="180" t="s">
+      <c r="K43" s="113"/>
+      <c r="L43" s="113"/>
+      <c r="M43" s="113"/>
+      <c r="N43" s="113"/>
+      <c r="O43" s="113"/>
+      <c r="P43" s="113"/>
+      <c r="Q43" s="113"/>
+      <c r="R43" s="160"/>
+      <c r="S43" s="161" t="s">
         <v>50</v>
       </c>
-      <c r="AC43" s="181"/>
-      <c r="AD43" s="181"/>
-      <c r="AE43" s="181"/>
-      <c r="AF43" s="181"/>
-      <c r="AG43" s="181"/>
-      <c r="AH43" s="181"/>
-      <c r="AI43" s="181"/>
-      <c r="AJ43" s="182"/>
+      <c r="T43" s="113"/>
+      <c r="U43" s="113"/>
+      <c r="V43" s="113"/>
+      <c r="W43" s="113"/>
+      <c r="X43" s="113"/>
+      <c r="Y43" s="113"/>
+      <c r="Z43" s="113"/>
+      <c r="AA43" s="160"/>
+      <c r="AB43" s="162" t="s">
+        <v>48</v>
+      </c>
+      <c r="AC43" s="163"/>
+      <c r="AD43" s="163"/>
+      <c r="AE43" s="163"/>
+      <c r="AF43" s="163"/>
+      <c r="AG43" s="163"/>
+      <c r="AH43" s="163"/>
+      <c r="AI43" s="163"/>
+      <c r="AJ43" s="164"/>
     </row>
-    <row r="44" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A44" s="84" t="s">
+    <row r="44" spans="1:36" s="16" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A44" s="80" t="s">
         <v>1</v>
       </c>
       <c r="B44" s="15"/>
-      <c r="C44" s="34"/>
-      <c r="D44" s="126"/>
-      <c r="E44" s="126"/>
-      <c r="F44" s="126"/>
-      <c r="G44" s="126"/>
-      <c r="H44" s="126"/>
-      <c r="I44" s="127"/>
-      <c r="J44" s="85" t="s">
+      <c r="C44" s="33"/>
+      <c r="D44" s="108"/>
+      <c r="E44" s="108"/>
+      <c r="F44" s="108"/>
+      <c r="G44" s="108"/>
+      <c r="H44" s="108"/>
+      <c r="I44" s="109"/>
+      <c r="J44" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="K44" s="34"/>
-      <c r="L44" s="116"/>
-      <c r="M44" s="126"/>
-      <c r="N44" s="126"/>
-      <c r="O44" s="126"/>
-      <c r="P44" s="126"/>
-      <c r="Q44" s="126"/>
-      <c r="R44" s="127"/>
-      <c r="S44" s="85" t="s">
+      <c r="K44" s="33"/>
+      <c r="L44" s="98"/>
+      <c r="M44" s="108"/>
+      <c r="N44" s="108"/>
+      <c r="O44" s="108"/>
+      <c r="P44" s="108"/>
+      <c r="Q44" s="108"/>
+      <c r="R44" s="109"/>
+      <c r="S44" s="81" t="s">
         <v>1</v>
       </c>
       <c r="T44" s="15"/>
-      <c r="U44" s="89"/>
-      <c r="V44" s="89"/>
-      <c r="W44" s="89"/>
-      <c r="X44" s="89"/>
-      <c r="Y44" s="89"/>
-      <c r="Z44" s="89"/>
-      <c r="AA44" s="90"/>
-      <c r="AB44" s="85" t="s">
+      <c r="U44" s="83"/>
+      <c r="V44" s="83"/>
+      <c r="W44" s="83"/>
+      <c r="X44" s="83"/>
+      <c r="Y44" s="83"/>
+      <c r="Z44" s="83"/>
+      <c r="AA44" s="84"/>
+      <c r="AB44" s="81" t="s">
         <v>1</v>
       </c>
-      <c r="AC44" s="34"/>
-      <c r="AD44" s="91"/>
-      <c r="AE44" s="91"/>
-      <c r="AF44" s="91"/>
-      <c r="AG44" s="91"/>
-      <c r="AH44" s="91"/>
-      <c r="AI44" s="91"/>
-      <c r="AJ44" s="92"/>
+      <c r="AC44" s="33"/>
+      <c r="AD44" s="85"/>
+      <c r="AE44" s="85"/>
+      <c r="AF44" s="85"/>
+      <c r="AG44" s="85"/>
+      <c r="AH44" s="85"/>
+      <c r="AI44" s="85"/>
+      <c r="AJ44" s="86"/>
     </row>
-    <row r="45" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A45" s="93" t="s">
+    <row r="45" spans="1:36" s="16" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A45" s="87" t="s">
         <v>2</v>
       </c>
       <c r="B45" s="15"/>
-      <c r="C45" s="34"/>
-      <c r="D45" s="124"/>
-      <c r="E45" s="124"/>
-      <c r="F45" s="124"/>
-      <c r="G45" s="124"/>
-      <c r="H45" s="124"/>
-      <c r="I45" s="125"/>
-      <c r="J45" s="94" t="s">
+      <c r="C45" s="33"/>
+      <c r="D45" s="106"/>
+      <c r="E45" s="106"/>
+      <c r="F45" s="106"/>
+      <c r="G45" s="106"/>
+      <c r="H45" s="106"/>
+      <c r="I45" s="107"/>
+      <c r="J45" s="88" t="s">
         <v>2</v>
       </c>
       <c r="K45" s="18"/>
-      <c r="L45" s="116"/>
-      <c r="M45" s="126"/>
-      <c r="N45" s="126"/>
-      <c r="O45" s="126"/>
-      <c r="P45" s="126"/>
-      <c r="Q45" s="126"/>
-      <c r="R45" s="127"/>
-      <c r="S45" s="94" t="s">
+      <c r="L45" s="98"/>
+      <c r="M45" s="108"/>
+      <c r="N45" s="108"/>
+      <c r="O45" s="108"/>
+      <c r="P45" s="108"/>
+      <c r="Q45" s="108"/>
+      <c r="R45" s="109"/>
+      <c r="S45" s="88" t="s">
         <v>2</v>
       </c>
       <c r="T45" s="15"/>
-      <c r="U45" s="77"/>
-      <c r="V45" s="77"/>
-      <c r="W45" s="77"/>
-      <c r="X45" s="77"/>
-      <c r="Y45" s="77"/>
-      <c r="Z45" s="77"/>
-      <c r="AA45" s="98"/>
-      <c r="AB45" s="94" t="s">
+      <c r="U45" s="74"/>
+      <c r="V45" s="74"/>
+      <c r="W45" s="74"/>
+      <c r="X45" s="74"/>
+      <c r="Y45" s="74"/>
+      <c r="Z45" s="74"/>
+      <c r="AA45" s="90"/>
+      <c r="AB45" s="88" t="s">
         <v>2</v>
       </c>
       <c r="AC45" s="18"/>
-      <c r="AD45" s="96"/>
-      <c r="AE45" s="96"/>
-      <c r="AF45" s="96"/>
-      <c r="AG45" s="96"/>
-      <c r="AH45" s="96"/>
-      <c r="AI45" s="96"/>
-      <c r="AJ45" s="99"/>
+      <c r="AD45" s="89"/>
+      <c r="AE45" s="89"/>
+      <c r="AF45" s="89"/>
+      <c r="AG45" s="89"/>
+      <c r="AH45" s="89"/>
+      <c r="AI45" s="89"/>
+      <c r="AJ45" s="91"/>
     </row>
-    <row r="46" spans="1:54" s="16" customFormat="1" ht="30.75" customHeight="1">
-      <c r="A46" s="93" t="s">
+    <row r="46" spans="1:36" s="16" customFormat="1" ht="30.75" customHeight="1">
+      <c r="A46" s="87" t="s">
         <v>3</v>
       </c>
       <c r="B46" s="15"/>
       <c r="C46" s="18"/>
-      <c r="D46" s="123"/>
-      <c r="E46" s="124"/>
-      <c r="F46" s="124"/>
-      <c r="G46" s="124"/>
-      <c r="H46" s="124"/>
-      <c r="I46" s="125"/>
-      <c r="J46" s="94" t="s">
+      <c r="D46" s="105"/>
+      <c r="E46" s="106"/>
+      <c r="F46" s="106"/>
+      <c r="G46" s="106"/>
+      <c r="H46" s="106"/>
+      <c r="I46" s="107"/>
+      <c r="J46" s="88" t="s">
         <v>3</v>
       </c>
       <c r="K46" s="18"/>
-      <c r="L46" s="116"/>
-      <c r="M46" s="126"/>
-      <c r="N46" s="126"/>
-      <c r="O46" s="126"/>
-      <c r="P46" s="126"/>
-      <c r="Q46" s="126"/>
-      <c r="R46" s="127"/>
-      <c r="S46" s="94" t="s">
+      <c r="L46" s="98"/>
+      <c r="M46" s="108"/>
+      <c r="N46" s="108"/>
+      <c r="O46" s="108"/>
+      <c r="P46" s="108"/>
+      <c r="Q46" s="108"/>
+      <c r="R46" s="109"/>
+      <c r="S46" s="88" t="s">
         <v>3</v>
       </c>
       <c r="T46" s="15"/>
-      <c r="U46" s="96"/>
-      <c r="V46" s="77"/>
-      <c r="W46" s="77"/>
-      <c r="X46" s="77"/>
-      <c r="Y46" s="77"/>
-      <c r="Z46" s="77"/>
-      <c r="AA46" s="98"/>
-      <c r="AB46" s="94" t="s">
+      <c r="U46" s="89"/>
+      <c r="V46" s="74"/>
+      <c r="W46" s="74"/>
+      <c r="X46" s="74"/>
+      <c r="Y46" s="74"/>
+      <c r="Z46" s="74"/>
+      <c r="AA46" s="90"/>
+      <c r="AB46" s="88" t="s">
         <v>3</v>
       </c>
       <c r="AC46" s="18"/>
-      <c r="AD46" s="77"/>
-      <c r="AE46" s="96"/>
-      <c r="AF46" s="96"/>
-      <c r="AG46" s="96"/>
-      <c r="AH46" s="96"/>
-      <c r="AI46" s="96"/>
-      <c r="AJ46" s="99"/>
+      <c r="AD46" s="74"/>
+      <c r="AE46" s="89"/>
+      <c r="AF46" s="89"/>
+      <c r="AG46" s="89"/>
+      <c r="AH46" s="89"/>
+      <c r="AI46" s="89"/>
+      <c r="AJ46" s="91"/>
     </row>
-    <row r="47" spans="1:54" s="16" customFormat="1" ht="57.75" customHeight="1">
-      <c r="A47" s="102" t="s">
+    <row r="47" spans="1:36" s="16" customFormat="1" ht="57.75" customHeight="1">
+      <c r="A47" s="92" t="s">
         <v>4</v>
       </c>
-      <c r="B47" s="89"/>
-      <c r="C47" s="87"/>
-      <c r="D47" s="124"/>
-      <c r="E47" s="124"/>
-      <c r="F47" s="124"/>
-      <c r="G47" s="124"/>
-      <c r="H47" s="124"/>
-      <c r="I47" s="125"/>
-      <c r="J47" s="103" t="s">
+      <c r="B47" s="83"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="106"/>
+      <c r="E47" s="106"/>
+      <c r="F47" s="106"/>
+      <c r="G47" s="106"/>
+      <c r="H47" s="106"/>
+      <c r="I47" s="107"/>
+      <c r="J47" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="K47" s="87"/>
-      <c r="L47" s="89"/>
-      <c r="M47" s="89"/>
-      <c r="N47" s="87"/>
-      <c r="O47" s="87"/>
-      <c r="P47" s="87"/>
-      <c r="Q47" s="87"/>
-      <c r="R47" s="87"/>
-      <c r="S47" s="103" t="s">
+      <c r="K47" s="82"/>
+      <c r="L47" s="83"/>
+      <c r="M47" s="83"/>
+      <c r="N47" s="82"/>
+      <c r="O47" s="82"/>
+      <c r="P47" s="82"/>
+      <c r="Q47" s="82"/>
+      <c r="R47" s="82"/>
+      <c r="S47" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="T47" s="89"/>
-      <c r="U47" s="87"/>
-      <c r="V47" s="89"/>
-      <c r="W47" s="89"/>
-      <c r="X47" s="89"/>
-      <c r="Y47" s="89"/>
-      <c r="Z47" s="89"/>
-      <c r="AA47" s="89"/>
-      <c r="AB47" s="103" t="s">
+      <c r="T47" s="83"/>
+      <c r="U47" s="82"/>
+      <c r="V47" s="83"/>
+      <c r="W47" s="83"/>
+      <c r="X47" s="83"/>
+      <c r="Y47" s="83"/>
+      <c r="Z47" s="83"/>
+      <c r="AA47" s="83"/>
+      <c r="AB47" s="93" t="s">
         <v>4</v>
       </c>
-      <c r="AC47" s="87"/>
-      <c r="AD47" s="89"/>
-      <c r="AE47" s="87"/>
-      <c r="AF47" s="87"/>
-      <c r="AG47" s="87"/>
-      <c r="AH47" s="87"/>
-      <c r="AI47" s="91"/>
-      <c r="AJ47" s="92"/>
+      <c r="AC47" s="82"/>
+      <c r="AD47" s="83"/>
+      <c r="AE47" s="82"/>
+      <c r="AF47" s="82"/>
+      <c r="AG47" s="82"/>
+      <c r="AH47" s="82"/>
+      <c r="AI47" s="85"/>
+      <c r="AJ47" s="86"/>
     </row>
-    <row r="48" spans="1:54" ht="5.25" customHeight="1" thickBot="1">
-      <c r="A48" s="104"/>
-      <c r="B48" s="44"/>
-      <c r="C48" s="44"/>
-      <c r="D48" s="44"/>
-      <c r="E48" s="44"/>
-      <c r="F48" s="44"/>
-      <c r="G48" s="44"/>
-      <c r="H48" s="44"/>
-      <c r="I48" s="44"/>
-      <c r="J48" s="44"/>
-      <c r="K48" s="44"/>
-      <c r="L48" s="44"/>
-      <c r="M48" s="44"/>
-      <c r="N48" s="44"/>
-      <c r="O48" s="44"/>
-      <c r="P48" s="44"/>
-      <c r="Q48" s="44"/>
-      <c r="R48" s="44"/>
-      <c r="S48" s="44"/>
-      <c r="T48" s="44"/>
-      <c r="U48" s="44"/>
-      <c r="V48" s="44"/>
-      <c r="W48" s="44"/>
-      <c r="X48" s="44"/>
-      <c r="Y48" s="44"/>
-      <c r="Z48" s="44"/>
-      <c r="AA48" s="44"/>
-      <c r="AB48" s="44"/>
-      <c r="AC48" s="44"/>
-      <c r="AD48" s="44"/>
-      <c r="AE48" s="44"/>
-      <c r="AF48" s="44"/>
-      <c r="AG48" s="44"/>
-      <c r="AH48" s="44"/>
-      <c r="AI48" s="44"/>
-      <c r="AJ48" s="105"/>
+    <row r="48" spans="1:36" ht="5.25" customHeight="1" thickBot="1">
+      <c r="A48" s="94"/>
+      <c r="B48" s="43"/>
+      <c r="C48" s="43"/>
+      <c r="D48" s="43"/>
+      <c r="E48" s="43"/>
+      <c r="F48" s="43"/>
+      <c r="G48" s="43"/>
+      <c r="H48" s="43"/>
+      <c r="I48" s="43"/>
+      <c r="J48" s="43"/>
+      <c r="K48" s="43"/>
+      <c r="L48" s="43"/>
+      <c r="M48" s="43"/>
+      <c r="N48" s="43"/>
+      <c r="O48" s="43"/>
+      <c r="P48" s="43"/>
+      <c r="Q48" s="43"/>
+      <c r="R48" s="43"/>
+      <c r="S48" s="43"/>
+      <c r="T48" s="43"/>
+      <c r="U48" s="43"/>
+      <c r="V48" s="43"/>
+      <c r="W48" s="43"/>
+      <c r="X48" s="43"/>
+      <c r="Y48" s="43"/>
+      <c r="Z48" s="43"/>
+      <c r="AA48" s="43"/>
+      <c r="AB48" s="43"/>
+      <c r="AC48" s="43"/>
+      <c r="AD48" s="43"/>
+      <c r="AE48" s="43"/>
+      <c r="AF48" s="43"/>
+      <c r="AG48" s="43"/>
+      <c r="AH48" s="43"/>
+      <c r="AI48" s="43"/>
+      <c r="AJ48" s="95"/>
     </row>
   </sheetData>
   <mergeCells count="103">
@@ -14747,2094 +11006,7 @@
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.43307086614173229" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>
-  <pageSetup paperSize="9" scale="43" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="70" man="1"/>
-  </colBreaks>
-  <drawing r:id="rId2"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <sheetPr>
-    <tabColor rgb="FFFFFF00"/>
-    <pageSetUpPr fitToPage="1"/>
-  </sheetPr>
-  <dimension ref="A1:BB59"/>
-  <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="40" zoomScaleSheetLayoutView="40" workbookViewId="0">
-      <selection activeCell="I70" sqref="I70"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11.44140625" defaultRowHeight="13.2"/>
-  <cols>
-    <col min="1" max="36" width="6.44140625" style="4" customWidth="1"/>
-    <col min="37" max="37" width="15.6640625" style="4" customWidth="1"/>
-    <col min="38" max="40" width="3.6640625" style="4" customWidth="1"/>
-    <col min="41" max="41" width="10.6640625" style="4" customWidth="1"/>
-    <col min="42" max="42" width="10" style="4" customWidth="1"/>
-    <col min="43" max="54" width="3.6640625" style="4" customWidth="1"/>
-    <col min="55" max="16384" width="11.44140625" style="4"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:36" ht="22.5" customHeight="1" thickBot="1">
-      <c r="A1" s="1"/>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-      <c r="O1" s="2"/>
-      <c r="P1" s="2"/>
-      <c r="Q1" s="2"/>
-      <c r="R1" s="2"/>
-      <c r="S1" s="2"/>
-      <c r="T1" s="2"/>
-      <c r="U1" s="2"/>
-      <c r="V1" s="2"/>
-      <c r="W1" s="2"/>
-      <c r="X1" s="2"/>
-      <c r="Y1" s="2"/>
-      <c r="Z1" s="2"/>
-      <c r="AA1" s="2"/>
-      <c r="AB1" s="2"/>
-      <c r="AC1" s="2"/>
-      <c r="AD1" s="2"/>
-      <c r="AE1" s="2"/>
-      <c r="AF1" s="2"/>
-      <c r="AG1" s="2"/>
-      <c r="AH1" s="2"/>
-      <c r="AI1" s="2"/>
-      <c r="AJ1" s="3"/>
-    </row>
-    <row r="2" spans="1:36" ht="39.75" customHeight="1">
-      <c r="A2" s="154"/>
-      <c r="B2" s="155"/>
-      <c r="C2" s="155"/>
-      <c r="D2" s="155"/>
-      <c r="E2" s="155"/>
-      <c r="F2" s="155"/>
-      <c r="G2" s="155"/>
-      <c r="H2" s="187" t="s">
-        <v>52</v>
-      </c>
-      <c r="I2" s="188"/>
-      <c r="J2" s="188"/>
-      <c r="K2" s="188"/>
-      <c r="L2" s="188"/>
-      <c r="M2" s="188"/>
-      <c r="N2" s="188"/>
-      <c r="O2" s="188"/>
-      <c r="P2" s="188"/>
-      <c r="Q2" s="188"/>
-      <c r="R2" s="188"/>
-      <c r="S2" s="188"/>
-      <c r="T2" s="188"/>
-      <c r="U2" s="188"/>
-      <c r="V2" s="188"/>
-      <c r="W2" s="188"/>
-      <c r="X2" s="188"/>
-      <c r="Y2" s="188"/>
-      <c r="Z2" s="188"/>
-      <c r="AA2" s="188"/>
-      <c r="AB2" s="188"/>
-      <c r="AC2" s="188"/>
-      <c r="AD2" s="189"/>
-      <c r="AE2" s="154"/>
-      <c r="AF2" s="155"/>
-      <c r="AG2" s="155"/>
-      <c r="AH2" s="155"/>
-      <c r="AI2" s="155"/>
-      <c r="AJ2" s="156"/>
-    </row>
-    <row r="3" spans="1:36" ht="39.75" customHeight="1">
-      <c r="A3" s="157"/>
-      <c r="B3" s="158"/>
-      <c r="C3" s="158"/>
-      <c r="D3" s="158"/>
-      <c r="E3" s="158"/>
-      <c r="F3" s="158"/>
-      <c r="G3" s="158"/>
-      <c r="H3" s="190"/>
-      <c r="I3" s="191"/>
-      <c r="J3" s="191"/>
-      <c r="K3" s="191"/>
-      <c r="L3" s="191"/>
-      <c r="M3" s="191"/>
-      <c r="N3" s="191"/>
-      <c r="O3" s="191"/>
-      <c r="P3" s="191"/>
-      <c r="Q3" s="191"/>
-      <c r="R3" s="191"/>
-      <c r="S3" s="191"/>
-      <c r="T3" s="191"/>
-      <c r="U3" s="191"/>
-      <c r="V3" s="191"/>
-      <c r="W3" s="191"/>
-      <c r="X3" s="191"/>
-      <c r="Y3" s="191"/>
-      <c r="Z3" s="191"/>
-      <c r="AA3" s="191"/>
-      <c r="AB3" s="191"/>
-      <c r="AC3" s="191"/>
-      <c r="AD3" s="192"/>
-      <c r="AE3" s="157"/>
-      <c r="AF3" s="158"/>
-      <c r="AG3" s="158"/>
-      <c r="AH3" s="158"/>
-      <c r="AI3" s="158"/>
-      <c r="AJ3" s="159"/>
-    </row>
-    <row r="4" spans="1:36" ht="21" customHeight="1">
-      <c r="A4" s="157"/>
-      <c r="B4" s="158"/>
-      <c r="C4" s="158"/>
-      <c r="D4" s="158"/>
-      <c r="E4" s="158"/>
-      <c r="F4" s="158"/>
-      <c r="G4" s="158"/>
-      <c r="H4" s="160" t="s">
-        <v>10</v>
-      </c>
-      <c r="I4" s="161"/>
-      <c r="J4" s="161"/>
-      <c r="K4" s="161"/>
-      <c r="L4" s="161"/>
-      <c r="M4" s="161"/>
-      <c r="N4" s="161"/>
-      <c r="O4" s="161"/>
-      <c r="P4" s="161"/>
-      <c r="Q4" s="161"/>
-      <c r="R4" s="161"/>
-      <c r="S4" s="161"/>
-      <c r="T4" s="161"/>
-      <c r="U4" s="161"/>
-      <c r="V4" s="161"/>
-      <c r="W4" s="161"/>
-      <c r="X4" s="161"/>
-      <c r="Y4" s="161"/>
-      <c r="Z4" s="161"/>
-      <c r="AA4" s="161"/>
-      <c r="AB4" s="161"/>
-      <c r="AC4" s="161"/>
-      <c r="AD4" s="162"/>
-      <c r="AE4" s="157"/>
-      <c r="AF4" s="158"/>
-      <c r="AG4" s="158"/>
-      <c r="AH4" s="158"/>
-      <c r="AI4" s="158"/>
-      <c r="AJ4" s="159"/>
-    </row>
-    <row r="5" spans="1:36" ht="22.5" customHeight="1">
-      <c r="A5" s="157"/>
-      <c r="B5" s="158"/>
-      <c r="C5" s="158"/>
-      <c r="D5" s="158"/>
-      <c r="E5" s="158"/>
-      <c r="F5" s="158"/>
-      <c r="G5" s="158"/>
-      <c r="H5" s="163"/>
-      <c r="I5" s="164"/>
-      <c r="J5" s="164"/>
-      <c r="K5" s="164"/>
-      <c r="L5" s="164"/>
-      <c r="M5" s="164"/>
-      <c r="N5" s="164"/>
-      <c r="O5" s="164"/>
-      <c r="P5" s="164"/>
-      <c r="Q5" s="164"/>
-      <c r="R5" s="164"/>
-      <c r="S5" s="164"/>
-      <c r="T5" s="164"/>
-      <c r="U5" s="164"/>
-      <c r="V5" s="164"/>
-      <c r="W5" s="164"/>
-      <c r="X5" s="164"/>
-      <c r="Y5" s="164"/>
-      <c r="Z5" s="164"/>
-      <c r="AA5" s="164"/>
-      <c r="AB5" s="164"/>
-      <c r="AC5" s="164"/>
-      <c r="AD5" s="165"/>
-      <c r="AE5" s="157"/>
-      <c r="AF5" s="158"/>
-      <c r="AG5" s="158"/>
-      <c r="AH5" s="158"/>
-      <c r="AI5" s="158"/>
-      <c r="AJ5" s="159"/>
-    </row>
-    <row r="6" spans="1:36" ht="15.75" customHeight="1" thickBot="1">
-      <c r="A6" s="185"/>
-      <c r="B6" s="186"/>
-      <c r="C6" s="186"/>
-      <c r="D6" s="186"/>
-      <c r="E6" s="186"/>
-      <c r="F6" s="186"/>
-      <c r="G6" s="186"/>
-      <c r="H6" s="166"/>
-      <c r="I6" s="167"/>
-      <c r="J6" s="167"/>
-      <c r="K6" s="167"/>
-      <c r="L6" s="167"/>
-      <c r="M6" s="167"/>
-      <c r="N6" s="167"/>
-      <c r="O6" s="167"/>
-      <c r="P6" s="167"/>
-      <c r="Q6" s="167"/>
-      <c r="R6" s="167"/>
-      <c r="S6" s="167"/>
-      <c r="T6" s="167"/>
-      <c r="U6" s="167"/>
-      <c r="V6" s="167"/>
-      <c r="W6" s="167"/>
-      <c r="X6" s="167"/>
-      <c r="Y6" s="167"/>
-      <c r="Z6" s="167"/>
-      <c r="AA6" s="167"/>
-      <c r="AB6" s="167"/>
-      <c r="AC6" s="167"/>
-      <c r="AD6" s="168"/>
-      <c r="AE6" s="169"/>
-      <c r="AF6" s="170"/>
-      <c r="AG6" s="170"/>
-      <c r="AH6" s="171"/>
-      <c r="AI6" s="171"/>
-      <c r="AJ6" s="172"/>
-    </row>
-    <row r="7" spans="1:36" ht="25.5" customHeight="1" thickBot="1">
-      <c r="A7" s="5"/>
-      <c r="B7" s="6"/>
-      <c r="C7" s="6"/>
-      <c r="D7" s="6"/>
-      <c r="E7" s="6"/>
-      <c r="F7" s="6"/>
-      <c r="G7" s="6"/>
-      <c r="H7" s="6"/>
-      <c r="I7" s="6"/>
-      <c r="J7" s="6"/>
-      <c r="K7" s="6"/>
-      <c r="L7" s="6"/>
-      <c r="M7" s="6"/>
-      <c r="N7" s="6"/>
-      <c r="O7" s="6"/>
-      <c r="P7" s="6"/>
-      <c r="Q7" s="6"/>
-      <c r="R7" s="6"/>
-      <c r="S7" s="6"/>
-      <c r="T7" s="6"/>
-      <c r="U7" s="6"/>
-      <c r="V7" s="6"/>
-      <c r="W7" s="6"/>
-      <c r="X7" s="6"/>
-      <c r="Y7" s="6"/>
-      <c r="Z7" s="6"/>
-      <c r="AA7" s="6"/>
-      <c r="AB7" s="6"/>
-      <c r="AC7" s="6"/>
-      <c r="AD7" s="6"/>
-      <c r="AE7" s="183" t="s">
-        <v>41</v>
-      </c>
-      <c r="AF7" s="183"/>
-      <c r="AG7" s="183"/>
-      <c r="AH7" s="183"/>
-      <c r="AI7" s="183"/>
-      <c r="AJ7" s="184"/>
-    </row>
-    <row r="8" spans="1:36" ht="13.5" customHeight="1" thickBot="1">
-      <c r="A8" s="173"/>
-      <c r="B8" s="174"/>
-      <c r="C8" s="174"/>
-      <c r="D8" s="174"/>
-      <c r="E8" s="174"/>
-      <c r="F8" s="174"/>
-      <c r="G8" s="174"/>
-      <c r="H8" s="174"/>
-      <c r="I8" s="174"/>
-      <c r="J8" s="174"/>
-      <c r="K8" s="174"/>
-      <c r="L8" s="174"/>
-      <c r="M8" s="174"/>
-      <c r="N8" s="174"/>
-      <c r="O8" s="174"/>
-      <c r="P8" s="174"/>
-      <c r="Q8" s="174"/>
-      <c r="R8" s="174"/>
-      <c r="S8" s="174"/>
-      <c r="T8" s="174"/>
-      <c r="U8" s="174"/>
-      <c r="V8" s="174"/>
-      <c r="W8" s="174"/>
-      <c r="X8" s="174"/>
-      <c r="Y8" s="174"/>
-      <c r="Z8" s="174"/>
-      <c r="AA8" s="174"/>
-      <c r="AB8" s="174"/>
-      <c r="AC8" s="174"/>
-      <c r="AD8" s="174"/>
-      <c r="AE8" s="174"/>
-      <c r="AF8" s="174"/>
-      <c r="AG8" s="174"/>
-      <c r="AH8" s="174"/>
-      <c r="AI8" s="174"/>
-      <c r="AJ8" s="175"/>
-    </row>
-    <row r="9" spans="1:36" ht="30" customHeight="1">
-      <c r="A9" s="1"/>
-      <c r="B9" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="C9" s="2"/>
-      <c r="D9" s="8"/>
-      <c r="E9" s="2"/>
-      <c r="F9" s="2"/>
-      <c r="G9" s="9"/>
-      <c r="H9" s="9"/>
-      <c r="I9" s="9"/>
-      <c r="J9" s="9"/>
-      <c r="K9" s="9"/>
-      <c r="L9" s="9"/>
-      <c r="M9" s="10"/>
-      <c r="N9" s="10"/>
-      <c r="O9" s="11"/>
-      <c r="P9" s="8"/>
-      <c r="Q9" s="8"/>
-      <c r="R9" s="8"/>
-      <c r="S9" s="8"/>
-      <c r="T9" s="2"/>
-      <c r="U9" s="8"/>
-      <c r="V9" s="8"/>
-      <c r="W9" s="2"/>
-      <c r="X9" s="2"/>
-      <c r="Y9" s="2"/>
-      <c r="Z9" s="2"/>
-      <c r="AA9" s="2"/>
-      <c r="AB9" s="12"/>
-      <c r="AC9" s="2"/>
-      <c r="AD9" s="2"/>
-      <c r="AE9" s="12"/>
-      <c r="AF9" s="12"/>
-      <c r="AG9" s="13"/>
-      <c r="AH9" s="2"/>
-      <c r="AI9" s="2"/>
-      <c r="AJ9" s="3"/>
-    </row>
-    <row r="10" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A10" s="14"/>
-      <c r="B10" s="15"/>
-      <c r="C10" s="15"/>
-      <c r="D10" s="15"/>
-      <c r="E10" s="15"/>
-      <c r="I10" s="18"/>
-      <c r="J10" s="18"/>
-      <c r="K10" s="18"/>
-      <c r="L10" s="18"/>
-      <c r="M10" s="18"/>
-      <c r="N10" s="18"/>
-      <c r="R10" s="15"/>
-      <c r="U10" s="15"/>
-      <c r="W10" s="18"/>
-      <c r="X10" s="18"/>
-      <c r="Y10" s="18"/>
-      <c r="Z10" s="18"/>
-      <c r="AA10" s="18"/>
-      <c r="AB10" s="18"/>
-      <c r="AC10" s="16"/>
-      <c r="AD10" s="16"/>
-      <c r="AE10" s="16"/>
-      <c r="AF10" s="16"/>
-      <c r="AG10" s="16"/>
-      <c r="AH10" s="16"/>
-      <c r="AI10" s="16"/>
-      <c r="AJ10" s="17"/>
-    </row>
-    <row r="11" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A11" s="14"/>
-      <c r="B11" s="15"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="I11" s="18"/>
-      <c r="J11" s="18"/>
-      <c r="K11" s="18"/>
-      <c r="L11" s="18"/>
-      <c r="M11" s="18"/>
-      <c r="N11" s="18"/>
-      <c r="R11" s="15"/>
-      <c r="U11" s="15"/>
-      <c r="W11" s="106"/>
-      <c r="X11" s="106"/>
-      <c r="Y11" s="106"/>
-      <c r="Z11" s="106"/>
-      <c r="AA11" s="106"/>
-      <c r="AB11" s="106"/>
-      <c r="AC11" s="16"/>
-      <c r="AD11" s="16"/>
-      <c r="AE11" s="16"/>
-      <c r="AF11" s="16"/>
-      <c r="AG11" s="16"/>
-      <c r="AH11" s="16"/>
-      <c r="AI11" s="16"/>
-      <c r="AJ11" s="17"/>
-    </row>
-    <row r="12" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A12" s="14"/>
-      <c r="B12" s="15"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
-      <c r="E12" s="15"/>
-      <c r="I12" s="18"/>
-      <c r="J12" s="18"/>
-      <c r="K12" s="18"/>
-      <c r="L12" s="18"/>
-      <c r="M12" s="18"/>
-      <c r="N12" s="18"/>
-      <c r="R12" s="15"/>
-      <c r="U12" s="15"/>
-      <c r="W12" s="106"/>
-      <c r="X12" s="106"/>
-      <c r="Y12" s="106"/>
-      <c r="Z12" s="106"/>
-      <c r="AA12" s="106"/>
-      <c r="AB12" s="106"/>
-      <c r="AC12" s="16"/>
-      <c r="AD12" s="16"/>
-      <c r="AE12" s="16"/>
-      <c r="AF12" s="16"/>
-      <c r="AG12" s="16"/>
-      <c r="AH12" s="16"/>
-      <c r="AI12" s="16"/>
-      <c r="AJ12" s="17"/>
-    </row>
-    <row r="13" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A13" s="14"/>
-      <c r="B13" s="15"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="111"/>
-      <c r="E13" s="111"/>
-      <c r="F13" s="112"/>
-      <c r="G13" s="112"/>
-      <c r="H13" s="112"/>
-      <c r="I13" s="113"/>
-      <c r="J13" s="113"/>
-      <c r="K13" s="113"/>
-      <c r="L13" s="113"/>
-      <c r="M13" s="113"/>
-      <c r="N13" s="113"/>
-      <c r="O13" s="112"/>
-      <c r="P13" s="112"/>
-      <c r="Q13" s="112"/>
-      <c r="R13" s="111"/>
-      <c r="S13" s="112"/>
-      <c r="T13" s="112"/>
-      <c r="U13" s="111"/>
-      <c r="W13" s="106"/>
-      <c r="X13" s="106"/>
-      <c r="Y13" s="106"/>
-      <c r="Z13" s="106"/>
-      <c r="AA13" s="106"/>
-      <c r="AB13" s="106"/>
-      <c r="AC13" s="16"/>
-      <c r="AD13" s="16"/>
-      <c r="AE13" s="16"/>
-      <c r="AF13" s="16"/>
-      <c r="AG13" s="16"/>
-      <c r="AH13" s="16"/>
-      <c r="AI13" s="16"/>
-      <c r="AJ13" s="17"/>
-    </row>
-    <row r="14" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A14" s="14"/>
-      <c r="B14" s="15"/>
-      <c r="C14" s="15"/>
-      <c r="D14" s="111"/>
-      <c r="E14" s="111"/>
-      <c r="F14" s="112"/>
-      <c r="G14" s="112"/>
-      <c r="H14" s="112"/>
-      <c r="I14" s="113"/>
-      <c r="J14" s="113"/>
-      <c r="K14" s="113"/>
-      <c r="L14" s="113"/>
-      <c r="M14" s="113"/>
-      <c r="N14" s="113"/>
-      <c r="O14" s="112"/>
-      <c r="P14" s="112"/>
-      <c r="Q14" s="112"/>
-      <c r="R14" s="111"/>
-      <c r="S14" s="112"/>
-      <c r="T14" s="112"/>
-      <c r="U14" s="111"/>
-      <c r="W14" s="106"/>
-      <c r="X14" s="106"/>
-      <c r="Y14" s="106"/>
-      <c r="Z14" s="106"/>
-      <c r="AA14" s="106"/>
-      <c r="AB14" s="106"/>
-      <c r="AC14" s="16"/>
-      <c r="AD14" s="16"/>
-      <c r="AE14" s="16"/>
-      <c r="AF14" s="16"/>
-      <c r="AG14" s="16"/>
-      <c r="AH14" s="16"/>
-      <c r="AI14" s="16"/>
-      <c r="AJ14" s="17"/>
-    </row>
-    <row r="15" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A15" s="14"/>
-      <c r="B15" s="15"/>
-      <c r="C15" s="15"/>
-      <c r="D15" s="111"/>
-      <c r="E15" s="111"/>
-      <c r="F15" s="112"/>
-      <c r="G15" s="112"/>
-      <c r="H15" s="112"/>
-      <c r="I15" s="113"/>
-      <c r="J15" s="113"/>
-      <c r="K15" s="113"/>
-      <c r="L15" s="113"/>
-      <c r="M15" s="113"/>
-      <c r="N15" s="113"/>
-      <c r="O15" s="112"/>
-      <c r="P15" s="112"/>
-      <c r="Q15" s="112"/>
-      <c r="R15" s="111"/>
-      <c r="S15" s="112"/>
-      <c r="T15" s="112"/>
-      <c r="U15" s="111"/>
-      <c r="W15" s="106"/>
-      <c r="X15" s="106"/>
-      <c r="Y15" s="106"/>
-      <c r="Z15" s="106"/>
-      <c r="AA15" s="106"/>
-      <c r="AB15" s="106"/>
-      <c r="AC15" s="16"/>
-      <c r="AD15" s="16"/>
-      <c r="AE15" s="16"/>
-      <c r="AF15" s="16"/>
-      <c r="AG15" s="16"/>
-      <c r="AH15" s="16"/>
-      <c r="AI15" s="16"/>
-      <c r="AJ15" s="17"/>
-    </row>
-    <row r="16" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A16" s="14"/>
-      <c r="B16" s="15"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="111"/>
-      <c r="E16" s="111"/>
-      <c r="F16" s="112"/>
-      <c r="G16" s="112"/>
-      <c r="H16" s="112"/>
-      <c r="I16" s="113"/>
-      <c r="J16" s="113"/>
-      <c r="K16" s="113"/>
-      <c r="L16" s="113"/>
-      <c r="M16" s="113"/>
-      <c r="N16" s="113"/>
-      <c r="O16" s="112"/>
-      <c r="P16" s="112"/>
-      <c r="Q16" s="112"/>
-      <c r="R16" s="111"/>
-      <c r="S16" s="112"/>
-      <c r="T16" s="112"/>
-      <c r="U16" s="111"/>
-      <c r="W16" s="106"/>
-      <c r="X16" s="106"/>
-      <c r="Y16" s="106"/>
-      <c r="Z16" s="106"/>
-      <c r="AA16" s="106"/>
-      <c r="AB16" s="106"/>
-      <c r="AC16" s="16"/>
-      <c r="AD16" s="16"/>
-      <c r="AE16" s="16"/>
-      <c r="AF16" s="16"/>
-      <c r="AG16" s="16"/>
-      <c r="AH16" s="16"/>
-      <c r="AI16" s="16"/>
-      <c r="AJ16" s="17"/>
-    </row>
-    <row r="17" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A17" s="14"/>
-      <c r="B17" s="15"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="111"/>
-      <c r="E17" s="111"/>
-      <c r="F17" s="112"/>
-      <c r="G17" s="112"/>
-      <c r="H17" s="112"/>
-      <c r="I17" s="113"/>
-      <c r="J17" s="113"/>
-      <c r="K17" s="113"/>
-      <c r="L17" s="113"/>
-      <c r="M17" s="113"/>
-      <c r="N17" s="113"/>
-      <c r="O17" s="112"/>
-      <c r="P17" s="112"/>
-      <c r="Q17" s="112"/>
-      <c r="R17" s="111"/>
-      <c r="S17" s="112"/>
-      <c r="T17" s="112"/>
-      <c r="U17" s="111"/>
-      <c r="W17" s="106"/>
-      <c r="X17" s="106"/>
-      <c r="Y17" s="106"/>
-      <c r="Z17" s="106"/>
-      <c r="AA17" s="106"/>
-      <c r="AB17" s="106"/>
-      <c r="AC17" s="16"/>
-      <c r="AD17" s="16"/>
-      <c r="AE17" s="16"/>
-      <c r="AF17" s="16"/>
-      <c r="AG17" s="16"/>
-      <c r="AH17" s="16"/>
-      <c r="AI17" s="16"/>
-      <c r="AJ17" s="17"/>
-    </row>
-    <row r="18" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A18" s="14"/>
-      <c r="B18" s="15"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="111"/>
-      <c r="E18" s="111"/>
-      <c r="F18" s="112"/>
-      <c r="G18" s="112"/>
-      <c r="H18" s="112"/>
-      <c r="I18" s="113"/>
-      <c r="J18" s="113"/>
-      <c r="K18" s="113"/>
-      <c r="L18" s="113"/>
-      <c r="M18" s="113"/>
-      <c r="N18" s="113"/>
-      <c r="O18" s="112"/>
-      <c r="P18" s="112"/>
-      <c r="Q18" s="112"/>
-      <c r="R18" s="111"/>
-      <c r="S18" s="112"/>
-      <c r="T18" s="112"/>
-      <c r="U18" s="111"/>
-      <c r="W18" s="106"/>
-      <c r="X18" s="106"/>
-      <c r="Y18" s="106"/>
-      <c r="Z18" s="106"/>
-      <c r="AA18" s="106"/>
-      <c r="AB18" s="106"/>
-      <c r="AC18" s="16"/>
-      <c r="AD18" s="16"/>
-      <c r="AE18" s="16"/>
-      <c r="AF18" s="16"/>
-      <c r="AG18" s="16"/>
-      <c r="AH18" s="16"/>
-      <c r="AI18" s="16"/>
-      <c r="AJ18" s="17"/>
-    </row>
-    <row r="19" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A19" s="14"/>
-      <c r="B19" s="15"/>
-      <c r="C19" s="15"/>
-      <c r="D19" s="111"/>
-      <c r="E19" s="111"/>
-      <c r="F19" s="112"/>
-      <c r="G19" s="112"/>
-      <c r="H19" s="112"/>
-      <c r="I19" s="113"/>
-      <c r="J19" s="113"/>
-      <c r="K19" s="113"/>
-      <c r="L19" s="113"/>
-      <c r="M19" s="113"/>
-      <c r="N19" s="113"/>
-      <c r="O19" s="112"/>
-      <c r="P19" s="112"/>
-      <c r="Q19" s="112"/>
-      <c r="R19" s="111"/>
-      <c r="S19" s="112"/>
-      <c r="T19" s="112"/>
-      <c r="U19" s="111"/>
-      <c r="W19" s="106"/>
-      <c r="X19" s="106"/>
-      <c r="Y19" s="106"/>
-      <c r="Z19" s="106"/>
-      <c r="AA19" s="106"/>
-      <c r="AB19" s="106"/>
-      <c r="AC19" s="16"/>
-      <c r="AD19" s="16"/>
-      <c r="AE19" s="16"/>
-      <c r="AF19" s="16"/>
-      <c r="AG19" s="16"/>
-      <c r="AH19" s="16"/>
-      <c r="AI19" s="16"/>
-      <c r="AJ19" s="17"/>
-    </row>
-    <row r="20" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A20" s="14"/>
-      <c r="B20" s="15"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="111"/>
-      <c r="E20" s="111"/>
-      <c r="F20" s="112"/>
-      <c r="G20" s="112"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="113"/>
-      <c r="K20" s="113"/>
-      <c r="L20" s="113"/>
-      <c r="M20" s="113"/>
-      <c r="N20" s="113"/>
-      <c r="O20" s="112"/>
-      <c r="P20" s="112"/>
-      <c r="Q20" s="112"/>
-      <c r="R20" s="111"/>
-      <c r="S20" s="112"/>
-      <c r="T20" s="112"/>
-      <c r="U20" s="111"/>
-      <c r="W20" s="106"/>
-      <c r="X20" s="106"/>
-      <c r="Y20" s="106"/>
-      <c r="Z20" s="106"/>
-      <c r="AA20" s="106"/>
-      <c r="AB20" s="106"/>
-      <c r="AC20" s="16"/>
-      <c r="AD20" s="16"/>
-      <c r="AE20" s="16"/>
-      <c r="AF20" s="16"/>
-      <c r="AG20" s="16"/>
-      <c r="AH20" s="16"/>
-      <c r="AI20" s="16"/>
-      <c r="AJ20" s="17"/>
-    </row>
-    <row r="21" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A21" s="14"/>
-      <c r="B21" s="15"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="111"/>
-      <c r="E21" s="111"/>
-      <c r="F21" s="112"/>
-      <c r="G21" s="112"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="113"/>
-      <c r="K21" s="113"/>
-      <c r="L21" s="113"/>
-      <c r="M21" s="113"/>
-      <c r="N21" s="113"/>
-      <c r="O21" s="112"/>
-      <c r="P21" s="112"/>
-      <c r="Q21" s="112"/>
-      <c r="R21" s="111"/>
-      <c r="S21" s="112"/>
-      <c r="T21" s="112"/>
-      <c r="U21" s="111"/>
-      <c r="W21" s="106"/>
-      <c r="X21" s="106"/>
-      <c r="Y21" s="106"/>
-      <c r="Z21" s="106"/>
-      <c r="AA21" s="106"/>
-      <c r="AB21" s="106"/>
-      <c r="AC21" s="16"/>
-      <c r="AD21" s="16"/>
-      <c r="AE21" s="16"/>
-      <c r="AF21" s="16"/>
-      <c r="AG21" s="16"/>
-      <c r="AH21" s="16"/>
-      <c r="AI21" s="16"/>
-      <c r="AJ21" s="17"/>
-    </row>
-    <row r="22" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A22" s="14"/>
-      <c r="B22" s="15"/>
-      <c r="C22" s="15"/>
-      <c r="D22" s="111"/>
-      <c r="E22" s="111"/>
-      <c r="F22" s="112"/>
-      <c r="G22" s="112"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="113"/>
-      <c r="K22" s="113"/>
-      <c r="L22" s="113"/>
-      <c r="M22" s="113"/>
-      <c r="N22" s="113"/>
-      <c r="O22" s="112"/>
-      <c r="P22" s="112"/>
-      <c r="Q22" s="112"/>
-      <c r="R22" s="111"/>
-      <c r="S22" s="112"/>
-      <c r="T22" s="112"/>
-      <c r="U22" s="111"/>
-      <c r="W22" s="106"/>
-      <c r="X22" s="106"/>
-      <c r="Y22" s="106"/>
-      <c r="Z22" s="106"/>
-      <c r="AA22" s="106"/>
-      <c r="AB22" s="106"/>
-      <c r="AC22" s="16"/>
-      <c r="AD22" s="16"/>
-      <c r="AE22" s="16"/>
-      <c r="AF22" s="16"/>
-      <c r="AG22" s="16"/>
-      <c r="AH22" s="16"/>
-      <c r="AI22" s="16"/>
-      <c r="AJ22" s="17"/>
-    </row>
-    <row r="23" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A23" s="14"/>
-      <c r="B23" s="15"/>
-      <c r="C23" s="15"/>
-      <c r="D23" s="111"/>
-      <c r="E23" s="111"/>
-      <c r="F23" s="112"/>
-      <c r="G23" s="112"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="113"/>
-      <c r="K23" s="113"/>
-      <c r="L23" s="113"/>
-      <c r="M23" s="113"/>
-      <c r="N23" s="113"/>
-      <c r="O23" s="112"/>
-      <c r="P23" s="112"/>
-      <c r="Q23" s="112"/>
-      <c r="R23" s="111"/>
-      <c r="S23" s="112"/>
-      <c r="T23" s="112"/>
-      <c r="U23" s="111"/>
-      <c r="W23" s="106"/>
-      <c r="X23" s="106"/>
-      <c r="Y23" s="106"/>
-      <c r="Z23" s="106"/>
-      <c r="AA23" s="106"/>
-      <c r="AB23" s="106"/>
-      <c r="AC23" s="16"/>
-      <c r="AD23" s="16"/>
-      <c r="AE23" s="16"/>
-      <c r="AF23" s="16"/>
-      <c r="AG23" s="16"/>
-      <c r="AH23" s="16"/>
-      <c r="AI23" s="16"/>
-      <c r="AJ23" s="17"/>
-    </row>
-    <row r="24" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A24" s="14"/>
-      <c r="B24" s="15"/>
-      <c r="C24" s="15"/>
-      <c r="D24" s="111"/>
-      <c r="E24" s="111"/>
-      <c r="F24" s="112"/>
-      <c r="G24" s="112"/>
-      <c r="H24" s="112"/>
-      <c r="I24" s="113"/>
-      <c r="J24" s="113"/>
-      <c r="K24" s="113"/>
-      <c r="L24" s="113"/>
-      <c r="M24" s="113"/>
-      <c r="N24" s="113"/>
-      <c r="O24" s="112"/>
-      <c r="P24" s="112"/>
-      <c r="Q24" s="112"/>
-      <c r="R24" s="111"/>
-      <c r="S24" s="112"/>
-      <c r="T24" s="112"/>
-      <c r="U24" s="111"/>
-      <c r="W24" s="106"/>
-      <c r="X24" s="106"/>
-      <c r="Y24" s="106"/>
-      <c r="Z24" s="106"/>
-      <c r="AA24" s="106"/>
-      <c r="AB24" s="106"/>
-      <c r="AC24" s="16"/>
-      <c r="AD24" s="16"/>
-      <c r="AE24" s="16"/>
-      <c r="AF24" s="16"/>
-      <c r="AG24" s="16"/>
-      <c r="AH24" s="16"/>
-      <c r="AI24" s="16"/>
-      <c r="AJ24" s="17"/>
-    </row>
-    <row r="25" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A25" s="14"/>
-      <c r="B25" s="15"/>
-      <c r="C25" s="15"/>
-      <c r="D25" s="15"/>
-      <c r="E25" s="15"/>
-      <c r="I25" s="18"/>
-      <c r="J25" s="18"/>
-      <c r="K25" s="18"/>
-      <c r="L25" s="18"/>
-      <c r="M25" s="18"/>
-      <c r="N25" s="18"/>
-      <c r="R25" s="15"/>
-      <c r="U25" s="15"/>
-      <c r="W25" s="106"/>
-      <c r="X25" s="106"/>
-      <c r="Y25" s="106"/>
-      <c r="Z25" s="106"/>
-      <c r="AA25" s="106"/>
-      <c r="AB25" s="106"/>
-      <c r="AC25" s="16"/>
-      <c r="AD25" s="16"/>
-      <c r="AE25" s="16"/>
-      <c r="AF25" s="16"/>
-      <c r="AG25" s="16"/>
-      <c r="AH25" s="16"/>
-      <c r="AI25" s="16"/>
-      <c r="AJ25" s="17"/>
-    </row>
-    <row r="26" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A26" s="14"/>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="I26" s="18"/>
-      <c r="J26" s="18"/>
-      <c r="K26" s="18"/>
-      <c r="L26" s="18"/>
-      <c r="M26" s="18"/>
-      <c r="N26" s="18"/>
-      <c r="R26" s="15"/>
-      <c r="U26" s="15"/>
-      <c r="W26" s="106"/>
-      <c r="X26" s="106"/>
-      <c r="Y26" s="106"/>
-      <c r="Z26" s="106"/>
-      <c r="AA26" s="106"/>
-      <c r="AB26" s="106"/>
-      <c r="AC26" s="16"/>
-      <c r="AD26" s="16"/>
-      <c r="AE26" s="16"/>
-      <c r="AF26" s="16"/>
-      <c r="AG26" s="16"/>
-      <c r="AH26" s="16"/>
-      <c r="AI26" s="16"/>
-      <c r="AJ26" s="17"/>
-    </row>
-    <row r="27" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A27" s="14"/>
-      <c r="B27" s="15"/>
-      <c r="C27" s="15"/>
-      <c r="D27" s="15"/>
-      <c r="E27" s="15"/>
-      <c r="I27" s="18"/>
-      <c r="J27" s="18"/>
-      <c r="K27" s="18"/>
-      <c r="L27" s="18"/>
-      <c r="M27" s="18"/>
-      <c r="N27" s="18"/>
-      <c r="R27" s="15"/>
-      <c r="U27" s="15"/>
-      <c r="W27" s="106"/>
-      <c r="X27" s="106"/>
-      <c r="Y27" s="106"/>
-      <c r="Z27" s="106"/>
-      <c r="AA27" s="106"/>
-      <c r="AB27" s="106"/>
-      <c r="AC27" s="16"/>
-      <c r="AD27" s="16"/>
-      <c r="AE27" s="16"/>
-      <c r="AF27" s="16"/>
-      <c r="AG27" s="16"/>
-      <c r="AH27" s="16"/>
-      <c r="AI27" s="16"/>
-      <c r="AJ27" s="17"/>
-    </row>
-    <row r="28" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A28" s="14"/>
-      <c r="B28" s="15"/>
-      <c r="C28" s="15"/>
-      <c r="D28" s="15"/>
-      <c r="E28" s="15"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="R28" s="15"/>
-      <c r="U28" s="15"/>
-      <c r="W28" s="106"/>
-      <c r="X28" s="106"/>
-      <c r="Y28" s="106"/>
-      <c r="Z28" s="106"/>
-      <c r="AA28" s="106"/>
-      <c r="AB28" s="106"/>
-      <c r="AC28" s="16"/>
-      <c r="AD28" s="16"/>
-      <c r="AE28" s="16"/>
-      <c r="AF28" s="16"/>
-      <c r="AG28" s="16"/>
-      <c r="AH28" s="16"/>
-      <c r="AI28" s="16"/>
-      <c r="AJ28" s="17"/>
-    </row>
-    <row r="29" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A29" s="14"/>
-      <c r="B29" s="15"/>
-      <c r="C29" s="15"/>
-      <c r="D29" s="15"/>
-      <c r="E29" s="15"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="R29" s="15"/>
-      <c r="U29" s="15"/>
-      <c r="W29" s="106"/>
-      <c r="X29" s="106"/>
-      <c r="Y29" s="106"/>
-      <c r="Z29" s="106"/>
-      <c r="AA29" s="106"/>
-      <c r="AB29" s="106"/>
-      <c r="AC29" s="16"/>
-      <c r="AD29" s="16"/>
-      <c r="AE29" s="16"/>
-      <c r="AF29" s="16"/>
-      <c r="AG29" s="16"/>
-      <c r="AH29" s="16"/>
-      <c r="AI29" s="16"/>
-      <c r="AJ29" s="17"/>
-    </row>
-    <row r="30" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A30" s="14"/>
-      <c r="B30" s="15"/>
-      <c r="C30" s="15"/>
-      <c r="D30" s="15"/>
-      <c r="E30" s="15"/>
-      <c r="I30" s="18"/>
-      <c r="J30" s="18"/>
-      <c r="K30" s="18"/>
-      <c r="L30" s="18"/>
-      <c r="M30" s="18"/>
-      <c r="N30" s="18"/>
-      <c r="R30" s="15"/>
-      <c r="U30" s="15"/>
-      <c r="W30" s="106"/>
-      <c r="X30" s="106"/>
-      <c r="Y30" s="106"/>
-      <c r="Z30" s="106"/>
-      <c r="AA30" s="106"/>
-      <c r="AB30" s="106"/>
-      <c r="AC30" s="16"/>
-      <c r="AD30" s="16"/>
-      <c r="AE30" s="16"/>
-      <c r="AF30" s="16"/>
-      <c r="AG30" s="16"/>
-      <c r="AH30" s="16"/>
-      <c r="AI30" s="16"/>
-      <c r="AJ30" s="17"/>
-    </row>
-    <row r="31" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A31" s="14"/>
-      <c r="B31" s="15"/>
-      <c r="C31" s="15"/>
-      <c r="D31" s="15"/>
-      <c r="E31" s="15"/>
-      <c r="I31" s="18"/>
-      <c r="J31" s="18"/>
-      <c r="K31" s="18"/>
-      <c r="L31" s="18"/>
-      <c r="M31" s="18"/>
-      <c r="N31" s="18"/>
-      <c r="R31" s="15"/>
-      <c r="U31" s="15"/>
-      <c r="W31" s="106"/>
-      <c r="X31" s="106"/>
-      <c r="Y31" s="106"/>
-      <c r="Z31" s="106"/>
-      <c r="AA31" s="106"/>
-      <c r="AB31" s="106"/>
-      <c r="AC31" s="16"/>
-      <c r="AD31" s="16"/>
-      <c r="AE31" s="16"/>
-      <c r="AF31" s="16"/>
-      <c r="AG31" s="16"/>
-      <c r="AH31" s="16"/>
-      <c r="AI31" s="16"/>
-      <c r="AJ31" s="17"/>
-    </row>
-    <row r="32" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A32" s="14"/>
-      <c r="B32" s="15"/>
-      <c r="C32" s="15"/>
-      <c r="D32" s="15"/>
-      <c r="E32" s="15"/>
-      <c r="I32" s="18"/>
-      <c r="J32" s="18"/>
-      <c r="K32" s="18"/>
-      <c r="L32" s="18"/>
-      <c r="M32" s="18"/>
-      <c r="N32" s="18"/>
-      <c r="R32" s="15"/>
-      <c r="U32" s="15"/>
-      <c r="W32" s="106"/>
-      <c r="X32" s="106"/>
-      <c r="Y32" s="106"/>
-      <c r="Z32" s="106"/>
-      <c r="AA32" s="106"/>
-      <c r="AB32" s="106"/>
-      <c r="AC32" s="16"/>
-      <c r="AD32" s="16"/>
-      <c r="AE32" s="16"/>
-      <c r="AF32" s="16"/>
-      <c r="AG32" s="16"/>
-      <c r="AH32" s="16"/>
-      <c r="AI32" s="16"/>
-      <c r="AJ32" s="17"/>
-    </row>
-    <row r="33" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A33" s="14"/>
-      <c r="B33" s="15"/>
-      <c r="C33" s="15"/>
-      <c r="D33" s="15"/>
-      <c r="E33" s="15"/>
-      <c r="I33" s="18"/>
-      <c r="J33" s="18"/>
-      <c r="K33" s="18"/>
-      <c r="L33" s="18"/>
-      <c r="M33" s="18"/>
-      <c r="N33" s="18"/>
-      <c r="R33" s="15"/>
-      <c r="U33" s="15"/>
-      <c r="W33" s="106"/>
-      <c r="X33" s="106"/>
-      <c r="Y33" s="106"/>
-      <c r="Z33" s="106"/>
-      <c r="AA33" s="106"/>
-      <c r="AB33" s="106"/>
-      <c r="AC33" s="16"/>
-      <c r="AD33" s="16"/>
-      <c r="AE33" s="16"/>
-      <c r="AF33" s="16"/>
-      <c r="AG33" s="16"/>
-      <c r="AH33" s="16"/>
-      <c r="AI33" s="16"/>
-      <c r="AJ33" s="17"/>
-    </row>
-    <row r="34" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A34" s="14"/>
-      <c r="B34" s="15"/>
-      <c r="C34" s="15"/>
-      <c r="D34" s="15"/>
-      <c r="E34" s="15"/>
-      <c r="I34" s="18"/>
-      <c r="J34" s="18"/>
-      <c r="K34" s="18"/>
-      <c r="L34" s="18"/>
-      <c r="M34" s="18"/>
-      <c r="N34" s="18"/>
-      <c r="R34" s="15"/>
-      <c r="U34" s="15"/>
-      <c r="W34" s="106"/>
-      <c r="X34" s="106"/>
-      <c r="Y34" s="106"/>
-      <c r="Z34" s="106"/>
-      <c r="AA34" s="106"/>
-      <c r="AB34" s="106"/>
-      <c r="AC34" s="16"/>
-      <c r="AD34" s="16"/>
-      <c r="AE34" s="16"/>
-      <c r="AF34" s="16"/>
-      <c r="AG34" s="16"/>
-      <c r="AH34" s="16"/>
-      <c r="AI34" s="16"/>
-      <c r="AJ34" s="17"/>
-    </row>
-    <row r="35" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A35" s="14"/>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="I35" s="18"/>
-      <c r="J35" s="18"/>
-      <c r="K35" s="18"/>
-      <c r="L35" s="18"/>
-      <c r="M35" s="18"/>
-      <c r="N35" s="18"/>
-      <c r="R35" s="15"/>
-      <c r="U35" s="15"/>
-      <c r="W35" s="106"/>
-      <c r="X35" s="106"/>
-      <c r="Y35" s="106"/>
-      <c r="Z35" s="106"/>
-      <c r="AA35" s="106"/>
-      <c r="AB35" s="106"/>
-      <c r="AC35" s="16"/>
-      <c r="AD35" s="16"/>
-      <c r="AE35" s="16"/>
-      <c r="AF35" s="16"/>
-      <c r="AG35" s="16"/>
-      <c r="AH35" s="16"/>
-      <c r="AI35" s="16"/>
-      <c r="AJ35" s="17"/>
-    </row>
-    <row r="36" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A36" s="14"/>
-      <c r="B36" s="15"/>
-      <c r="C36" s="15"/>
-      <c r="D36" s="15"/>
-      <c r="E36" s="15"/>
-      <c r="I36" s="18"/>
-      <c r="J36" s="18"/>
-      <c r="K36" s="18"/>
-      <c r="L36" s="18"/>
-      <c r="M36" s="18"/>
-      <c r="N36" s="18"/>
-      <c r="R36" s="15"/>
-      <c r="U36" s="15"/>
-      <c r="W36" s="106"/>
-      <c r="X36" s="106"/>
-      <c r="Y36" s="106"/>
-      <c r="Z36" s="106"/>
-      <c r="AA36" s="106"/>
-      <c r="AB36" s="106"/>
-      <c r="AC36" s="16"/>
-      <c r="AD36" s="16"/>
-      <c r="AE36" s="16"/>
-      <c r="AF36" s="16"/>
-      <c r="AG36" s="16"/>
-      <c r="AH36" s="16"/>
-      <c r="AI36" s="16"/>
-      <c r="AJ36" s="17"/>
-    </row>
-    <row r="37" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A37" s="14"/>
-      <c r="B37" s="15"/>
-      <c r="C37" s="15"/>
-      <c r="D37" s="15"/>
-      <c r="E37" s="15"/>
-      <c r="I37" s="18"/>
-      <c r="J37" s="18"/>
-      <c r="K37" s="18"/>
-      <c r="L37" s="18"/>
-      <c r="M37" s="18"/>
-      <c r="N37" s="18"/>
-      <c r="R37" s="15"/>
-      <c r="U37" s="15"/>
-      <c r="W37" s="106"/>
-      <c r="X37" s="106"/>
-      <c r="Y37" s="106"/>
-      <c r="Z37" s="106"/>
-      <c r="AA37" s="106"/>
-      <c r="AB37" s="106"/>
-      <c r="AC37" s="16"/>
-      <c r="AD37" s="16"/>
-      <c r="AE37" s="16"/>
-      <c r="AF37" s="16"/>
-      <c r="AG37" s="16"/>
-      <c r="AH37" s="16"/>
-      <c r="AI37" s="16"/>
-      <c r="AJ37" s="17"/>
-    </row>
-    <row r="38" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A38" s="14"/>
-      <c r="B38" s="15"/>
-      <c r="C38" s="15"/>
-      <c r="D38" s="15"/>
-      <c r="E38" s="15"/>
-      <c r="I38" s="18"/>
-      <c r="J38" s="18"/>
-      <c r="K38" s="18"/>
-      <c r="L38" s="18"/>
-      <c r="M38" s="18"/>
-      <c r="N38" s="18"/>
-      <c r="R38" s="15"/>
-      <c r="U38" s="15"/>
-      <c r="W38" s="106"/>
-      <c r="X38" s="106"/>
-      <c r="Y38" s="106"/>
-      <c r="Z38" s="106"/>
-      <c r="AA38" s="106"/>
-      <c r="AB38" s="106"/>
-      <c r="AC38" s="16"/>
-      <c r="AD38" s="16"/>
-      <c r="AE38" s="16"/>
-      <c r="AF38" s="16"/>
-      <c r="AG38" s="16"/>
-      <c r="AH38" s="16"/>
-      <c r="AI38" s="16"/>
-      <c r="AJ38" s="17"/>
-    </row>
-    <row r="39" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A39" s="14"/>
-      <c r="B39" s="15"/>
-      <c r="C39" s="15"/>
-      <c r="D39" s="15"/>
-      <c r="E39" s="15"/>
-      <c r="I39" s="18"/>
-      <c r="J39" s="18"/>
-      <c r="K39" s="18"/>
-      <c r="L39" s="18"/>
-      <c r="M39" s="18"/>
-      <c r="N39" s="18"/>
-      <c r="R39" s="15"/>
-      <c r="U39" s="15"/>
-      <c r="W39" s="106"/>
-      <c r="X39" s="106"/>
-      <c r="Y39" s="106"/>
-      <c r="Z39" s="106"/>
-      <c r="AA39" s="106"/>
-      <c r="AB39" s="106"/>
-      <c r="AC39" s="16"/>
-      <c r="AD39" s="16"/>
-      <c r="AE39" s="16"/>
-      <c r="AF39" s="16"/>
-      <c r="AG39" s="16"/>
-      <c r="AH39" s="16"/>
-      <c r="AI39" s="16"/>
-      <c r="AJ39" s="17"/>
-    </row>
-    <row r="40" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A40" s="14"/>
-      <c r="B40" s="15"/>
-      <c r="C40" s="15"/>
-      <c r="D40" s="15"/>
-      <c r="E40" s="15"/>
-      <c r="I40" s="18"/>
-      <c r="J40" s="18"/>
-      <c r="K40" s="18"/>
-      <c r="L40" s="18"/>
-      <c r="M40" s="18"/>
-      <c r="N40" s="18"/>
-      <c r="R40" s="15"/>
-      <c r="U40" s="15"/>
-      <c r="W40" s="106"/>
-      <c r="X40" s="106"/>
-      <c r="Y40" s="106"/>
-      <c r="Z40" s="106"/>
-      <c r="AA40" s="106"/>
-      <c r="AB40" s="106"/>
-      <c r="AC40" s="16"/>
-      <c r="AD40" s="16"/>
-      <c r="AE40" s="16"/>
-      <c r="AF40" s="16"/>
-      <c r="AG40" s="16"/>
-      <c r="AH40" s="16"/>
-      <c r="AI40" s="16"/>
-      <c r="AJ40" s="17"/>
-    </row>
-    <row r="41" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A41" s="14"/>
-      <c r="B41" s="15"/>
-      <c r="C41" s="15"/>
-      <c r="D41" s="15"/>
-      <c r="E41" s="15"/>
-      <c r="I41" s="18"/>
-      <c r="J41" s="18"/>
-      <c r="K41" s="18"/>
-      <c r="L41" s="18"/>
-      <c r="M41" s="18"/>
-      <c r="N41" s="18"/>
-      <c r="R41" s="15"/>
-      <c r="U41" s="15"/>
-      <c r="W41" s="106"/>
-      <c r="X41" s="106"/>
-      <c r="Y41" s="106"/>
-      <c r="Z41" s="106"/>
-      <c r="AA41" s="106"/>
-      <c r="AB41" s="106"/>
-      <c r="AC41" s="16"/>
-      <c r="AD41" s="16"/>
-      <c r="AE41" s="16"/>
-      <c r="AF41" s="16"/>
-      <c r="AG41" s="16"/>
-      <c r="AH41" s="16"/>
-      <c r="AI41" s="16"/>
-      <c r="AJ41" s="17"/>
-    </row>
-    <row r="42" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A42" s="14"/>
-      <c r="B42" s="15"/>
-      <c r="C42" s="15"/>
-      <c r="D42" s="15"/>
-      <c r="E42" s="15"/>
-      <c r="I42" s="18"/>
-      <c r="J42" s="18"/>
-      <c r="K42" s="18"/>
-      <c r="L42" s="18"/>
-      <c r="M42" s="18"/>
-      <c r="N42" s="18"/>
-      <c r="R42" s="15"/>
-      <c r="U42" s="15"/>
-      <c r="W42" s="106"/>
-      <c r="X42" s="106"/>
-      <c r="Y42" s="106"/>
-      <c r="Z42" s="106"/>
-      <c r="AA42" s="106"/>
-      <c r="AB42" s="106"/>
-      <c r="AC42" s="16"/>
-      <c r="AD42" s="16"/>
-      <c r="AE42" s="16"/>
-      <c r="AF42" s="16"/>
-      <c r="AG42" s="16"/>
-      <c r="AH42" s="16"/>
-      <c r="AI42" s="16"/>
-      <c r="AJ42" s="17"/>
-    </row>
-    <row r="43" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A43" s="14"/>
-      <c r="B43" s="15"/>
-      <c r="C43" s="15"/>
-      <c r="D43" s="15"/>
-      <c r="E43" s="15"/>
-      <c r="I43" s="18"/>
-      <c r="J43" s="18"/>
-      <c r="K43" s="18"/>
-      <c r="L43" s="18"/>
-      <c r="M43" s="18"/>
-      <c r="N43" s="18"/>
-      <c r="R43" s="15"/>
-      <c r="U43" s="15"/>
-      <c r="W43" s="106"/>
-      <c r="X43" s="106"/>
-      <c r="Y43" s="106"/>
-      <c r="Z43" s="106"/>
-      <c r="AA43" s="106"/>
-      <c r="AB43" s="106"/>
-      <c r="AC43" s="16"/>
-      <c r="AD43" s="16"/>
-      <c r="AE43" s="16"/>
-      <c r="AF43" s="16"/>
-      <c r="AG43" s="16"/>
-      <c r="AH43" s="16"/>
-      <c r="AI43" s="16"/>
-      <c r="AJ43" s="17"/>
-    </row>
-    <row r="44" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A44" s="14"/>
-      <c r="B44" s="15"/>
-      <c r="C44" s="15"/>
-      <c r="D44" s="15"/>
-      <c r="E44" s="15"/>
-      <c r="I44" s="18"/>
-      <c r="J44" s="18"/>
-      <c r="K44" s="18"/>
-      <c r="L44" s="18"/>
-      <c r="M44" s="18"/>
-      <c r="N44" s="18"/>
-      <c r="R44" s="15"/>
-      <c r="U44" s="15"/>
-      <c r="W44" s="106"/>
-      <c r="X44" s="106"/>
-      <c r="Y44" s="106"/>
-      <c r="Z44" s="106"/>
-      <c r="AA44" s="106"/>
-      <c r="AB44" s="106"/>
-      <c r="AC44" s="16"/>
-      <c r="AD44" s="16"/>
-      <c r="AE44" s="16"/>
-      <c r="AF44" s="16"/>
-      <c r="AG44" s="16"/>
-      <c r="AH44" s="16"/>
-      <c r="AI44" s="16"/>
-      <c r="AJ44" s="17"/>
-    </row>
-    <row r="45" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A45" s="14"/>
-      <c r="B45" s="15"/>
-      <c r="C45" s="15"/>
-      <c r="D45" s="15"/>
-      <c r="E45" s="15"/>
-      <c r="I45" s="18"/>
-      <c r="J45" s="18"/>
-      <c r="K45" s="18"/>
-      <c r="L45" s="18"/>
-      <c r="M45" s="18"/>
-      <c r="N45" s="18"/>
-      <c r="R45" s="15"/>
-      <c r="S45" s="15"/>
-      <c r="U45" s="18"/>
-      <c r="V45" s="18"/>
-      <c r="W45" s="18"/>
-      <c r="X45" s="18"/>
-      <c r="Y45" s="18"/>
-      <c r="Z45" s="18"/>
-      <c r="AA45" s="18"/>
-      <c r="AB45" s="18"/>
-      <c r="AC45" s="16"/>
-      <c r="AD45" s="16"/>
-      <c r="AE45" s="16"/>
-      <c r="AF45" s="16"/>
-      <c r="AG45" s="16"/>
-      <c r="AH45" s="16"/>
-      <c r="AI45" s="16"/>
-      <c r="AJ45" s="17"/>
-    </row>
-    <row r="46" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A46" s="14"/>
-      <c r="B46" s="15"/>
-      <c r="C46" s="15"/>
-      <c r="D46" s="15"/>
-      <c r="E46" s="15"/>
-      <c r="I46" s="18"/>
-      <c r="J46" s="18"/>
-      <c r="K46" s="18"/>
-      <c r="L46" s="18"/>
-      <c r="M46" s="18"/>
-      <c r="N46" s="18"/>
-      <c r="O46" s="15"/>
-      <c r="P46" s="15"/>
-      <c r="Q46" s="15"/>
-      <c r="S46" s="15"/>
-      <c r="U46" s="18"/>
-      <c r="V46" s="18"/>
-      <c r="W46" s="18"/>
-      <c r="X46" s="18"/>
-      <c r="Y46" s="18"/>
-      <c r="Z46" s="18"/>
-      <c r="AA46" s="18"/>
-      <c r="AB46" s="18"/>
-      <c r="AC46" s="16"/>
-      <c r="AD46" s="16"/>
-      <c r="AE46" s="16"/>
-      <c r="AF46" s="16"/>
-      <c r="AG46" s="16"/>
-      <c r="AH46" s="16"/>
-      <c r="AI46" s="16"/>
-      <c r="AJ46" s="17"/>
-    </row>
-    <row r="47" spans="1:36" ht="29.25" customHeight="1">
-      <c r="A47" s="14"/>
-      <c r="B47" s="19"/>
-      <c r="C47" s="19"/>
-      <c r="D47" s="19"/>
-      <c r="E47" s="19"/>
-      <c r="I47" s="18"/>
-      <c r="J47" s="18"/>
-      <c r="K47" s="18"/>
-      <c r="L47" s="18"/>
-      <c r="M47" s="18"/>
-      <c r="N47" s="18"/>
-      <c r="O47" s="15"/>
-      <c r="P47" s="15"/>
-      <c r="Q47" s="19"/>
-      <c r="R47" s="19"/>
-      <c r="S47" s="18"/>
-      <c r="T47" s="15"/>
-      <c r="U47" s="15"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="18"/>
-      <c r="X47" s="18"/>
-      <c r="Y47" s="18"/>
-      <c r="Z47" s="18"/>
-      <c r="AA47" s="18"/>
-      <c r="AB47" s="18"/>
-      <c r="AC47" s="16"/>
-      <c r="AD47" s="16"/>
-      <c r="AE47" s="16"/>
-      <c r="AF47" s="16"/>
-      <c r="AG47" s="16"/>
-      <c r="AH47" s="16"/>
-      <c r="AI47" s="16"/>
-      <c r="AJ47" s="17"/>
-    </row>
-    <row r="48" spans="1:36" ht="29.25" customHeight="1" thickBot="1">
-      <c r="A48" s="21"/>
-      <c r="B48" s="22"/>
-      <c r="C48" s="23"/>
-      <c r="D48" s="23"/>
-      <c r="E48" s="23"/>
-      <c r="F48" s="23"/>
-      <c r="G48" s="23"/>
-      <c r="H48" s="23"/>
-      <c r="I48" s="23"/>
-      <c r="J48" s="23"/>
-      <c r="K48" s="23"/>
-      <c r="L48" s="23"/>
-      <c r="M48" s="23"/>
-      <c r="N48" s="23"/>
-      <c r="O48" s="23"/>
-      <c r="P48" s="22"/>
-      <c r="Q48" s="22"/>
-      <c r="R48" s="24"/>
-      <c r="S48" s="24"/>
-      <c r="T48" s="23"/>
-      <c r="U48" s="23"/>
-      <c r="V48" s="23"/>
-      <c r="W48" s="23"/>
-      <c r="X48" s="23"/>
-      <c r="Y48" s="23"/>
-      <c r="Z48" s="23"/>
-      <c r="AA48" s="23"/>
-      <c r="AB48" s="23"/>
-      <c r="AC48" s="23"/>
-      <c r="AD48" s="23"/>
-      <c r="AE48" s="23"/>
-      <c r="AF48" s="23"/>
-      <c r="AG48" s="23"/>
-      <c r="AH48" s="23"/>
-      <c r="AI48" s="22"/>
-      <c r="AJ48" s="25"/>
-    </row>
-    <row r="49" spans="1:54" ht="27" customHeight="1" thickBot="1">
-      <c r="A49" s="63"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="64"/>
-      <c r="E49" s="64"/>
-      <c r="F49" s="64"/>
-      <c r="G49" s="64"/>
-      <c r="H49" s="64"/>
-      <c r="I49" s="64"/>
-      <c r="J49" s="64"/>
-      <c r="K49" s="64"/>
-      <c r="L49" s="64"/>
-      <c r="M49" s="64"/>
-      <c r="N49" s="65"/>
-      <c r="O49" s="65"/>
-      <c r="P49" s="65"/>
-      <c r="AJ49" s="51"/>
-    </row>
-    <row r="50" spans="1:54" ht="0.75" customHeight="1" thickBot="1">
-      <c r="A50" s="49"/>
-      <c r="AJ50" s="51"/>
-      <c r="AK50" s="66"/>
-      <c r="AL50" s="67"/>
-      <c r="AM50" s="67"/>
-      <c r="AN50" s="67"/>
-      <c r="AO50" s="64"/>
-    </row>
-    <row r="51" spans="1:54" ht="46.5" customHeight="1">
-      <c r="A51" s="68" t="s">
-        <v>0</v>
-      </c>
-      <c r="B51" s="8"/>
-      <c r="C51" s="8"/>
-      <c r="D51" s="8"/>
-      <c r="E51" s="8"/>
-      <c r="F51" s="69"/>
-      <c r="G51" s="70"/>
-      <c r="H51" s="71"/>
-      <c r="I51" s="71"/>
-      <c r="J51" s="71"/>
-      <c r="K51" s="72"/>
-      <c r="L51" s="72"/>
-      <c r="M51" s="72"/>
-      <c r="N51" s="72"/>
-      <c r="O51" s="73"/>
-      <c r="P51" s="73"/>
-      <c r="Q51" s="73"/>
-      <c r="R51" s="73"/>
-      <c r="S51" s="73"/>
-      <c r="T51" s="73"/>
-      <c r="U51" s="73"/>
-      <c r="V51" s="73"/>
-      <c r="W51" s="73"/>
-      <c r="X51" s="73"/>
-      <c r="Y51" s="73"/>
-      <c r="Z51" s="73"/>
-      <c r="AA51" s="73"/>
-      <c r="AB51" s="73"/>
-      <c r="AC51" s="73"/>
-      <c r="AD51" s="73"/>
-      <c r="AE51" s="73"/>
-      <c r="AF51" s="73"/>
-      <c r="AG51" s="73"/>
-      <c r="AH51" s="73"/>
-      <c r="AI51" s="73"/>
-      <c r="AJ51" s="74"/>
-      <c r="AL51" s="67"/>
-      <c r="AM51" s="67"/>
-      <c r="AN51" s="67"/>
-      <c r="AO51" s="64"/>
-      <c r="AP51" s="64"/>
-      <c r="AQ51" s="64"/>
-      <c r="AR51" s="64"/>
-      <c r="AS51" s="64"/>
-      <c r="AT51" s="64"/>
-      <c r="AU51" s="64"/>
-      <c r="AV51" s="64"/>
-      <c r="AW51" s="64"/>
-      <c r="AX51" s="64"/>
-      <c r="AY51" s="64"/>
-      <c r="AZ51" s="64"/>
-      <c r="BA51" s="64"/>
-      <c r="BB51" s="64"/>
-    </row>
-    <row r="52" spans="1:54" ht="46.5" customHeight="1">
-      <c r="A52" s="75"/>
-      <c r="B52" s="76"/>
-      <c r="C52" s="76"/>
-      <c r="D52" s="76"/>
-      <c r="E52" s="76"/>
-      <c r="F52" s="77"/>
-      <c r="G52" s="78"/>
-      <c r="H52" s="78"/>
-      <c r="I52" s="78"/>
-      <c r="J52" s="78"/>
-      <c r="K52" s="78"/>
-      <c r="L52" s="78"/>
-      <c r="M52" s="78"/>
-      <c r="N52" s="78"/>
-      <c r="O52" s="79"/>
-      <c r="P52" s="79"/>
-      <c r="Q52" s="79"/>
-      <c r="R52" s="79"/>
-      <c r="S52" s="79"/>
-      <c r="T52" s="79"/>
-      <c r="U52" s="79"/>
-      <c r="V52" s="79"/>
-      <c r="W52" s="79"/>
-      <c r="X52" s="79"/>
-      <c r="Y52" s="79"/>
-      <c r="Z52" s="79"/>
-      <c r="AA52" s="79"/>
-      <c r="AB52" s="79"/>
-      <c r="AC52" s="79"/>
-      <c r="AD52" s="79"/>
-      <c r="AE52" s="79"/>
-      <c r="AF52" s="79"/>
-      <c r="AG52" s="79"/>
-      <c r="AH52" s="79"/>
-      <c r="AI52" s="79"/>
-      <c r="AJ52" s="80"/>
-      <c r="AL52" s="67"/>
-      <c r="AM52" s="67"/>
-      <c r="AN52" s="67"/>
-      <c r="AO52" s="81"/>
-      <c r="AP52" s="81"/>
-      <c r="AQ52" s="81"/>
-      <c r="AR52" s="64"/>
-      <c r="AS52" s="64"/>
-      <c r="AT52" s="64"/>
-      <c r="AU52" s="64"/>
-      <c r="AV52" s="64"/>
-      <c r="AW52" s="64"/>
-      <c r="AX52" s="64"/>
-      <c r="AY52" s="64"/>
-      <c r="AZ52" s="64"/>
-      <c r="BA52" s="64"/>
-      <c r="BB52" s="64"/>
-    </row>
-    <row r="53" spans="1:54" s="16" customFormat="1" ht="46.5" customHeight="1">
-      <c r="A53" s="14"/>
-      <c r="G53" s="32"/>
-      <c r="H53" s="32"/>
-      <c r="I53" s="32"/>
-      <c r="J53" s="32"/>
-      <c r="K53" s="32"/>
-      <c r="L53" s="32"/>
-      <c r="M53" s="32"/>
-      <c r="N53" s="32"/>
-      <c r="O53" s="32"/>
-      <c r="Q53" s="128"/>
-      <c r="R53" s="128"/>
-      <c r="S53" s="128"/>
-      <c r="T53" s="128"/>
-      <c r="Z53" s="82"/>
-      <c r="AA53" s="82"/>
-      <c r="AB53" s="128"/>
-      <c r="AC53" s="128"/>
-      <c r="AD53" s="128"/>
-      <c r="AE53" s="128"/>
-      <c r="AF53" s="83"/>
-      <c r="AG53" s="83"/>
-      <c r="AH53" s="83"/>
-      <c r="AI53" s="83"/>
-      <c r="AJ53" s="17"/>
-    </row>
-    <row r="54" spans="1:54" s="16" customFormat="1" ht="18.75" customHeight="1">
-      <c r="A54" s="130" t="s">
-        <v>53</v>
-      </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="131"/>
-      <c r="D54" s="131"/>
-      <c r="E54" s="131"/>
-      <c r="F54" s="131"/>
-      <c r="G54" s="107"/>
-      <c r="H54" s="107"/>
-      <c r="I54" s="107"/>
-      <c r="J54" s="108"/>
-      <c r="K54" s="107"/>
-      <c r="L54" s="109"/>
-      <c r="M54" s="107" t="s">
-        <v>54</v>
-      </c>
-      <c r="N54" s="107"/>
-      <c r="O54" s="107"/>
-      <c r="P54" s="107"/>
-      <c r="Q54" s="107"/>
-      <c r="R54" s="107"/>
-      <c r="S54" s="108"/>
-      <c r="T54" s="107"/>
-      <c r="U54" s="107"/>
-      <c r="V54" s="107" t="s">
-        <v>55</v>
-      </c>
-      <c r="W54" s="107"/>
-      <c r="X54" s="107"/>
-      <c r="Y54" s="107"/>
-      <c r="Z54" s="107"/>
-      <c r="AA54" s="107"/>
-      <c r="AB54" s="108" t="s">
-        <v>51</v>
-      </c>
-      <c r="AC54" s="107"/>
-      <c r="AD54" s="107"/>
-      <c r="AE54" s="107"/>
-      <c r="AF54" s="107"/>
-      <c r="AG54" s="107"/>
-      <c r="AH54" s="107"/>
-      <c r="AI54" s="107"/>
-      <c r="AJ54" s="110"/>
-    </row>
-    <row r="55" spans="1:54" s="16" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A55" s="84" t="s">
-        <v>1</v>
-      </c>
-      <c r="B55" s="15"/>
-      <c r="C55" s="34"/>
-      <c r="D55" s="126"/>
-      <c r="E55" s="126"/>
-      <c r="F55" s="126"/>
-      <c r="G55" s="126"/>
-      <c r="H55" s="126"/>
-      <c r="I55" s="127"/>
-      <c r="J55" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="K55" s="34"/>
-      <c r="L55" s="86"/>
-      <c r="M55" s="86"/>
-      <c r="N55" s="87"/>
-      <c r="O55" s="87"/>
-      <c r="P55" s="87"/>
-      <c r="Q55" s="87"/>
-      <c r="R55" s="88"/>
-      <c r="S55" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="T55" s="15"/>
-      <c r="U55" s="89"/>
-      <c r="V55" s="89"/>
-      <c r="W55" s="89"/>
-      <c r="X55" s="89"/>
-      <c r="Y55" s="89"/>
-      <c r="Z55" s="89"/>
-      <c r="AA55" s="90"/>
-      <c r="AB55" s="85" t="s">
-        <v>1</v>
-      </c>
-      <c r="AC55" s="34"/>
-      <c r="AD55" s="91"/>
-      <c r="AE55" s="91"/>
-      <c r="AF55" s="91"/>
-      <c r="AG55" s="91"/>
-      <c r="AH55" s="91"/>
-      <c r="AI55" s="91"/>
-      <c r="AJ55" s="92"/>
-    </row>
-    <row r="56" spans="1:54" s="16" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A56" s="93" t="s">
-        <v>2</v>
-      </c>
-      <c r="B56" s="15"/>
-      <c r="C56" s="34"/>
-      <c r="D56" s="124"/>
-      <c r="E56" s="124"/>
-      <c r="F56" s="124"/>
-      <c r="G56" s="124"/>
-      <c r="H56" s="124"/>
-      <c r="I56" s="125"/>
-      <c r="J56" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="K56" s="18"/>
-      <c r="L56" s="77"/>
-      <c r="M56" s="77"/>
-      <c r="N56" s="95"/>
-      <c r="O56" s="95"/>
-      <c r="P56" s="96"/>
-      <c r="Q56" s="95"/>
-      <c r="R56" s="97"/>
-      <c r="S56" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="T56" s="15"/>
-      <c r="U56" s="77"/>
-      <c r="V56" s="77"/>
-      <c r="W56" s="77"/>
-      <c r="X56" s="77"/>
-      <c r="Y56" s="77"/>
-      <c r="Z56" s="77"/>
-      <c r="AA56" s="98"/>
-      <c r="AB56" s="94" t="s">
-        <v>2</v>
-      </c>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="96"/>
-      <c r="AE56" s="96"/>
-      <c r="AF56" s="96"/>
-      <c r="AG56" s="96"/>
-      <c r="AH56" s="96"/>
-      <c r="AI56" s="96"/>
-      <c r="AJ56" s="99"/>
-    </row>
-    <row r="57" spans="1:54" s="16" customFormat="1" ht="25.5" customHeight="1">
-      <c r="A57" s="93" t="s">
-        <v>3</v>
-      </c>
-      <c r="B57" s="15"/>
-      <c r="C57" s="18"/>
-      <c r="D57" s="123"/>
-      <c r="E57" s="124"/>
-      <c r="F57" s="124"/>
-      <c r="G57" s="124"/>
-      <c r="H57" s="124"/>
-      <c r="I57" s="125"/>
-      <c r="J57" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="K57" s="18"/>
-      <c r="L57" s="77"/>
-      <c r="M57" s="77"/>
-      <c r="N57" s="100"/>
-      <c r="O57" s="100"/>
-      <c r="P57" s="100"/>
-      <c r="Q57" s="100"/>
-      <c r="R57" s="101"/>
-      <c r="S57" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="T57" s="15"/>
-      <c r="U57" s="96"/>
-      <c r="V57" s="77"/>
-      <c r="W57" s="77"/>
-      <c r="X57" s="77"/>
-      <c r="Y57" s="77"/>
-      <c r="Z57" s="77"/>
-      <c r="AA57" s="98"/>
-      <c r="AB57" s="94" t="s">
-        <v>3</v>
-      </c>
-      <c r="AC57" s="18"/>
-      <c r="AD57" s="77"/>
-      <c r="AE57" s="96"/>
-      <c r="AF57" s="96"/>
-      <c r="AG57" s="96"/>
-      <c r="AH57" s="96"/>
-      <c r="AI57" s="96"/>
-      <c r="AJ57" s="99"/>
-    </row>
-    <row r="58" spans="1:54" s="16" customFormat="1" ht="51.75" customHeight="1">
-      <c r="A58" s="102" t="s">
-        <v>4</v>
-      </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="87"/>
-      <c r="D58" s="124"/>
-      <c r="E58" s="124"/>
-      <c r="F58" s="124"/>
-      <c r="G58" s="124"/>
-      <c r="H58" s="124"/>
-      <c r="I58" s="125"/>
-      <c r="J58" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="K58" s="87"/>
-      <c r="L58" s="89"/>
-      <c r="M58" s="89"/>
-      <c r="N58" s="87"/>
-      <c r="O58" s="87"/>
-      <c r="P58" s="87"/>
-      <c r="Q58" s="87"/>
-      <c r="R58" s="87"/>
-      <c r="S58" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="T58" s="89"/>
-      <c r="U58" s="87"/>
-      <c r="V58" s="89"/>
-      <c r="W58" s="89"/>
-      <c r="X58" s="89"/>
-      <c r="Y58" s="89"/>
-      <c r="Z58" s="89"/>
-      <c r="AA58" s="89"/>
-      <c r="AB58" s="103" t="s">
-        <v>4</v>
-      </c>
-      <c r="AC58" s="87"/>
-      <c r="AD58" s="89"/>
-      <c r="AE58" s="87"/>
-      <c r="AF58" s="87"/>
-      <c r="AG58" s="87"/>
-      <c r="AH58" s="87"/>
-      <c r="AI58" s="91"/>
-      <c r="AJ58" s="92"/>
-    </row>
-    <row r="59" spans="1:54" ht="5.25" customHeight="1" thickBot="1">
-      <c r="A59" s="104"/>
-      <c r="B59" s="44"/>
-      <c r="C59" s="44"/>
-      <c r="D59" s="44"/>
-      <c r="E59" s="44"/>
-      <c r="F59" s="44"/>
-      <c r="G59" s="44"/>
-      <c r="H59" s="44"/>
-      <c r="I59" s="44"/>
-      <c r="J59" s="44"/>
-      <c r="K59" s="44"/>
-      <c r="L59" s="44"/>
-      <c r="M59" s="44"/>
-      <c r="N59" s="44"/>
-      <c r="O59" s="44"/>
-      <c r="P59" s="44"/>
-      <c r="Q59" s="44"/>
-      <c r="R59" s="44"/>
-      <c r="S59" s="44"/>
-      <c r="T59" s="44"/>
-      <c r="U59" s="44"/>
-      <c r="V59" s="44"/>
-      <c r="W59" s="44"/>
-      <c r="X59" s="44"/>
-      <c r="Y59" s="44"/>
-      <c r="Z59" s="44"/>
-      <c r="AA59" s="44"/>
-      <c r="AB59" s="44"/>
-      <c r="AC59" s="44"/>
-      <c r="AD59" s="44"/>
-      <c r="AE59" s="44"/>
-      <c r="AF59" s="44"/>
-      <c r="AG59" s="44"/>
-      <c r="AH59" s="44"/>
-      <c r="AI59" s="44"/>
-      <c r="AJ59" s="105"/>
-    </row>
-  </sheetData>
-  <mergeCells count="15">
-    <mergeCell ref="AE7:AJ7"/>
-    <mergeCell ref="A8:AJ8"/>
-    <mergeCell ref="A2:G6"/>
-    <mergeCell ref="H2:AD3"/>
-    <mergeCell ref="AE2:AJ5"/>
-    <mergeCell ref="H4:AD6"/>
-    <mergeCell ref="AE6:AG6"/>
-    <mergeCell ref="AH6:AJ6"/>
-    <mergeCell ref="D57:I57"/>
-    <mergeCell ref="D58:I58"/>
-    <mergeCell ref="Q53:T53"/>
-    <mergeCell ref="AB53:AE53"/>
-    <mergeCell ref="A54:F54"/>
-    <mergeCell ref="D55:I55"/>
-    <mergeCell ref="D56:I56"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.31496062992125984" right="0.11811023622047245" top="0.43307086614173229" bottom="0.19685039370078741" header="0.35433070866141736" footer="0.31496062992125984"/>
-  <pageSetup scale="45" orientation="portrait" r:id="rId1"/>
-  <colBreaks count="1" manualBreakCount="1">
-    <brk id="37" max="70" man="1"/>
-  </colBreaks>
+  <pageSetup paperSize="9" scale="44" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
   <drawing r:id="rId2"/>
 </worksheet>
 </file>